--- a/import/input/fosas_guanajuato_final.xlsx
+++ b/import/input/fosas_guanajuato_final.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgeruizreyes/Desktop/R/situación_fosas_guanajuato/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgeruizreyes/Desktop/R/situacion-fosas-guanajuato/import/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB3CD4-5335-6247-9E18-E0A012C3491C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC310F1-325D-9045-AC9E-7E2408E1A824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="500" windowWidth="25040" windowHeight="14240" xr2:uid="{ABC018F8-10CC-0048-91DA-B9DDF9F7D7C3}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="25040" windowHeight="14240" xr2:uid="{ABC018F8-10CC-0048-91DA-B9DDF9F7D7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$108</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="489">
   <si>
     <t>Año</t>
   </si>
@@ -1209,9 +1209,6 @@
     <t>Costado de un camino de saca cosechas, tierra de sembradío</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=eptZlXqxbd8</t>
-  </si>
-  <si>
     <t>El Salitre</t>
   </si>
   <si>
@@ -1362,9 +1359,6 @@
     <t>https://www.scribd.com/document/465027393/Fosas-seleccion-GTO-2009-2019-Fuentes-de-prensa-recortes</t>
   </si>
   <si>
-    <t>En un taller mecánico</t>
-  </si>
-  <si>
     <t>Colonia El Pintor</t>
   </si>
   <si>
@@ -1513,13 +1507,76 @@
   </si>
   <si>
     <t>links</t>
+  </si>
+  <si>
+    <t>Oteros</t>
+  </si>
+  <si>
+    <t>Predio en casa de la Calle Benito Juárez</t>
+  </si>
+  <si>
+    <t>El Capulín de Bustos</t>
+  </si>
+  <si>
+    <t>Niña identificada de 2 años sepultada entre rosales, asesinada por su mamá</t>
+  </si>
+  <si>
+    <t>Distancia aproximada de 300 metros de la carretera Acámbaro- Zinapécuaro</t>
+  </si>
+  <si>
+    <t>Comunidad de El moral</t>
+  </si>
+  <si>
+    <t>Osamienta semienterrada</t>
+  </si>
+  <si>
+    <t>http://jerenews.blogspot.com/2014/05/hallan-decapitado-y-osamenta-enterrada.html</t>
+  </si>
+  <si>
+    <t>Fosa hallada entre cultivos</t>
+  </si>
+  <si>
+    <t>Inmediaciones de la comunidad San José de la Laguna y cerca de la comunidad de Betania.</t>
+  </si>
+  <si>
+    <t>Torso humano enterrado</t>
+  </si>
+  <si>
+    <t>https://notus.com.mx/hallan-fosa-clandestina-sembradios/</t>
+  </si>
+  <si>
+    <t>Dentro de una vivienda, patio de una finca, en calle Ejido de Jofre</t>
+  </si>
+  <si>
+    <t>Colonia Ejidal</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Cuerpo semienterrado aparentemente de un hombre</t>
+  </si>
+  <si>
+    <t>https://periodicocorreo.com.mx/hallan-cadaver-semienterrado-ademas-de-una-fosa-clandestina/</t>
+  </si>
+  <si>
+    <t>https://ita.calameo.com/read/0007578616643234957f2</t>
+  </si>
+  <si>
+    <t>https://transparencia.guanajuato.gob.mx/dedalo/modulos/bajaarchivo.php?tipo=1&amp;archivo=18444/anexo_18444.pdf</t>
+  </si>
+  <si>
+    <t>https://www.agoragto.com/noticias/nota-roja/tres-de-los-cinco-en-fosa-recibieron-tiro/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1598,6 +1655,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2C2F34"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1641,7 +1730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1716,10 +1805,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2035,21 +2144,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D242533B-FE67-2F45-BCCA-7E6BFE92D7BB}">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="I73" workbookViewId="0">
+      <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="48" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" style="38" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="45" customWidth="1"/>
     <col min="5" max="5" width="32.1640625" customWidth="1"/>
     <col min="6" max="6" width="55.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24" style="48" customWidth="1"/>
+    <col min="7" max="7" width="24" style="47" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" customWidth="1"/>
     <col min="9" max="9" width="17.83203125" style="42" customWidth="1"/>
     <col min="10" max="10" width="35.33203125" customWidth="1"/>
@@ -2057,7 +2166,7 @@
     <col min="14" max="14" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -2065,13 +2174,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>433</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>435</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>2</v>
@@ -2083,7 +2192,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>5</v>
@@ -2095,66 +2204,68 @@
         <v>7</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N1" s="39" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="62">
         <v>2020</v>
       </c>
-      <c r="B2" s="35">
-        <v>43966</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="44">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>4</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="51">
+        <v>44033</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="43">
+        <v>11</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="53" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="19">
         <v>2020</v>
       </c>
       <c r="B3" s="35">
-        <v>43956</v>
+        <v>43966</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>164</v>
@@ -2163,45 +2274,43 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="5">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="J3" s="3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="19">
         <v>2020</v>
       </c>
       <c r="B4" s="35">
-        <v>43947</v>
+        <v>43956</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>164</v>
@@ -2209,44 +2318,46 @@
       <c r="D4" s="44">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>23</v>
+        <v>463</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="1"/>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="19">
         <v>2020</v>
       </c>
       <c r="B5" s="35">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>164</v>
@@ -2254,44 +2365,44 @@
       <c r="D5" s="44">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="9">
-        <v>3</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="19">
         <v>2020</v>
       </c>
       <c r="B6" s="35">
-        <v>43895</v>
+        <v>43946</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>164</v>
@@ -2300,43 +2411,43 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
+        <v>459</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="3">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="J6" s="9">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="19">
         <v>2020</v>
       </c>
       <c r="B7" s="35">
-        <v>43884</v>
+        <v>43895</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>164</v>
@@ -2345,43 +2456,43 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
       <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="O7" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="19">
         <v>2020</v>
       </c>
       <c r="B8" s="35">
-        <v>43880</v>
+        <v>43884</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>164</v>
@@ -2390,22 +2501,22 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
       </c>
       <c r="J8" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>12</v>
@@ -2414,21 +2525,19 @@
         <v>12</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="19">
         <v>2020</v>
       </c>
       <c r="B9" s="35">
-        <v>43870</v>
+        <v>43880</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>164</v>
@@ -2439,43 +2548,43 @@
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>44</v>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>45</v>
+        <v>449</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
       </c>
       <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>47</v>
+      <c r="M9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="19">
         <v>2020</v>
       </c>
       <c r="B10" s="35">
-        <v>43868</v>
+        <v>43870</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>164</v>
@@ -2483,46 +2592,46 @@
       <c r="D10" s="44">
         <v>11</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>461</v>
+        <v>435</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="19">
         <v>2020</v>
       </c>
       <c r="B11" s="35">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>164</v>
@@ -2531,45 +2640,45 @@
         <v>11</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>56</v>
+        <v>460</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="19">
         <v>2020</v>
       </c>
       <c r="B12" s="35">
-        <v>43857</v>
+        <v>43866</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>164</v>
@@ -2577,46 +2686,46 @@
       <c r="D12" s="44">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
+      <c r="E12" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1</v>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="19">
         <v>2020</v>
       </c>
       <c r="B13" s="35">
-        <v>43854</v>
+        <v>43857</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>164</v>
@@ -2624,14 +2733,14 @@
       <c r="D13" s="44">
         <v>11</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>65</v>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>61</v>
@@ -2645,25 +2754,25 @@
       <c r="K13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>67</v>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="19">
         <v>2020</v>
       </c>
       <c r="B14" s="35">
-        <v>43849</v>
+        <v>43854</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>164</v>
@@ -2672,16 +2781,16 @@
         <v>11</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>461</v>
+        <v>439</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -2695,20 +2804,22 @@
       <c r="L14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="N14" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="19">
         <v>2020</v>
       </c>
       <c r="B15" s="35">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>164</v>
@@ -2717,16 +2828,16 @@
         <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>76</v>
+        <v>460</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2740,20 +2851,20 @@
       <c r="L15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M15" s="1"/>
+      <c r="N15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="19">
         <v>2020</v>
       </c>
       <c r="B16" s="35">
-        <v>43846</v>
+        <v>43848</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>164</v>
@@ -2761,46 +2872,44 @@
       <c r="D16" s="44">
         <v>11</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>71</v>
+      <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>461</v>
+        <v>440</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
       </c>
       <c r="J16" s="3">
-        <v>4</v>
-      </c>
-      <c r="K16" s="3">
-        <v>3</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="19">
         <v>2020</v>
       </c>
       <c r="B17" s="35">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>164</v>
@@ -2809,43 +2918,45 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>23</v>
+        <v>460</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="19">
         <v>2020</v>
       </c>
       <c r="B18" s="35">
-        <v>43836</v>
+        <v>43845</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>164</v>
@@ -2853,138 +2964,136 @@
       <c r="D18" s="44">
         <v>11</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>87</v>
+      <c r="E18" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>91</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N18" s="1"/>
       <c r="O18" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="19">
         <v>2020</v>
       </c>
       <c r="B19" s="35">
+        <v>43836</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="44">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="35">
         <v>43835</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="44">
-        <v>11</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="C20" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="44">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="G20" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
         <v>2</v>
       </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="7" t="s">
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="35">
-        <v>43825</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="44">
-        <v>11</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="19">
         <v>2019</v>
       </c>
       <c r="B21" s="35">
-        <v>43822</v>
+        <v>43825</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>164</v>
@@ -2992,17 +3101,17 @@
       <c r="D21" s="44">
         <v>11</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>103</v>
+      <c r="E21" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -3017,19 +3126,21 @@
         <v>12</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N21" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="O21" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="19">
         <v>2019</v>
       </c>
       <c r="B22" s="35">
-        <v>43809</v>
+        <v>43822</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>164</v>
@@ -3037,14 +3148,14 @@
       <c r="D22" s="44">
         <v>11</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
+      <c r="E22" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>89</v>
@@ -3053,30 +3164,28 @@
         <v>1</v>
       </c>
       <c r="J22" s="3">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N22" s="1"/>
       <c r="O22" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="19">
         <v>2019</v>
       </c>
       <c r="B23" s="35">
-        <v>43805</v>
+        <v>43809</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>164</v>
@@ -3084,14 +3193,14 @@
       <c r="D23" s="44">
         <v>11</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>111</v>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>89</v>
@@ -3100,25 +3209,25 @@
         <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>16</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="19">
         <v>2019</v>
       </c>
@@ -3131,23 +3240,23 @@
       <c r="D24" s="44">
         <v>11</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>117</v>
+      <c r="E24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>23</v>
+        <v>444</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="I24" s="3">
         <v>1</v>
       </c>
       <c r="J24" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>12</v>
@@ -3155,20 +3264,22 @@
       <c r="L24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N24" s="1"/>
+      <c r="M24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="O24" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="19">
         <v>2019</v>
       </c>
       <c r="B25" s="35">
-        <v>43803</v>
+        <v>43805</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>164</v>
@@ -3177,22 +3288,22 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>76</v>
+        <v>453</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
       </c>
       <c r="J25" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>12</v>
@@ -3200,20 +3311,20 @@
       <c r="L25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="7" t="s">
-        <v>121</v>
+      <c r="M25" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="19">
         <v>2019</v>
       </c>
       <c r="B26" s="35">
-        <v>43798</v>
+        <v>43803</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>164</v>
@@ -3221,17 +3332,17 @@
       <c r="D26" s="44">
         <v>11</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>123</v>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
@@ -3246,21 +3357,19 @@
         <v>12</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="19">
         <v>2019</v>
       </c>
       <c r="B27" s="35">
-        <v>43775</v>
+        <v>43798</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>164</v>
@@ -3269,16 +3378,16 @@
         <v>11</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
@@ -3293,14 +3402,16 @@
         <v>12</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="N27" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="O27" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="19">
         <v>2019</v>
       </c>
@@ -3314,22 +3425,22 @@
         <v>11</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
       </c>
       <c r="J28" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>12</v>
@@ -3337,22 +3448,20 @@
       <c r="L28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="19">
         <v>2019</v>
       </c>
       <c r="B29" s="35">
-        <v>43755</v>
+        <v>43775</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>164</v>
@@ -3361,43 +3470,45 @@
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I29" s="3">
         <v>1</v>
       </c>
       <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="19">
         <v>2019</v>
       </c>
       <c r="B30" s="35">
-        <v>43699</v>
+        <v>43755</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>164</v>
@@ -3406,13 +3517,13 @@
         <v>11</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>45</v>
@@ -3430,21 +3541,19 @@
         <v>12</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>145</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N30" s="1"/>
       <c r="O30" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="19">
         <v>2019</v>
       </c>
       <c r="B31" s="35">
-        <v>43691</v>
+        <v>43699</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>164</v>
@@ -3453,43 +3562,45 @@
         <v>11</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="3">
-        <v>8</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N31" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="O31" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="19">
         <v>2019</v>
       </c>
       <c r="B32" s="35">
-        <v>43689</v>
+        <v>43691</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>164</v>
@@ -3498,43 +3609,43 @@
         <v>11</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
+        <v>147</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>439</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
       </c>
       <c r="J32" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L32" s="3">
-        <v>1</v>
+      <c r="L32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="19">
         <v>2019</v>
       </c>
       <c r="B33" s="35">
-        <v>43675</v>
+        <v>43689</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>164</v>
@@ -3543,16 +3654,16 @@
         <v>11</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
@@ -3560,28 +3671,26 @@
       <c r="J33" s="3">
         <v>1</v>
       </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="K33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N33" s="1"/>
       <c r="O33" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="19">
         <v>2019</v>
       </c>
       <c r="B34" s="35">
-        <v>43669</v>
+        <v>43675</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>164</v>
@@ -3590,16 +3699,16 @@
         <v>11</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="I34" s="3">
         <v>1</v>
@@ -3607,26 +3716,28 @@
       <c r="J34" s="3">
         <v>1</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N34" s="7"/>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="O34" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="19">
         <v>2019</v>
       </c>
       <c r="B35" s="35">
-        <v>43651</v>
+        <v>43669</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>164</v>
@@ -3634,44 +3745,44 @@
       <c r="D35" s="44">
         <v>11</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>163</v>
+      <c r="E35" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>164</v>
+        <v>439</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="I35" s="3">
         <v>1</v>
       </c>
       <c r="J35" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N35" s="1"/>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N35" s="7"/>
       <c r="O35" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="19">
         <v>2019</v>
       </c>
       <c r="B36" s="35">
-        <v>43640</v>
+        <v>43651</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>164</v>
@@ -3680,16 +3791,16 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>168</v>
+        <v>12</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>169</v>
+        <v>442</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="I36" s="3">
         <v>1</v>
@@ -3703,22 +3814,20 @@
       <c r="L36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M36" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="M36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N36" s="1"/>
       <c r="O36" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="19">
         <v>2019</v>
       </c>
       <c r="B37" s="35">
-        <v>43634</v>
+        <v>43640</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>164</v>
@@ -3726,44 +3835,46 @@
       <c r="D37" s="44">
         <v>11</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>173</v>
+      <c r="E37" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
       </c>
       <c r="J37" s="3">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N37" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="O37" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="19">
         <v>2019</v>
       </c>
       <c r="B38" s="35">
-        <v>43628</v>
+        <v>43634</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>164</v>
@@ -3771,17 +3882,17 @@
       <c r="D38" s="44">
         <v>11</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
+      <c r="E38" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="I38" s="3">
         <v>1</v>
@@ -3789,26 +3900,26 @@
       <c r="J38" s="3">
         <v>1</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>12</v>
+      <c r="K38" s="3">
+        <v>1</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="19">
         <v>2019</v>
       </c>
       <c r="B39" s="35">
-        <v>43618</v>
+        <v>43628</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>164</v>
@@ -3819,41 +3930,41 @@
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>181</v>
+      <c r="F39" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>448</v>
+        <v>462</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
       </c>
       <c r="J39" s="3">
-        <v>4</v>
-      </c>
-      <c r="K39" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>182</v>
+      <c r="M39" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O39" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="19">
         <v>2019</v>
       </c>
       <c r="B40" s="35">
-        <v>43613</v>
+        <v>43618</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>164</v>
@@ -3861,46 +3972,44 @@
       <c r="D40" s="44">
         <v>11</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>185</v>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="I40" s="3">
         <v>1</v>
       </c>
       <c r="J40" s="3">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="19">
         <v>2019</v>
       </c>
       <c r="B41" s="35">
-        <v>43603</v>
+        <v>43613</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>164</v>
@@ -3908,17 +4017,17 @@
       <c r="D41" s="44">
         <v>11</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>189</v>
+      <c r="E41" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>36</v>
+        <v>465</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="I41" s="3">
         <v>1</v>
@@ -3932,22 +4041,22 @@
       <c r="L41" s="3">
         <v>1</v>
       </c>
-      <c r="M41" s="13" t="s">
-        <v>191</v>
+      <c r="M41" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="19">
         <v>2019</v>
       </c>
       <c r="B42" s="35">
-        <v>43589</v>
+        <v>43603</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>164</v>
@@ -3955,17 +4064,17 @@
       <c r="D42" s="44">
         <v>11</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>194</v>
+      <c r="E42" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="I42" s="3">
         <v>1</v>
@@ -3976,23 +4085,25 @@
       <c r="K42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="N42" s="1"/>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="O42" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="19">
         <v>2019</v>
       </c>
       <c r="B43" s="35">
-        <v>43583</v>
+        <v>43589</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>164</v>
@@ -4001,16 +4112,16 @@
         <v>11</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>56</v>
+        <v>447</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="I43" s="3">
         <v>1</v>
@@ -4018,26 +4129,26 @@
       <c r="J43" s="3">
         <v>1</v>
       </c>
-      <c r="K43" s="3">
-        <v>1</v>
+      <c r="K43" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="19">
         <v>2019</v>
       </c>
       <c r="B44" s="35">
-        <v>43581</v>
+        <v>43583</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>164</v>
@@ -4046,13 +4157,13 @@
         <v>11</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>56</v>
@@ -4063,28 +4174,26 @@
       <c r="J44" s="3">
         <v>1</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N44" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="N44" s="1"/>
       <c r="O44" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="19">
         <v>2019</v>
       </c>
       <c r="B45" s="35">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="C45" s="41" t="s">
         <v>164</v>
@@ -4092,17 +4201,17 @@
       <c r="D45" s="44">
         <v>11</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
+      <c r="E45" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>241</v>
+        <v>56</v>
       </c>
       <c r="I45" s="3">
         <v>1</v>
@@ -4110,28 +4219,28 @@
       <c r="J45" s="3">
         <v>1</v>
       </c>
-      <c r="K45" s="3">
-        <v>1</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>208</v>
+      <c r="K45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="19">
         <v>2019</v>
       </c>
       <c r="B46" s="35">
-        <v>43572</v>
+        <v>43580</v>
       </c>
       <c r="C46" s="41" t="s">
         <v>164</v>
@@ -4139,44 +4248,46 @@
       <c r="D46" s="44">
         <v>11</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>211</v>
+      <c r="E46" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="I46" s="3">
         <v>1</v>
       </c>
       <c r="J46" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K46" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M46" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="N46" s="7"/>
+      <c r="M46" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="O46" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="19">
         <v>2019</v>
       </c>
       <c r="B47" s="35">
-        <v>43553</v>
+        <v>43572</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>164</v>
@@ -4184,46 +4295,44 @@
       <c r="D47" s="44">
         <v>11</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>216</v>
+      <c r="E47" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I47" s="3">
         <v>1</v>
       </c>
       <c r="J47" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K47" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="M47" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="N47" s="7"/>
       <c r="O47" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="19">
         <v>2019</v>
       </c>
       <c r="B48" s="35">
-        <v>43541</v>
+        <v>43553</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>164</v>
@@ -4232,16 +4341,16 @@
         <v>11</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="I48" s="3">
         <v>1</v>
@@ -4249,28 +4358,28 @@
       <c r="J48" s="3">
         <v>1</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>223</v>
+      <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="19">
         <v>2019</v>
       </c>
       <c r="B49" s="35">
-        <v>43540</v>
+        <v>43541</v>
       </c>
       <c r="C49" s="41" t="s">
         <v>164</v>
@@ -4279,38 +4388,40 @@
         <v>11</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="I49" s="3">
         <v>1</v>
       </c>
       <c r="J49" s="3">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="N49" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="O49" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="19">
         <v>2019</v>
       </c>
@@ -4323,44 +4434,44 @@
       <c r="D50" s="44">
         <v>11</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>231</v>
+      <c r="E50" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>76</v>
+        <v>464</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="I50" s="3">
         <v>1</v>
       </c>
       <c r="J50" s="3">
-        <v>1</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>232</v>
+        <v>3</v>
+      </c>
+      <c r="K50" s="3">
+        <v>3</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="19">
         <v>2019</v>
       </c>
       <c r="B51" s="35">
-        <v>43536</v>
+        <v>43540</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>164</v>
@@ -4368,17 +4479,17 @@
       <c r="D51" s="44">
         <v>11</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>235</v>
+      <c r="E51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>99</v>
+        <v>440</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="I51" s="3">
         <v>1</v>
@@ -4386,28 +4497,26 @@
       <c r="J51" s="3">
         <v>1</v>
       </c>
-      <c r="K51" s="3">
-        <v>1</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="K51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N51" s="1"/>
       <c r="O51" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="19">
         <v>2019</v>
       </c>
       <c r="B52" s="35">
-        <v>43528</v>
+        <v>43536</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>164</v>
@@ -4416,16 +4525,16 @@
         <v>11</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>241</v>
+        <v>99</v>
       </c>
       <c r="I52" s="3">
         <v>1</v>
@@ -4439,22 +4548,22 @@
       <c r="L52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N52" s="7" t="s">
-        <v>243</v>
+      <c r="M52" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="19">
         <v>2019</v>
       </c>
       <c r="B53" s="35">
-        <v>43525</v>
+        <v>43528</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>164</v>
@@ -4463,16 +4572,16 @@
         <v>11</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="I53" s="3">
         <v>1</v>
@@ -4480,26 +4589,28 @@
       <c r="J53" s="3">
         <v>1</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="3">
-        <v>1</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="N53" s="1"/>
+      <c r="K53" s="3">
+        <v>1</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="O53" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="19">
         <v>2019</v>
       </c>
       <c r="B54" s="35">
-        <v>43511</v>
+        <v>43525</v>
       </c>
       <c r="C54" s="41" t="s">
         <v>164</v>
@@ -4508,16 +4619,16 @@
         <v>11</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -4528,23 +4639,23 @@
       <c r="K54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>12</v>
+      <c r="L54" s="3">
+        <v>1</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N54" s="1"/>
-      <c r="O54" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="19">
         <v>2019</v>
       </c>
       <c r="B55" s="35">
-        <v>43507</v>
+        <v>43511</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>164</v>
@@ -4553,16 +4664,16 @@
         <v>11</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>12</v>
+        <v>248</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="I55" s="3">
         <v>1</v>
@@ -4570,28 +4681,26 @@
       <c r="J55" s="3">
         <v>1</v>
       </c>
-      <c r="K55" s="3">
-        <v>1</v>
+      <c r="K55" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="19">
         <v>2019</v>
       </c>
       <c r="B56" s="35">
-        <v>43505</v>
+        <v>43507</v>
       </c>
       <c r="C56" s="41" t="s">
         <v>164</v>
@@ -4599,14 +4708,14 @@
       <c r="D56" s="44">
         <v>11</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>257</v>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>253</v>
@@ -4617,28 +4726,28 @@
       <c r="J56" s="3">
         <v>1</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>12</v>
+      <c r="K56" s="3">
+        <v>1</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" s="19">
         <v>2019</v>
       </c>
       <c r="B57" s="35">
-        <v>43502</v>
+        <v>43505</v>
       </c>
       <c r="C57" s="41" t="s">
         <v>164</v>
@@ -4646,14 +4755,14 @@
       <c r="D57" s="44">
         <v>11</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>257</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>253</v>
@@ -4671,21 +4780,21 @@
         <v>12</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="O57" s="18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="19">
         <v>2019</v>
       </c>
       <c r="B58" s="35">
-        <v>43500</v>
+        <v>43502</v>
       </c>
       <c r="C58" s="41" t="s">
         <v>164</v>
@@ -4700,7 +4809,7 @@
         <v>257</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>253</v>
@@ -4709,28 +4818,30 @@
         <v>1</v>
       </c>
       <c r="J58" s="3">
-        <v>2</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="N58" s="7"/>
-      <c r="O58" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="O58" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="19">
         <v>2019</v>
       </c>
       <c r="B59" s="35">
-        <v>43485</v>
+        <v>43500</v>
       </c>
       <c r="C59" s="41" t="s">
         <v>164</v>
@@ -4738,17 +4849,17 @@
       <c r="D59" s="44">
         <v>11</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
+      <c r="E59" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="I59" s="3">
         <v>1</v>
@@ -4757,70 +4868,70 @@
         <v>2</v>
       </c>
       <c r="K59" s="3">
-        <v>2</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>267</v>
+        <v>1</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="N59" s="7"/>
       <c r="O59" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B60" s="35">
+        <v>43485</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="44">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="N60" s="7"/>
+      <c r="O60" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="19">
-        <v>2018</v>
-      </c>
-      <c r="B60" s="35">
-        <v>43453</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D60" s="44">
-        <v>11</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N60" s="1"/>
-      <c r="O60" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="A61" s="19">
         <v>2018</v>
       </c>
       <c r="B61" s="35">
-        <v>43408</v>
+        <v>43453</v>
       </c>
       <c r="C61" s="41" t="s">
         <v>164</v>
@@ -4829,13 +4940,13 @@
         <v>11</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>89</v>
@@ -4844,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>12</v>
@@ -4853,19 +4964,19 @@
         <v>12</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N61" s="1"/>
-      <c r="O61" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="19">
         <v>2018</v>
       </c>
       <c r="B62" s="35">
-        <v>43396</v>
+        <v>43408</v>
       </c>
       <c r="C62" s="41" t="s">
         <v>164</v>
@@ -4874,13 +4985,13 @@
         <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>89</v>
@@ -4889,28 +5000,28 @@
         <v>1</v>
       </c>
       <c r="J62" s="3">
-        <v>6</v>
-      </c>
-      <c r="K62" s="3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N62" s="1"/>
-      <c r="O62" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="19">
         <v>2018</v>
       </c>
       <c r="B63" s="35">
-        <v>43393</v>
+        <v>43396</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>164</v>
@@ -4919,43 +5030,43 @@
         <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="H63" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I63" s="3">
         <v>1</v>
       </c>
       <c r="J63" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K63" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M63" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="N63" s="7"/>
+      <c r="M63" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N63" s="1"/>
       <c r="O63" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="19">
         <v>2018</v>
       </c>
       <c r="B64" s="35">
-        <v>43390</v>
+        <v>43393</v>
       </c>
       <c r="C64" s="41" t="s">
         <v>164</v>
@@ -4963,17 +5074,17 @@
       <c r="D64" s="44">
         <v>11</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>12</v>
+      <c r="E64" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>286</v>
+        <v>89</v>
       </c>
       <c r="I64" s="3">
         <v>1</v>
@@ -4988,19 +5099,19 @@
         <v>12</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N64" s="7"/>
-      <c r="O64" s="20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="19">
         <v>2018</v>
       </c>
       <c r="B65" s="35">
-        <v>43335</v>
+        <v>43390</v>
       </c>
       <c r="C65" s="41" t="s">
         <v>164</v>
@@ -5009,16 +5120,16 @@
         <v>11</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="I65" s="3">
         <v>1</v>
@@ -5033,21 +5144,19 @@
         <v>12</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="N65" s="7"/>
+      <c r="O65" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="19">
         <v>2018</v>
       </c>
       <c r="B66" s="35">
-        <v>43312</v>
+        <v>43335</v>
       </c>
       <c r="C66" s="41" t="s">
         <v>164</v>
@@ -5055,17 +5164,17 @@
       <c r="D66" s="44">
         <v>11</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>12</v>
+      <c r="E66" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="I66" s="3">
         <v>1</v>
@@ -5080,19 +5189,21 @@
         <v>12</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="N66" s="7"/>
-      <c r="O66" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="19">
         <v>2018</v>
       </c>
       <c r="B67" s="35">
-        <v>43245</v>
+        <v>43312</v>
       </c>
       <c r="C67" s="41" t="s">
         <v>164</v>
@@ -5101,16 +5212,16 @@
         <v>11</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>298</v>
+        <v>12</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>253</v>
+        <v>448</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="I67" s="3">
         <v>1</v>
@@ -5124,20 +5235,20 @@
       <c r="L67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M67" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="N67" s="1"/>
-      <c r="O67" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M67" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="N67" s="7"/>
+      <c r="O67" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="19">
         <v>2018</v>
       </c>
       <c r="B68" s="35">
-        <v>43229</v>
+        <v>43245</v>
       </c>
       <c r="C68" s="41" t="s">
         <v>164</v>
@@ -5146,43 +5257,43 @@
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="I68" s="3">
         <v>1</v>
       </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>12</v>
+      <c r="J68" s="3">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3">
+        <v>1</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M68" s="1"/>
-      <c r="N68" s="17" t="s">
-        <v>303</v>
-      </c>
+      <c r="M68" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N68" s="1"/>
       <c r="O68" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="19">
         <v>2018</v>
       </c>
       <c r="B69" s="35">
-        <v>43225</v>
+        <v>43229</v>
       </c>
       <c r="C69" s="41" t="s">
         <v>164</v>
@@ -5191,13 +5302,13 @@
         <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>302</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>218</v>
@@ -5206,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>12</v>
@@ -5214,20 +5325,20 @@
       <c r="L69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M69" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="N69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="O69" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="19">
         <v>2018</v>
       </c>
       <c r="B70" s="35">
-        <v>43224</v>
+        <v>43225</v>
       </c>
       <c r="C70" s="41" t="s">
         <v>164</v>
@@ -5242,7 +5353,7 @@
         <v>302</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>218</v>
@@ -5251,28 +5362,28 @@
         <v>1</v>
       </c>
       <c r="J70" s="2">
-        <v>27</v>
-      </c>
-      <c r="K70" s="2">
-        <v>5</v>
-      </c>
-      <c r="L70" s="2">
-        <v>1</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>307</v>
+        <v>9</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15">
       <c r="A71" s="19">
         <v>2018</v>
       </c>
       <c r="B71" s="35">
-        <v>43215</v>
+        <v>43224</v>
       </c>
       <c r="C71" s="41" t="s">
         <v>164</v>
@@ -5281,43 +5392,43 @@
         <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>465</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
       </c>
-      <c r="J71" s="3">
-        <v>3</v>
-      </c>
-      <c r="K71" s="3">
-        <v>3</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>12</v>
+      <c r="J71" s="2">
+        <v>27</v>
+      </c>
+      <c r="K71" s="2">
+        <v>5</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N71" s="1"/>
-      <c r="O71" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="19">
         <v>2018</v>
       </c>
       <c r="B72" s="35">
-        <v>43193</v>
+        <v>43215</v>
       </c>
       <c r="C72" s="41" t="s">
         <v>164</v>
@@ -5326,37 +5437,38 @@
         <v>11</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I72" s="3">
         <v>1</v>
       </c>
       <c r="J72" s="3">
-        <v>1</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
+        <v>3</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="O72" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="N72" s="1"/>
+      <c r="O72" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="19">
         <v>2018</v>
       </c>
@@ -5370,13 +5482,13 @@
         <v>11</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>313</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>56</v>
@@ -5394,19 +5506,18 @@
         <v>12</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="N73" s="1"/>
+        <v>314</v>
+      </c>
       <c r="O73" s="14" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15">
       <c r="A74" s="19">
         <v>2018</v>
       </c>
       <c r="B74" s="35">
-        <v>43192</v>
+        <v>43193</v>
       </c>
       <c r="C74" s="41" t="s">
         <v>164</v>
@@ -5414,46 +5525,44 @@
       <c r="D74" s="44">
         <v>11</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>318</v>
+      <c r="E74" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H74" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I74" s="3">
         <v>1</v>
       </c>
       <c r="J74" s="3">
-        <v>2</v>
-      </c>
-      <c r="K74" s="3">
-        <v>1</v>
-      </c>
-      <c r="L74" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="N74" s="1"/>
+      <c r="O74" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="19">
         <v>2018</v>
       </c>
       <c r="B75" s="35">
-        <v>43132</v>
+        <v>43192</v>
       </c>
       <c r="C75" s="41" t="s">
         <v>164</v>
@@ -5462,43 +5571,45 @@
         <v>11</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I75" s="3">
         <v>1</v>
       </c>
-      <c r="J75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N75" s="7"/>
+      <c r="J75" s="3">
+        <v>2</v>
+      </c>
+      <c r="K75" s="3">
+        <v>1</v>
+      </c>
+      <c r="L75" s="3">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="O75" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="19">
         <v>2018</v>
       </c>
       <c r="B76" s="35">
-        <v>43129</v>
+        <v>43132</v>
       </c>
       <c r="C76" s="41" t="s">
         <v>164</v>
@@ -5506,44 +5617,44 @@
       <c r="D76" s="44">
         <v>11</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>309</v>
+      <c r="E76" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>17</v>
+        <v>435</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I76" s="3">
         <v>1</v>
       </c>
-      <c r="J76" s="3">
-        <v>2</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N76" s="1"/>
+      <c r="J76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="N76" s="7"/>
       <c r="O76" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="19">
         <v>2018</v>
       </c>
       <c r="B77" s="35">
-        <v>43126</v>
+        <v>43129</v>
       </c>
       <c r="C77" s="41" t="s">
         <v>164</v>
@@ -5551,17 +5662,17 @@
       <c r="D77" s="44">
         <v>11</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>329</v>
+      <c r="E77" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>330</v>
+        <v>463</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I77" s="3">
         <v>1</v>
@@ -5576,66 +5687,64 @@
         <v>12</v>
       </c>
       <c r="M77" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="N77" s="1"/>
+      <c r="O77" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B78" s="35">
+        <v>43126</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="44">
+        <v>11</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="I78" s="3">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3">
+        <v>2</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4" t="s">
+      <c r="N78" s="4"/>
+      <c r="O78" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="19">
-        <v>2017</v>
-      </c>
-      <c r="B78" s="35">
-        <v>43090</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D78" s="44">
-        <v>11</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="I78" s="3">
-        <v>1</v>
-      </c>
-      <c r="J78" s="3">
-        <v>4</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15">
       <c r="A79" s="19">
         <v>2017</v>
       </c>
       <c r="B79" s="35">
-        <v>43069</v>
+        <v>43090</v>
       </c>
       <c r="C79" s="41" t="s">
         <v>164</v>
@@ -5644,43 +5753,45 @@
         <v>11</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>218</v>
+        <v>335</v>
       </c>
       <c r="I79" s="3">
         <v>1</v>
       </c>
       <c r="J79" s="3">
-        <v>1</v>
-      </c>
-      <c r="K79" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M79" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="N79" s="7"/>
+      <c r="M79" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="O79" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="19">
         <v>2017</v>
       </c>
       <c r="B80" s="35">
-        <v>42982</v>
+        <v>43069</v>
       </c>
       <c r="C80" s="41" t="s">
         <v>164</v>
@@ -5688,17 +5799,17 @@
       <c r="D80" s="44">
         <v>11</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>344</v>
+      <c r="E80" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>164</v>
+        <v>465</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="I80" s="3">
         <v>1</v>
@@ -5706,26 +5817,26 @@
       <c r="J80" s="3">
         <v>1</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>12</v>
+      <c r="K80" s="3">
+        <v>1</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M80" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="N80" s="1"/>
+      <c r="M80" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="N80" s="7"/>
       <c r="O80" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="19">
         <v>2017</v>
       </c>
       <c r="B81" s="35">
-        <v>42980</v>
+        <v>42982</v>
       </c>
       <c r="C81" s="41" t="s">
         <v>164</v>
@@ -5733,17 +5844,17 @@
       <c r="D81" s="44">
         <v>11</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>348</v>
+      <c r="E81" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>213</v>
+        <v>442</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="I81" s="3">
         <v>1</v>
@@ -5757,22 +5868,20 @@
       <c r="L81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M81" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="N81" s="7" t="s">
-        <v>350</v>
-      </c>
+      <c r="M81" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N81" s="1"/>
       <c r="O81" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="19">
         <v>2017</v>
       </c>
       <c r="B82" s="35">
-        <v>42957</v>
+        <v>42980</v>
       </c>
       <c r="C82" s="41" t="s">
         <v>164</v>
@@ -5781,16 +5890,16 @@
         <v>11</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>152</v>
+        <v>455</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="I82" s="3">
         <v>1</v>
@@ -5804,22 +5913,22 @@
       <c r="L82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M82" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>355</v>
+      <c r="M82" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="19">
         <v>2017</v>
       </c>
       <c r="B83" s="35">
-        <v>42951</v>
+        <v>42957</v>
       </c>
       <c r="C83" s="41" t="s">
         <v>164</v>
@@ -5827,23 +5936,23 @@
       <c r="D83" s="44">
         <v>11</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>12</v>
+      <c r="E83" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="I83" s="3">
         <v>1</v>
       </c>
       <c r="J83" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>12</v>
@@ -5852,19 +5961,21 @@
         <v>12</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="N83" s="1"/>
+        <v>354</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="O83" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="19">
         <v>2017</v>
       </c>
       <c r="B84" s="35">
-        <v>42927</v>
+        <v>42951</v>
       </c>
       <c r="C84" s="41" t="s">
         <v>164</v>
@@ -5873,13 +5984,13 @@
         <v>11</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>36</v>
@@ -5888,122 +5999,122 @@
         <v>1</v>
       </c>
       <c r="J84" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L84" s="3">
-        <v>1</v>
+      <c r="L84" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>363</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N84" s="1"/>
       <c r="O84" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="19">
         <v>2017</v>
       </c>
       <c r="B85" s="35">
+        <v>42927</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85" s="44">
+        <v>11</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I85" s="3">
+        <v>1</v>
+      </c>
+      <c r="J85" s="3">
+        <v>1</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="3">
+        <v>1</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B86" s="35">
         <v>42743</v>
       </c>
-      <c r="C85" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D85" s="44">
-        <v>11</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="C86" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" s="44">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="H85" s="2" t="s">
+      <c r="G86" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I85" s="3">
-        <v>1</v>
-      </c>
-      <c r="J85" s="3">
+      <c r="I86" s="3">
+        <v>1</v>
+      </c>
+      <c r="J86" s="3">
         <v>5</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K86" s="3">
         <v>3</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L86" s="3">
         <v>2</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="N86" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="O85" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" s="19">
-        <v>2016</v>
-      </c>
-      <c r="B86" s="35">
-        <v>42710</v>
-      </c>
-      <c r="C86" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D86" s="44">
-        <v>11</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I86" s="3">
-        <v>1</v>
-      </c>
-      <c r="J86" s="3">
-        <v>1</v>
-      </c>
-      <c r="K86" s="3">
-        <v>1</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="N86" s="1"/>
-      <c r="O86" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="63" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="19">
         <v>2016</v>
       </c>
       <c r="B87" s="35">
-        <v>42709</v>
+        <v>42710</v>
       </c>
       <c r="C87" s="41" t="s">
         <v>164</v>
@@ -6012,16 +6123,16 @@
         <v>11</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>372</v>
+        <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I87" s="3">
         <v>1</v>
@@ -6036,19 +6147,19 @@
         <v>12</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A88" s="34">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="19">
         <v>2016</v>
       </c>
-      <c r="B88" s="36">
-        <v>42614</v>
+      <c r="B88" s="35">
+        <v>42709</v>
       </c>
       <c r="C88" s="41" t="s">
         <v>164</v>
@@ -6056,46 +6167,44 @@
       <c r="D88" s="44">
         <v>11</v>
       </c>
-      <c r="E88" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>376</v>
+      <c r="E88" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="H88" s="24" t="s">
-        <v>152</v>
+      <c r="H88" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
       </c>
-      <c r="J88" s="25">
-        <v>2</v>
-      </c>
-      <c r="K88" s="25">
-        <v>1</v>
-      </c>
-      <c r="L88" s="25">
-        <v>1</v>
-      </c>
-      <c r="M88" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="N88" s="23" t="s">
-        <v>378</v>
-      </c>
+      <c r="J88" s="3">
+        <v>1</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N88" s="1"/>
       <c r="O88" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="34">
         <v>2016</v>
       </c>
       <c r="B89" s="36">
-        <v>42445</v>
+        <v>42614</v>
       </c>
       <c r="C89" s="41" t="s">
         <v>164</v>
@@ -6103,44 +6212,46 @@
       <c r="D89" s="44">
         <v>11</v>
       </c>
-      <c r="E89" s="23" t="s">
-        <v>380</v>
+      <c r="E89" s="22" t="s">
+        <v>374</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="I89" s="3">
         <v>1</v>
       </c>
       <c r="J89" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" s="25">
         <v>1</v>
       </c>
-      <c r="L89" s="25" t="s">
-        <v>12</v>
+      <c r="L89" s="25">
+        <v>1</v>
       </c>
       <c r="M89" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="N89" s="23"/>
+        <v>376</v>
+      </c>
+      <c r="N89" s="23" t="s">
+        <v>377</v>
+      </c>
       <c r="O89" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="34">
         <v>2016</v>
       </c>
-      <c r="B90" s="36">
-        <v>42429</v>
+      <c r="B90" s="51">
+        <v>42579</v>
       </c>
       <c r="C90" s="41" t="s">
         <v>164</v>
@@ -6148,17 +6259,17 @@
       <c r="D90" s="44">
         <v>11</v>
       </c>
-      <c r="E90" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>385</v>
+      <c r="E90" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="F90" s="57" t="s">
+        <v>477</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H90" s="26" t="s">
-        <v>36</v>
+        <v>444</v>
+      </c>
+      <c r="H90" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="I90" s="3">
         <v>1</v>
@@ -6172,20 +6283,22 @@
       <c r="L90" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M90" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="N90" s="23"/>
-      <c r="O90" s="14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M90" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="N90" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O90" s="53" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="34">
         <v>2016</v>
       </c>
       <c r="B91" s="36">
-        <v>42414</v>
+        <v>42445</v>
       </c>
       <c r="C91" s="41" t="s">
         <v>164</v>
@@ -6194,13 +6307,13 @@
         <v>11</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H91" s="24" t="s">
         <v>36</v>
@@ -6209,30 +6322,28 @@
         <v>1</v>
       </c>
       <c r="J91" s="25">
-        <v>2</v>
-      </c>
-      <c r="K91" s="25" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K91" s="25">
+        <v>1</v>
       </c>
       <c r="L91" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M91" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="N91" s="23" t="s">
-        <v>391</v>
-      </c>
+      <c r="M91" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="N91" s="23"/>
       <c r="O91" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="34">
         <v>2016</v>
       </c>
       <c r="B92" s="36">
-        <v>42382</v>
+        <v>42429</v>
       </c>
       <c r="C92" s="41" t="s">
         <v>164</v>
@@ -6241,16 +6352,16 @@
         <v>11</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>12</v>
+        <v>383</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>384</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="H92" s="24" t="s">
-        <v>228</v>
+        <v>450</v>
+      </c>
+      <c r="H92" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="I92" s="3">
         <v>1</v>
@@ -6265,19 +6376,19 @@
         <v>12</v>
       </c>
       <c r="M92" s="23" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="N92" s="23"/>
-      <c r="O92" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="34">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B93" s="36">
-        <v>42320</v>
+        <v>42414</v>
       </c>
       <c r="C93" s="41" t="s">
         <v>164</v>
@@ -6286,13 +6397,13 @@
         <v>11</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H93" s="24" t="s">
         <v>36</v>
@@ -6301,30 +6412,30 @@
         <v>1</v>
       </c>
       <c r="J93" s="25">
-        <v>1</v>
-      </c>
-      <c r="K93" s="25">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K93" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="L93" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M93" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="N93" s="28" t="s">
-        <v>399</v>
+      <c r="M93" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="N93" s="23" t="s">
+        <v>390</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="34">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B94" s="36">
-        <v>42178</v>
+        <v>42382</v>
       </c>
       <c r="C94" s="41" t="s">
         <v>164</v>
@@ -6332,44 +6443,44 @@
       <c r="D94" s="44">
         <v>11</v>
       </c>
-      <c r="E94" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="F94" s="28" t="s">
-        <v>402</v>
+      <c r="E94" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="I94" s="3">
         <v>1</v>
       </c>
-      <c r="J94" s="29">
-        <v>2</v>
-      </c>
-      <c r="K94" s="29">
-        <v>1</v>
-      </c>
-      <c r="L94" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M94" s="28" t="s">
-        <v>403</v>
+      <c r="J94" s="25">
+        <v>1</v>
+      </c>
+      <c r="K94" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L94" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94" s="23" t="s">
+        <v>393</v>
       </c>
       <c r="N94" s="23"/>
       <c r="O94" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="34">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B95" s="36">
-        <v>41970</v>
+        <v>42320</v>
       </c>
       <c r="C95" s="41" t="s">
         <v>164</v>
@@ -6378,13 +6489,13 @@
         <v>11</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H95" s="24" t="s">
         <v>36</v>
@@ -6393,28 +6504,30 @@
         <v>1</v>
       </c>
       <c r="J95" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K95" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L95" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M95" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="N95" s="23"/>
+      <c r="M95" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="N95" s="28" t="s">
+        <v>398</v>
+      </c>
       <c r="O95" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="34">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B96" s="36">
-        <v>41852</v>
+        <v>42178</v>
       </c>
       <c r="C96" s="41" t="s">
         <v>164</v>
@@ -6422,44 +6535,44 @@
       <c r="D96" s="44">
         <v>11</v>
       </c>
-      <c r="E96" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>410</v>
+      <c r="E96" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>401</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>450</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="I96" s="3">
         <v>1</v>
       </c>
-      <c r="J96" s="25">
-        <v>4</v>
-      </c>
-      <c r="K96" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L96" s="25">
-        <v>4</v>
-      </c>
-      <c r="M96" s="23" t="s">
-        <v>411</v>
+      <c r="J96" s="29">
+        <v>2</v>
+      </c>
+      <c r="K96" s="29">
+        <v>1</v>
+      </c>
+      <c r="L96" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M96" s="28" t="s">
+        <v>402</v>
       </c>
       <c r="N96" s="23"/>
       <c r="O96" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="34">
         <v>2014</v>
       </c>
       <c r="B97" s="36">
-        <v>41674</v>
+        <v>41970</v>
       </c>
       <c r="C97" s="41" t="s">
         <v>164</v>
@@ -6468,43 +6581,43 @@
         <v>11</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="G97" s="22" t="s">
-        <v>456</v>
+        <v>405</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>450</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>415</v>
+        <v>36</v>
       </c>
       <c r="I97" s="3">
         <v>1</v>
       </c>
       <c r="J97" s="25">
+        <v>4</v>
+      </c>
+      <c r="K97" s="25">
         <v>2</v>
       </c>
-      <c r="K97" s="25" t="s">
-        <v>12</v>
-      </c>
       <c r="L97" s="25" t="s">
         <v>12</v>
       </c>
       <c r="M97" s="23" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="N97" s="23"/>
       <c r="O97" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="34">
         <v>2014</v>
       </c>
-      <c r="B98" s="37">
-        <v>2014</v>
+      <c r="B98" s="36">
+        <v>41852</v>
       </c>
       <c r="C98" s="41" t="s">
         <v>164</v>
@@ -6512,460 +6625,605 @@
       <c r="D98" s="44">
         <v>11</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="46" t="s">
-        <v>440</v>
-      </c>
-      <c r="H98" s="26" t="s">
-        <v>335</v>
+      <c r="E98" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H98" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="I98" s="3">
         <v>1</v>
       </c>
-      <c r="J98" s="30">
+      <c r="J98" s="25">
         <v>4</v>
       </c>
-      <c r="K98" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L98" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M98" s="32"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K98" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L98" s="25">
+        <v>4</v>
+      </c>
+      <c r="M98" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="N98" s="23"/>
+      <c r="O98" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="34">
         <v>2014</v>
       </c>
-      <c r="B99" s="37">
+      <c r="B99" s="51">
+        <v>41779</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="44">
+        <v>11</v>
+      </c>
+      <c r="E99" s="55" t="s">
+        <v>472</v>
+      </c>
+      <c r="F99" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1</v>
+      </c>
+      <c r="J99" s="25">
+        <v>1</v>
+      </c>
+      <c r="K99" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L99" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M99" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="N99" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O99" s="53" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="34">
         <v>2014</v>
       </c>
-      <c r="C99" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D99" s="44">
-        <v>11</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H99" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I99" s="3">
-        <v>1</v>
-      </c>
-      <c r="J99" s="30">
+      <c r="B100" s="36">
+        <v>41674</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="44">
+        <v>11</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="H100" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1</v>
+      </c>
+      <c r="J100" s="25">
+        <v>2</v>
+      </c>
+      <c r="K100" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L100" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M100" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="N100" s="23"/>
+      <c r="O100" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="62">
+        <v>2013</v>
+      </c>
+      <c r="B101" s="49">
+        <v>41528</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" s="44">
+        <v>11</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="50" t="s">
+        <v>468</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1</v>
+      </c>
+      <c r="J101" s="25">
         <v>4</v>
       </c>
-      <c r="K99" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L99" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M99" s="33" t="s">
+      <c r="K101" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M101" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O101" s="63" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="62">
+        <v>2012</v>
+      </c>
+      <c r="B102" s="51">
+        <v>40966</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D102" s="44">
+        <v>11</v>
+      </c>
+      <c r="E102" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="F102" s="52" t="s">
+        <v>470</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="H102" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1</v>
+      </c>
+      <c r="J102" s="25">
+        <v>1</v>
+      </c>
+      <c r="K102" s="25">
+        <v>0</v>
+      </c>
+      <c r="L102" s="25">
+        <v>1</v>
+      </c>
+      <c r="M102" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="O102" s="53" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="34">
+        <v>2012</v>
+      </c>
+      <c r="B103" s="37">
+        <v>2012</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D103" s="44">
+        <v>11</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="F103" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H103" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="I103" s="3">
+        <v>1</v>
+      </c>
+      <c r="J103" s="30">
+        <v>3</v>
+      </c>
+      <c r="K103" s="31">
+        <v>1</v>
+      </c>
+      <c r="L103" s="31">
+        <v>1</v>
+      </c>
+      <c r="M103" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="N99" s="32"/>
-      <c r="O99" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" s="34">
-        <v>2012</v>
-      </c>
-      <c r="B100" s="37">
-        <v>2012</v>
-      </c>
-      <c r="C100" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D100" s="44">
-        <v>11</v>
-      </c>
-      <c r="E100" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="F100" s="32" t="s">
+      <c r="O103" s="14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="34">
+        <v>2011</v>
+      </c>
+      <c r="B104" s="37">
+        <v>2011</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D104" s="44">
+        <v>11</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H104" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" s="3">
+        <v>1</v>
+      </c>
+      <c r="J104" s="25">
+        <v>1</v>
+      </c>
+      <c r="K104" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L104" s="25">
+        <v>1</v>
+      </c>
+      <c r="M104" s="23"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="34">
+        <v>2011</v>
+      </c>
+      <c r="B105" s="37">
+        <v>2011</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D105" s="44">
+        <v>11</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="H105" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1</v>
-      </c>
-      <c r="J100" s="30">
-        <v>3</v>
-      </c>
-      <c r="K100" s="31">
-        <v>1</v>
-      </c>
-      <c r="L100" s="31">
-        <v>1</v>
-      </c>
-      <c r="M100" s="33" t="s">
+      <c r="I105" s="3">
+        <v>1</v>
+      </c>
+      <c r="J105" s="30">
+        <v>2</v>
+      </c>
+      <c r="K105" s="31">
+        <v>2</v>
+      </c>
+      <c r="L105" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M105" s="32"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="34">
+        <v>2010</v>
+      </c>
+      <c r="B106" s="36">
+        <v>40318</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106" s="44">
+        <v>11</v>
+      </c>
+      <c r="E106" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="N100" s="32"/>
-      <c r="O100" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" s="34">
-        <v>2011</v>
-      </c>
-      <c r="B101" s="37">
-        <v>2011</v>
-      </c>
-      <c r="C101" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D101" s="44">
-        <v>11</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H101" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1</v>
-      </c>
-      <c r="J101" s="25">
-        <v>1</v>
-      </c>
-      <c r="K101" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L101" s="25">
-        <v>1</v>
-      </c>
-      <c r="M101" s="23"/>
-      <c r="N101" s="23"/>
-      <c r="O101" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" s="34">
-        <v>2011</v>
-      </c>
-      <c r="B102" s="37">
-        <v>2011</v>
-      </c>
-      <c r="C102" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D102" s="44">
-        <v>11</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="H102" s="26" t="s">
+      <c r="F106" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="I102" s="3">
-        <v>1</v>
-      </c>
-      <c r="J102" s="30">
+      <c r="G106" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I106" s="3">
+        <v>1</v>
+      </c>
+      <c r="J106" s="25">
+        <v>1</v>
+      </c>
+      <c r="K106" s="25">
+        <v>1</v>
+      </c>
+      <c r="L106" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M106" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="N106" s="23"/>
+      <c r="O106" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B107" s="37">
+        <v>39995</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D107" s="44">
+        <v>11</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I107" s="3">
+        <v>1</v>
+      </c>
+      <c r="J107" s="25">
+        <v>14</v>
+      </c>
+      <c r="K107" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L107" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M107" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="N107" s="23"/>
+      <c r="O107" s="20" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B108" s="37">
+        <v>39969</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D108" s="44">
+        <v>11</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I108" s="3">
+        <v>1</v>
+      </c>
+      <c r="J108" s="25">
         <v>2</v>
       </c>
-      <c r="K102" s="31">
-        <v>2</v>
-      </c>
-      <c r="L102" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="34">
-        <v>2010</v>
-      </c>
-      <c r="B103" s="36">
-        <v>40318</v>
-      </c>
-      <c r="C103" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D103" s="44">
-        <v>11</v>
-      </c>
-      <c r="E103" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="F103" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="H103" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I103" s="3">
-        <v>1</v>
-      </c>
-      <c r="J103" s="25">
-        <v>1</v>
-      </c>
-      <c r="K103" s="25">
-        <v>1</v>
-      </c>
-      <c r="L103" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M103" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="N103" s="23"/>
-      <c r="O103" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="34">
-        <v>2009</v>
-      </c>
-      <c r="B104" s="37">
-        <v>39995</v>
-      </c>
-      <c r="C104" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D104" s="44">
-        <v>11</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H104" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="I104" s="3">
-        <v>1</v>
-      </c>
-      <c r="J104" s="25">
-        <v>14</v>
-      </c>
-      <c r="K104" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L104" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M104" s="16" t="s">
+      <c r="K108" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L108" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M108" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="N104" s="23"/>
-      <c r="O104" s="20" t="s">
+      <c r="N108" s="23"/>
+      <c r="O108" s="20" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" s="34">
-        <v>2009</v>
-      </c>
-      <c r="B105" s="37">
-        <v>39969</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D105" s="44">
-        <v>11</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I105" s="3">
-        <v>1</v>
-      </c>
-      <c r="J105" s="25">
-        <v>2</v>
-      </c>
-      <c r="K105" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L105" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M105" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="N105" s="23"/>
-      <c r="O105" s="20" t="s">
-        <v>431</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O105" xr:uid="{51CCA004-4EBA-DB40-B10C-5F8D6554DBC2}"/>
+  <autoFilter ref="A1:O108" xr:uid="{51CCA004-4EBA-DB40-B10C-5F8D6554DBC2}"/>
   <hyperlinks>
-    <hyperlink ref="O8" r:id="rId1" xr:uid="{EBBF2AB6-87FC-E040-8926-9C2F183AF376}"/>
-    <hyperlink ref="O71" r:id="rId2" xr:uid="{D5F84E9F-EE09-9449-B391-C0700606B07E}"/>
-    <hyperlink ref="N8" r:id="rId3" xr:uid="{2AE0F851-C9A5-3549-9644-34486831A1C1}"/>
-    <hyperlink ref="O6" r:id="rId4" xr:uid="{B804790A-0FF2-AE4D-8EA9-12439AFD55FE}"/>
-    <hyperlink ref="O14" r:id="rId5" xr:uid="{3B88E5F2-A0BF-534D-9FAC-8A826F055F8B}"/>
-    <hyperlink ref="O10" r:id="rId6" xr:uid="{20DC7A21-4189-B24B-A4AA-3707DF6129A9}"/>
-    <hyperlink ref="O16" r:id="rId7" xr:uid="{9BBCD56B-FAA4-0442-9984-3144B90B74E2}"/>
-    <hyperlink ref="O7" r:id="rId8" xr:uid="{04F5EBF0-A4AB-9348-BBE0-9DA876DBBCB9}"/>
-    <hyperlink ref="O18" r:id="rId9" xr:uid="{FD5FD7D2-2217-1C4D-AB0C-0D578AB02313}"/>
-    <hyperlink ref="O20" r:id="rId10" xr:uid="{50DF3771-3014-FF45-B91B-554D92407AF7}"/>
-    <hyperlink ref="O23" r:id="rId11" xr:uid="{EAE7C061-D124-5540-AB54-A115A8971306}"/>
-    <hyperlink ref="O22" r:id="rId12" xr:uid="{7994FC08-B203-8F4D-8B61-DF35892909A1}"/>
-    <hyperlink ref="O5" r:id="rId13" xr:uid="{0B51B5D8-3906-D344-9CB0-AF632E406A90}"/>
-    <hyperlink ref="O19" r:id="rId14" xr:uid="{CB115356-E38B-0A4F-BD2E-E1DD14EB77AB}"/>
-    <hyperlink ref="O26" r:id="rId15" xr:uid="{C42E7FD4-0497-7A45-B619-076E8B885FE9}"/>
-    <hyperlink ref="O31" r:id="rId16" xr:uid="{1FEA88E9-DD5E-864B-9EB7-9B7FADE7288C}"/>
-    <hyperlink ref="O27" r:id="rId17" xr:uid="{434827F6-5116-624C-8FEA-5573D5F3D845}"/>
-    <hyperlink ref="O2" r:id="rId18" xr:uid="{826D62DE-B107-B745-A894-94CBFC44BEB7}"/>
-    <hyperlink ref="O3" r:id="rId19" xr:uid="{673F422A-5B08-C349-B716-023E7432D859}"/>
-    <hyperlink ref="O76" r:id="rId20" xr:uid="{A399BD4B-BF3A-2840-9168-829E19068186}"/>
-    <hyperlink ref="O50" r:id="rId21" xr:uid="{F3A48F46-259E-754E-8909-5CA77E6A4047}"/>
-    <hyperlink ref="O15" r:id="rId22" xr:uid="{EF4151BF-C8EB-2C4E-AA75-DE59846EB7D3}"/>
-    <hyperlink ref="O54" r:id="rId23" xr:uid="{65E83A7C-45FF-7C44-B324-72AB2FCFBF74}"/>
-    <hyperlink ref="O51" r:id="rId24" xr:uid="{D5EF334A-3E47-AE4D-8F9B-E27CAFCF31FA}"/>
-    <hyperlink ref="O49" r:id="rId25" xr:uid="{A9B8A2E3-049C-5140-9019-A85A999D5A0F}"/>
-    <hyperlink ref="O53" r:id="rId26" xr:uid="{B5A7D6AB-B82C-3545-B269-62CA72E6B10A}"/>
-    <hyperlink ref="O4" r:id="rId27" xr:uid="{5D16655E-9918-B246-A1E4-A1C8ACB3439C}"/>
-    <hyperlink ref="O55" r:id="rId28" xr:uid="{409BA013-EDE1-5549-BEFF-62B4701835B8}"/>
-    <hyperlink ref="O67" r:id="rId29" xr:uid="{C881A008-4FA8-6A44-B73D-99B773DB17A2}"/>
-    <hyperlink ref="O57" r:id="rId30" xr:uid="{9BC27B0D-1A62-9C4C-827B-B2C8B2C4B1A8}"/>
-    <hyperlink ref="O58" r:id="rId31" xr:uid="{8ABB7555-E4FD-804A-A9E9-7C173AB084DA}"/>
-    <hyperlink ref="O56" r:id="rId32" xr:uid="{6E1D1288-DC79-7E40-B3AE-E5251EC74370}"/>
-    <hyperlink ref="O24" r:id="rId33" xr:uid="{13DDC6B3-E09C-654D-B25B-76305B5D2EA8}"/>
-    <hyperlink ref="O42" r:id="rId34" xr:uid="{3FEFA9FF-969D-C84C-AB8B-9C831DC6615E}"/>
-    <hyperlink ref="O39" r:id="rId35" xr:uid="{814C4BA2-B230-9A46-8814-3DEE328D2C5C}"/>
-    <hyperlink ref="O97" r:id="rId36" xr:uid="{7E93212B-73FB-3E4D-BCD4-8B777E2DBFF3}"/>
-    <hyperlink ref="O62" r:id="rId37" xr:uid="{5C8DF39F-BDB1-3B4F-BE90-F8FFB71452D9}"/>
-    <hyperlink ref="O35" r:id="rId38" xr:uid="{1F1761E1-0A4E-BC40-9E1B-09CC68BDDD06}"/>
-    <hyperlink ref="O21" r:id="rId39" xr:uid="{356BBF8B-D112-ED40-95DE-6AB3A204F42C}"/>
-    <hyperlink ref="O9" r:id="rId40" xr:uid="{700104D6-90C0-8C42-AE32-0F2D16F3EA44}"/>
-    <hyperlink ref="O30" r:id="rId41" xr:uid="{74087B49-DF75-694D-878E-77E0C79AE2FB}"/>
-    <hyperlink ref="O33" r:id="rId42" xr:uid="{72093307-A3A5-A04A-AA11-98B96FE0F154}"/>
-    <hyperlink ref="O78" r:id="rId43" xr:uid="{6E741000-2EAF-AD42-BC04-E5F07EFB1CF4}"/>
-    <hyperlink ref="O38" r:id="rId44" xr:uid="{0780F015-440A-B241-923F-C77D587B8843}"/>
-    <hyperlink ref="O41" r:id="rId45" xr:uid="{64252ECE-1867-0047-BA98-84C3506775EE}"/>
-    <hyperlink ref="O74" r:id="rId46" xr:uid="{AE32A472-DB69-E04A-9D0A-865CBAECD5CB}"/>
-    <hyperlink ref="O11" r:id="rId47" xr:uid="{75700E12-229E-E64F-92DB-613EB2181AD7}"/>
-    <hyperlink ref="O43" r:id="rId48" xr:uid="{08037EDA-E0E5-1D47-BFE2-238620188875}"/>
-    <hyperlink ref="O36" r:id="rId49" xr:uid="{4D795149-9396-0744-A571-7F96F56FAB7C}"/>
-    <hyperlink ref="O44" r:id="rId50" xr:uid="{43D87AF8-3DED-9C49-8AD4-4A2378DAE7CD}"/>
-    <hyperlink ref="N3" r:id="rId51" xr:uid="{7896A6EA-5739-E54A-83E3-17386B7DCCC8}"/>
-    <hyperlink ref="O45" r:id="rId52" xr:uid="{762823A3-02E0-4A4F-B3CC-6F30D298A987}"/>
-    <hyperlink ref="O75" r:id="rId53" xr:uid="{7FB2ED77-A405-CE4B-A585-86FF6AE50D99}"/>
-    <hyperlink ref="O29" r:id="rId54" xr:uid="{B2D0A2CC-672B-864A-A1B5-AFBF790DF6F7}"/>
-    <hyperlink ref="O17" r:id="rId55" xr:uid="{CEF4DD82-F8E0-644B-BA30-5328CBAAD6D7}"/>
-    <hyperlink ref="O25" r:id="rId56" xr:uid="{70B1D8D1-2CCF-E645-A619-CB613E7A0E4B}"/>
-    <hyperlink ref="O48" r:id="rId57" xr:uid="{62E8C11E-4B21-9A41-A51F-420F92CBFAEF}"/>
-    <hyperlink ref="O32" r:id="rId58" xr:uid="{62900264-CBD8-4C4F-A968-5C208FAD4F6E}"/>
-    <hyperlink ref="O37" r:id="rId59" xr:uid="{B3A0D0E5-33C0-DF42-ADAA-76842D460DD2}"/>
-    <hyperlink ref="O46" r:id="rId60" xr:uid="{C922300D-32FA-3B41-AF3C-420E47135D55}"/>
-    <hyperlink ref="O81" r:id="rId61" xr:uid="{D4B318CC-442F-0B48-BF75-66D667ED40B3}"/>
-    <hyperlink ref="O59" r:id="rId62" xr:uid="{46550FCA-A797-4A4F-9446-3E016BCB210C}"/>
-    <hyperlink ref="O65" r:id="rId63" xr:uid="{14210FB2-D115-284E-967E-E0D45A486B1A}"/>
-    <hyperlink ref="O52" r:id="rId64" xr:uid="{E73C370D-B744-0547-95C8-AD942149703A}"/>
-    <hyperlink ref="O34" r:id="rId65" xr:uid="{B26AD6EE-A384-CB40-BB09-9ECE1CAC3C6C}"/>
-    <hyperlink ref="O40" r:id="rId66" xr:uid="{0A33F70B-2C22-CF4E-8A9E-184ED3350F68}"/>
-    <hyperlink ref="O47" r:id="rId67" xr:uid="{226FFAB8-D1AC-EE45-A8EB-AF015A072D7B}"/>
-    <hyperlink ref="O60" r:id="rId68" xr:uid="{3403ED5E-9557-9945-ACE2-794275ABCD30}"/>
-    <hyperlink ref="O13" r:id="rId69" xr:uid="{0B66E410-7037-E34A-A17F-C8CD8C856BC2}"/>
-    <hyperlink ref="O85" r:id="rId70" xr:uid="{20F95982-AF55-044B-A714-9E704F72676C}"/>
-    <hyperlink ref="N78" r:id="rId71" xr:uid="{D957EF76-E963-B649-B5D5-ECC122F9D220}"/>
-    <hyperlink ref="O12" r:id="rId72" xr:uid="{BD0B2185-2D10-1045-BD27-25CA24C06722}"/>
-    <hyperlink ref="O70" r:id="rId73" xr:uid="{96AB786D-0F4C-AC49-AFFF-6D3D1C0CD871}"/>
-    <hyperlink ref="O68" r:id="rId74" xr:uid="{78BC6DD0-1546-2C4E-8BFC-D4F254A31EE0}"/>
-    <hyperlink ref="O69" r:id="rId75" xr:uid="{59D6C639-372D-1247-9F96-B1AC94E381CC}"/>
-    <hyperlink ref="O79" r:id="rId76" xr:uid="{80F98F9E-3693-6F4C-813A-B0E0AABFC572}"/>
-    <hyperlink ref="O80" r:id="rId77" xr:uid="{9ABED5E4-3657-0144-A537-50F2A9404DA6}"/>
-    <hyperlink ref="O82" r:id="rId78" xr:uid="{6EF9C798-4B55-E347-9B8D-89824CDDFFDC}"/>
-    <hyperlink ref="O83" r:id="rId79" xr:uid="{7141712A-DB16-7641-910F-6F15531A2C68}"/>
-    <hyperlink ref="O86" r:id="rId80" xr:uid="{BDAFCDED-7674-4E44-A7AB-DF73D0F11BA2}"/>
-    <hyperlink ref="O87" r:id="rId81" xr:uid="{7F6135A9-BB6F-444F-BFC8-58EBBDAA145E}"/>
-    <hyperlink ref="O96" r:id="rId82" xr:uid="{31B0D5AB-114F-BB4B-B3D8-DD78ADB59D57}"/>
-    <hyperlink ref="O88" r:id="rId83" xr:uid="{6C7431EC-4DA4-4242-9104-35327E21C287}"/>
-    <hyperlink ref="O84" r:id="rId84" xr:uid="{17DF4DA7-9397-A941-8F25-CE4247E0038B}"/>
-    <hyperlink ref="O64" r:id="rId85" xr:uid="{65347B8F-F92C-714E-A269-AD4EB5AA8D88}"/>
-    <hyperlink ref="O77" r:id="rId86" xr:uid="{BF185D61-88F6-7F44-B298-7E8F25BD759B}"/>
-    <hyperlink ref="O92" r:id="rId87" xr:uid="{5E3F0024-1804-DB47-9EF7-2226F71341B1}"/>
-    <hyperlink ref="O63" r:id="rId88" xr:uid="{2D0A1ECA-F250-C04B-897F-8A289226850A}"/>
-    <hyperlink ref="O66" r:id="rId89" xr:uid="{C3421137-68E8-0147-B280-77724174E6D7}"/>
-    <hyperlink ref="N68" r:id="rId90" xr:uid="{00447881-4E41-EC46-8985-C37E283F6416}"/>
-    <hyperlink ref="N11" r:id="rId91" xr:uid="{E2ABA3D6-3048-0241-AA72-67EB927210C3}"/>
-    <hyperlink ref="O95" r:id="rId92" xr:uid="{250662FE-33C0-914E-AA98-8C36108755B1}"/>
-    <hyperlink ref="N18" r:id="rId93" xr:uid="{8DB28FEB-E18D-7B40-9BC2-58FD596004B1}"/>
-    <hyperlink ref="O89" r:id="rId94" xr:uid="{BCD23027-9180-D24D-BC35-2C3750B0122B}"/>
-    <hyperlink ref="O91" r:id="rId95" xr:uid="{5542FB2A-3DFF-CC40-BC68-75BCE7C725DA}"/>
-    <hyperlink ref="O94" r:id="rId96" xr:uid="{812A0065-40EC-9D4D-8C54-C52073427100}"/>
-    <hyperlink ref="O93" r:id="rId97" xr:uid="{BD8934F8-6677-A144-B23B-F79016AC3E65}"/>
-    <hyperlink ref="O103" r:id="rId98" xr:uid="{1B1EC616-8662-1E4C-850A-3DB62CB42D70}"/>
-    <hyperlink ref="O104" r:id="rId99" xr:uid="{B38FD18E-9439-D34D-9C57-C9B7831F08D5}"/>
-    <hyperlink ref="O105" r:id="rId100" xr:uid="{0E343F60-C1EA-5B48-A47B-33DFBB18F774}"/>
-    <hyperlink ref="O90" r:id="rId101" xr:uid="{06F3B3F1-F274-9947-AF98-B1DB979D285A}"/>
-    <hyperlink ref="O98" r:id="rId102" xr:uid="{E575E60E-A19D-F242-AA49-82A83C0E1E07}"/>
-    <hyperlink ref="O99" r:id="rId103" xr:uid="{B8CF6CDD-7169-B944-94D6-CF7EF9915C2E}"/>
-    <hyperlink ref="O100" r:id="rId104" xr:uid="{800AA112-81CD-0343-8C1D-F181C703654C}"/>
-    <hyperlink ref="O101" r:id="rId105" xr:uid="{ACA74ADD-DCAB-7C44-83A6-D8A6DCD63A0B}"/>
-    <hyperlink ref="O102" r:id="rId106" xr:uid="{9EFB4367-F008-E141-9AF7-CC1AC64DE0F0}"/>
-    <hyperlink ref="O61" r:id="rId107" xr:uid="{8800BE43-3C76-974C-B76E-70086FD68AE3}"/>
-    <hyperlink ref="O28" r:id="rId108" xr:uid="{101DCDD5-D5EB-BD49-9F63-A786FE9F7532}"/>
-    <hyperlink ref="O73" r:id="rId109" xr:uid="{7F5DA2C3-E101-634F-A67A-F5D9A278312E}"/>
-    <hyperlink ref="O72" r:id="rId110" xr:uid="{9DE88079-889C-EA46-B942-A6912347B3D8}"/>
+    <hyperlink ref="O9" r:id="rId1" xr:uid="{EBBF2AB6-87FC-E040-8926-9C2F183AF376}"/>
+    <hyperlink ref="O72" r:id="rId2" xr:uid="{D5F84E9F-EE09-9449-B391-C0700606B07E}"/>
+    <hyperlink ref="N9" r:id="rId3" xr:uid="{2AE0F851-C9A5-3549-9644-34486831A1C1}"/>
+    <hyperlink ref="O7" r:id="rId4" xr:uid="{B804790A-0FF2-AE4D-8EA9-12439AFD55FE}"/>
+    <hyperlink ref="O15" r:id="rId5" xr:uid="{3B88E5F2-A0BF-534D-9FAC-8A826F055F8B}"/>
+    <hyperlink ref="O11" r:id="rId6" xr:uid="{20DC7A21-4189-B24B-A4AA-3707DF6129A9}"/>
+    <hyperlink ref="O17" r:id="rId7" xr:uid="{9BBCD56B-FAA4-0442-9984-3144B90B74E2}"/>
+    <hyperlink ref="O8" r:id="rId8" xr:uid="{04F5EBF0-A4AB-9348-BBE0-9DA876DBBCB9}"/>
+    <hyperlink ref="O19" r:id="rId9" xr:uid="{FD5FD7D2-2217-1C4D-AB0C-0D578AB02313}"/>
+    <hyperlink ref="O21" r:id="rId10" xr:uid="{50DF3771-3014-FF45-B91B-554D92407AF7}"/>
+    <hyperlink ref="O24" r:id="rId11" xr:uid="{EAE7C061-D124-5540-AB54-A115A8971306}"/>
+    <hyperlink ref="O23" r:id="rId12" xr:uid="{7994FC08-B203-8F4D-8B61-DF35892909A1}"/>
+    <hyperlink ref="O6" r:id="rId13" xr:uid="{0B51B5D8-3906-D344-9CB0-AF632E406A90}"/>
+    <hyperlink ref="O20" r:id="rId14" xr:uid="{CB115356-E38B-0A4F-BD2E-E1DD14EB77AB}"/>
+    <hyperlink ref="O27" r:id="rId15" xr:uid="{C42E7FD4-0497-7A45-B619-076E8B885FE9}"/>
+    <hyperlink ref="O32" r:id="rId16" xr:uid="{1FEA88E9-DD5E-864B-9EB7-9B7FADE7288C}"/>
+    <hyperlink ref="O28" r:id="rId17" xr:uid="{434827F6-5116-624C-8FEA-5573D5F3D845}"/>
+    <hyperlink ref="O3" r:id="rId18" xr:uid="{826D62DE-B107-B745-A894-94CBFC44BEB7}"/>
+    <hyperlink ref="O4" r:id="rId19" xr:uid="{673F422A-5B08-C349-B716-023E7432D859}"/>
+    <hyperlink ref="O77" r:id="rId20" xr:uid="{A399BD4B-BF3A-2840-9168-829E19068186}"/>
+    <hyperlink ref="O51" r:id="rId21" xr:uid="{F3A48F46-259E-754E-8909-5CA77E6A4047}"/>
+    <hyperlink ref="O16" r:id="rId22" xr:uid="{EF4151BF-C8EB-2C4E-AA75-DE59846EB7D3}"/>
+    <hyperlink ref="O55" r:id="rId23" xr:uid="{65E83A7C-45FF-7C44-B324-72AB2FCFBF74}"/>
+    <hyperlink ref="O52" r:id="rId24" xr:uid="{D5EF334A-3E47-AE4D-8F9B-E27CAFCF31FA}"/>
+    <hyperlink ref="O50" r:id="rId25" xr:uid="{A9B8A2E3-049C-5140-9019-A85A999D5A0F}"/>
+    <hyperlink ref="O54" r:id="rId26" xr:uid="{B5A7D6AB-B82C-3545-B269-62CA72E6B10A}"/>
+    <hyperlink ref="O5" r:id="rId27" xr:uid="{5D16655E-9918-B246-A1E4-A1C8ACB3439C}"/>
+    <hyperlink ref="O56" r:id="rId28" xr:uid="{409BA013-EDE1-5549-BEFF-62B4701835B8}"/>
+    <hyperlink ref="O68" r:id="rId29" xr:uid="{C881A008-4FA8-6A44-B73D-99B773DB17A2}"/>
+    <hyperlink ref="O58" r:id="rId30" xr:uid="{9BC27B0D-1A62-9C4C-827B-B2C8B2C4B1A8}"/>
+    <hyperlink ref="O59" r:id="rId31" xr:uid="{8ABB7555-E4FD-804A-A9E9-7C173AB084DA}"/>
+    <hyperlink ref="O57" r:id="rId32" xr:uid="{6E1D1288-DC79-7E40-B3AE-E5251EC74370}"/>
+    <hyperlink ref="O25" r:id="rId33" xr:uid="{13DDC6B3-E09C-654D-B25B-76305B5D2EA8}"/>
+    <hyperlink ref="O43" r:id="rId34" xr:uid="{3FEFA9FF-969D-C84C-AB8B-9C831DC6615E}"/>
+    <hyperlink ref="O40" r:id="rId35" xr:uid="{814C4BA2-B230-9A46-8814-3DEE328D2C5C}"/>
+    <hyperlink ref="O100" r:id="rId36" xr:uid="{7E93212B-73FB-3E4D-BCD4-8B777E2DBFF3}"/>
+    <hyperlink ref="O63" r:id="rId37" xr:uid="{5C8DF39F-BDB1-3B4F-BE90-F8FFB71452D9}"/>
+    <hyperlink ref="O36" r:id="rId38" xr:uid="{1F1761E1-0A4E-BC40-9E1B-09CC68BDDD06}"/>
+    <hyperlink ref="O22" r:id="rId39" xr:uid="{356BBF8B-D112-ED40-95DE-6AB3A204F42C}"/>
+    <hyperlink ref="O10" r:id="rId40" xr:uid="{700104D6-90C0-8C42-AE32-0F2D16F3EA44}"/>
+    <hyperlink ref="O31" r:id="rId41" xr:uid="{74087B49-DF75-694D-878E-77E0C79AE2FB}"/>
+    <hyperlink ref="O34" r:id="rId42" xr:uid="{72093307-A3A5-A04A-AA11-98B96FE0F154}"/>
+    <hyperlink ref="O79" r:id="rId43" xr:uid="{6E741000-2EAF-AD42-BC04-E5F07EFB1CF4}"/>
+    <hyperlink ref="O39" r:id="rId44" xr:uid="{0780F015-440A-B241-923F-C77D587B8843}"/>
+    <hyperlink ref="O42" r:id="rId45" xr:uid="{64252ECE-1867-0047-BA98-84C3506775EE}"/>
+    <hyperlink ref="O75" r:id="rId46" xr:uid="{AE32A472-DB69-E04A-9D0A-865CBAECD5CB}"/>
+    <hyperlink ref="O12" r:id="rId47" xr:uid="{75700E12-229E-E64F-92DB-613EB2181AD7}"/>
+    <hyperlink ref="O44" r:id="rId48" xr:uid="{08037EDA-E0E5-1D47-BFE2-238620188875}"/>
+    <hyperlink ref="O37" r:id="rId49" xr:uid="{4D795149-9396-0744-A571-7F96F56FAB7C}"/>
+    <hyperlink ref="O45" r:id="rId50" xr:uid="{43D87AF8-3DED-9C49-8AD4-4A2378DAE7CD}"/>
+    <hyperlink ref="N4" r:id="rId51" xr:uid="{7896A6EA-5739-E54A-83E3-17386B7DCCC8}"/>
+    <hyperlink ref="O46" r:id="rId52" xr:uid="{762823A3-02E0-4A4F-B3CC-6F30D298A987}"/>
+    <hyperlink ref="O76" r:id="rId53" xr:uid="{7FB2ED77-A405-CE4B-A585-86FF6AE50D99}"/>
+    <hyperlink ref="O30" r:id="rId54" xr:uid="{B2D0A2CC-672B-864A-A1B5-AFBF790DF6F7}"/>
+    <hyperlink ref="O18" r:id="rId55" xr:uid="{CEF4DD82-F8E0-644B-BA30-5328CBAAD6D7}"/>
+    <hyperlink ref="O26" r:id="rId56" xr:uid="{70B1D8D1-2CCF-E645-A619-CB613E7A0E4B}"/>
+    <hyperlink ref="O49" r:id="rId57" xr:uid="{62E8C11E-4B21-9A41-A51F-420F92CBFAEF}"/>
+    <hyperlink ref="O33" r:id="rId58" xr:uid="{62900264-CBD8-4C4F-A968-5C208FAD4F6E}"/>
+    <hyperlink ref="O38" r:id="rId59" xr:uid="{B3A0D0E5-33C0-DF42-ADAA-76842D460DD2}"/>
+    <hyperlink ref="O47" r:id="rId60" xr:uid="{C922300D-32FA-3B41-AF3C-420E47135D55}"/>
+    <hyperlink ref="O82" r:id="rId61" xr:uid="{D4B318CC-442F-0B48-BF75-66D667ED40B3}"/>
+    <hyperlink ref="O60" r:id="rId62" xr:uid="{46550FCA-A797-4A4F-9446-3E016BCB210C}"/>
+    <hyperlink ref="O66" r:id="rId63" xr:uid="{14210FB2-D115-284E-967E-E0D45A486B1A}"/>
+    <hyperlink ref="O53" r:id="rId64" xr:uid="{E73C370D-B744-0547-95C8-AD942149703A}"/>
+    <hyperlink ref="O35" r:id="rId65" xr:uid="{B26AD6EE-A384-CB40-BB09-9ECE1CAC3C6C}"/>
+    <hyperlink ref="O41" r:id="rId66" xr:uid="{0A33F70B-2C22-CF4E-8A9E-184ED3350F68}"/>
+    <hyperlink ref="O48" r:id="rId67" xr:uid="{226FFAB8-D1AC-EE45-A8EB-AF015A072D7B}"/>
+    <hyperlink ref="O61" r:id="rId68" xr:uid="{3403ED5E-9557-9945-ACE2-794275ABCD30}"/>
+    <hyperlink ref="O14" r:id="rId69" xr:uid="{0B66E410-7037-E34A-A17F-C8CD8C856BC2}"/>
+    <hyperlink ref="N79" r:id="rId70" xr:uid="{D957EF76-E963-B649-B5D5-ECC122F9D220}"/>
+    <hyperlink ref="O13" r:id="rId71" xr:uid="{BD0B2185-2D10-1045-BD27-25CA24C06722}"/>
+    <hyperlink ref="O71" r:id="rId72" xr:uid="{96AB786D-0F4C-AC49-AFFF-6D3D1C0CD871}"/>
+    <hyperlink ref="O69" r:id="rId73" xr:uid="{78BC6DD0-1546-2C4E-8BFC-D4F254A31EE0}"/>
+    <hyperlink ref="O70" r:id="rId74" xr:uid="{59D6C639-372D-1247-9F96-B1AC94E381CC}"/>
+    <hyperlink ref="O80" r:id="rId75" xr:uid="{80F98F9E-3693-6F4C-813A-B0E0AABFC572}"/>
+    <hyperlink ref="O81" r:id="rId76" xr:uid="{9ABED5E4-3657-0144-A537-50F2A9404DA6}"/>
+    <hyperlink ref="O83" r:id="rId77" xr:uid="{6EF9C798-4B55-E347-9B8D-89824CDDFFDC}"/>
+    <hyperlink ref="O84" r:id="rId78" xr:uid="{7141712A-DB16-7641-910F-6F15531A2C68}"/>
+    <hyperlink ref="O87" r:id="rId79" xr:uid="{BDAFCDED-7674-4E44-A7AB-DF73D0F11BA2}"/>
+    <hyperlink ref="O88" r:id="rId80" xr:uid="{7F6135A9-BB6F-444F-BFC8-58EBBDAA145E}"/>
+    <hyperlink ref="O98" r:id="rId81" xr:uid="{31B0D5AB-114F-BB4B-B3D8-DD78ADB59D57}"/>
+    <hyperlink ref="O89" r:id="rId82" xr:uid="{6C7431EC-4DA4-4242-9104-35327E21C287}"/>
+    <hyperlink ref="O85" r:id="rId83" xr:uid="{17DF4DA7-9397-A941-8F25-CE4247E0038B}"/>
+    <hyperlink ref="O65" r:id="rId84" xr:uid="{65347B8F-F92C-714E-A269-AD4EB5AA8D88}"/>
+    <hyperlink ref="O78" r:id="rId85" xr:uid="{BF185D61-88F6-7F44-B298-7E8F25BD759B}"/>
+    <hyperlink ref="O94" r:id="rId86" xr:uid="{5E3F0024-1804-DB47-9EF7-2226F71341B1}"/>
+    <hyperlink ref="O64" r:id="rId87" xr:uid="{2D0A1ECA-F250-C04B-897F-8A289226850A}"/>
+    <hyperlink ref="O67" r:id="rId88" xr:uid="{C3421137-68E8-0147-B280-77724174E6D7}"/>
+    <hyperlink ref="N69" r:id="rId89" xr:uid="{00447881-4E41-EC46-8985-C37E283F6416}"/>
+    <hyperlink ref="N12" r:id="rId90" xr:uid="{E2ABA3D6-3048-0241-AA72-67EB927210C3}"/>
+    <hyperlink ref="O97" r:id="rId91" xr:uid="{250662FE-33C0-914E-AA98-8C36108755B1}"/>
+    <hyperlink ref="N19" r:id="rId92" xr:uid="{8DB28FEB-E18D-7B40-9BC2-58FD596004B1}"/>
+    <hyperlink ref="O91" r:id="rId93" xr:uid="{BCD23027-9180-D24D-BC35-2C3750B0122B}"/>
+    <hyperlink ref="O93" r:id="rId94" xr:uid="{5542FB2A-3DFF-CC40-BC68-75BCE7C725DA}"/>
+    <hyperlink ref="O96" r:id="rId95" xr:uid="{812A0065-40EC-9D4D-8C54-C52073427100}"/>
+    <hyperlink ref="O95" r:id="rId96" xr:uid="{BD8934F8-6677-A144-B23B-F79016AC3E65}"/>
+    <hyperlink ref="O106" r:id="rId97" xr:uid="{1B1EC616-8662-1E4C-850A-3DB62CB42D70}"/>
+    <hyperlink ref="O107" r:id="rId98" xr:uid="{B38FD18E-9439-D34D-9C57-C9B7831F08D5}"/>
+    <hyperlink ref="O108" r:id="rId99" xr:uid="{0E343F60-C1EA-5B48-A47B-33DFBB18F774}"/>
+    <hyperlink ref="O92" r:id="rId100" xr:uid="{06F3B3F1-F274-9947-AF98-B1DB979D285A}"/>
+    <hyperlink ref="O103" r:id="rId101" xr:uid="{800AA112-81CD-0343-8C1D-F181C703654C}"/>
+    <hyperlink ref="O104" r:id="rId102" xr:uid="{ACA74ADD-DCAB-7C44-83A6-D8A6DCD63A0B}"/>
+    <hyperlink ref="O105" r:id="rId103" xr:uid="{9EFB4367-F008-E141-9AF7-CC1AC64DE0F0}"/>
+    <hyperlink ref="O62" r:id="rId104" xr:uid="{8800BE43-3C76-974C-B76E-70086FD68AE3}"/>
+    <hyperlink ref="O29" r:id="rId105" xr:uid="{101DCDD5-D5EB-BD49-9F63-A786FE9F7532}"/>
+    <hyperlink ref="O74" r:id="rId106" xr:uid="{7F5DA2C3-E101-634F-A67A-F5D9A278312E}"/>
+    <hyperlink ref="O73" r:id="rId107" xr:uid="{9DE88079-889C-EA46-B942-A6912347B3D8}"/>
+    <hyperlink ref="O102" r:id="rId108" xr:uid="{70FC581C-402E-7A46-8891-BCC48BA414AE}"/>
+    <hyperlink ref="O99" r:id="rId109" xr:uid="{3809DBD9-36DF-784D-97E8-FEF916BF69D1}"/>
+    <hyperlink ref="O90" r:id="rId110" xr:uid="{3AD8155C-34F1-474D-8231-AF43191C2CDF}"/>
+    <hyperlink ref="O2" r:id="rId111" xr:uid="{3C4AD26F-BD76-6349-8D23-5D8C869C6410}"/>
+    <hyperlink ref="O101" r:id="rId112" xr:uid="{EC308CEC-38F1-C446-820C-84FBC25EF9EB}"/>
+    <hyperlink ref="O86" r:id="rId113" xr:uid="{83A48CE7-7E04-1448-B487-A39462F0626A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/import/input/fosas_guanajuato_final.xlsx
+++ b/import/input/fosas_guanajuato_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgeruizreyes/Desktop/R/situacion-fosas-guanajuato/import/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC310F1-325D-9045-AC9E-7E2408E1A824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D821CAE2-805B-9E49-92B5-557B4F436CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="25040" windowHeight="14240" xr2:uid="{ABC018F8-10CC-0048-91DA-B9DDF9F7D7C3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$109</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="495">
   <si>
     <t>Año</t>
   </si>
@@ -1571,12 +1571,30 @@
   <si>
     <t>https://www.agoragto.com/noticias/nota-roja/tres-de-los-cinco-en-fosa-recibieron-tiro/</t>
   </si>
+  <si>
+    <t>Entre Irapuato y Silao, por camino a Trejo</t>
+  </si>
+  <si>
+    <t>Comunidad San Miguel de Villalobos</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Restos óseos, descomposición</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/america/mexico/2020/06/20/hallaron-una-fosa-clandestina-con-restos-humanos-y-ropa-femenina-en-silao-guanajuato/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1687,8 +1705,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1701,8 +1726,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1725,12 +1756,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1829,6 +1875,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2144,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D242533B-FE67-2F45-BCCA-7E6BFE92D7BB}">
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I73" workbookViewId="0">
-      <selection activeCell="N86" sqref="N86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2261,48 +2312,50 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="19">
+      <c r="A3" s="62">
         <v>2020</v>
       </c>
-      <c r="B3" s="35">
-        <v>43966</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="44">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>4</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="4" t="s">
-        <v>14</v>
+      <c r="B3" s="51">
+        <v>43999</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="43">
+        <v>11</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>459</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>491</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="M3" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2310,7 +2363,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="35">
-        <v>43956</v>
+        <v>43966</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>164</v>
@@ -2319,37 +2372,35 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="5">
-        <v>2</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="J4" s="3">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2357,7 +2408,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="35">
-        <v>43947</v>
+        <v>43956</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>164</v>
@@ -2365,36 +2416,38 @@
       <c r="D5" s="44">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>23</v>
+        <v>463</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="1"/>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2402,7 +2455,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="35">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>164</v>
@@ -2410,36 +2463,36 @@
       <c r="D6" s="44">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="9">
-        <v>3</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>28</v>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2447,7 +2500,7 @@
         <v>2020</v>
       </c>
       <c r="B7" s="35">
-        <v>43895</v>
+        <v>43946</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>164</v>
@@ -2456,35 +2509,35 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>459</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="J7" s="9">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2492,7 +2545,7 @@
         <v>2020</v>
       </c>
       <c r="B8" s="35">
-        <v>43884</v>
+        <v>43895</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>164</v>
@@ -2501,35 +2554,35 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
       </c>
       <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="O8" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2537,7 +2590,7 @@
         <v>2020</v>
       </c>
       <c r="B9" s="35">
-        <v>43880</v>
+        <v>43884</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>164</v>
@@ -2546,22 +2599,22 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
       </c>
       <c r="J9" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>12</v>
@@ -2570,13 +2623,11 @@
         <v>12</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2584,7 +2635,7 @@
         <v>2020</v>
       </c>
       <c r="B10" s="35">
-        <v>43870</v>
+        <v>43880</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>164</v>
@@ -2595,35 +2646,35 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>44</v>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>45</v>
+        <v>449</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>47</v>
+      <c r="M10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2631,7 +2682,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="35">
-        <v>43868</v>
+        <v>43870</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>164</v>
@@ -2639,38 +2690,38 @@
       <c r="D11" s="44">
         <v>11</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>49</v>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>459</v>
+        <v>435</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>4</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2678,7 +2729,7 @@
         <v>2020</v>
       </c>
       <c r="B12" s="35">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>164</v>
@@ -2687,37 +2738,37 @@
         <v>11</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>56</v>
+        <v>460</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>59</v>
+      <c r="J12" s="3">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2725,7 +2776,7 @@
         <v>2020</v>
       </c>
       <c r="B13" s="35">
-        <v>43857</v>
+        <v>43866</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>164</v>
@@ -2733,38 +2784,38 @@
       <c r="D13" s="44">
         <v>11</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
+      <c r="E13" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2772,7 +2823,7 @@
         <v>2020</v>
       </c>
       <c r="B14" s="35">
-        <v>43854</v>
+        <v>43857</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>164</v>
@@ -2780,11 +2831,11 @@
       <c r="D14" s="44">
         <v>11</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>65</v>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>439</v>
@@ -2801,17 +2852,17 @@
       <c r="K14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>67</v>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2819,7 +2870,7 @@
         <v>2020</v>
       </c>
       <c r="B15" s="35">
-        <v>43849</v>
+        <v>43854</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>164</v>
@@ -2828,16 +2879,16 @@
         <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2851,12 +2902,14 @@
       <c r="L15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="N15" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2864,7 +2917,7 @@
         <v>2020</v>
       </c>
       <c r="B16" s="35">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>164</v>
@@ -2873,16 +2926,16 @@
         <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>76</v>
+        <v>460</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2896,12 +2949,12 @@
       <c r="L16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="4" t="s">
-        <v>78</v>
+      <c r="M16" s="1"/>
+      <c r="N16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2909,7 +2962,7 @@
         <v>2020</v>
       </c>
       <c r="B17" s="35">
-        <v>43846</v>
+        <v>43848</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>164</v>
@@ -2917,38 +2970,36 @@
       <c r="D17" s="44">
         <v>11</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>71</v>
+      <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>459</v>
+        <v>440</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2956,7 +3007,7 @@
         <v>2020</v>
       </c>
       <c r="B18" s="35">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>164</v>
@@ -2965,35 +3016,37 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>23</v>
+        <v>460</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="4" t="s">
-        <v>86</v>
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -3001,7 +3054,7 @@
         <v>2020</v>
       </c>
       <c r="B19" s="35">
-        <v>43836</v>
+        <v>43845</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>164</v>
@@ -3009,38 +3062,36 @@
       <c r="D19" s="44">
         <v>11</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>87</v>
+      <c r="E19" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>5</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>91</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N19" s="1"/>
       <c r="O19" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -3048,7 +3099,7 @@
         <v>2020</v>
       </c>
       <c r="B20" s="35">
-        <v>43835</v>
+        <v>43836</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>164</v>
@@ -3057,43 +3108,45 @@
         <v>11</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
       </c>
       <c r="J20" s="3">
-        <v>2</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="7" t="s">
-        <v>95</v>
+        <v>5</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="19">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B21" s="35">
-        <v>43825</v>
+        <v>43835</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>164</v>
@@ -3102,37 +3155,35 @@
         <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
       </c>
       <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1"/>
       <c r="N21" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -3140,7 +3191,7 @@
         <v>2019</v>
       </c>
       <c r="B22" s="35">
-        <v>43822</v>
+        <v>43825</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>164</v>
@@ -3148,17 +3199,17 @@
       <c r="D22" s="44">
         <v>11</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>103</v>
+      <c r="E22" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
@@ -3173,11 +3224,13 @@
         <v>12</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N22" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="O22" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -3185,7 +3238,7 @@
         <v>2019</v>
       </c>
       <c r="B23" s="35">
-        <v>43809</v>
+        <v>43822</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>164</v>
@@ -3193,11 +3246,11 @@
       <c r="D23" s="44">
         <v>11</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
+      <c r="E23" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>444</v>
@@ -3209,22 +3262,20 @@
         <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N23" s="1"/>
       <c r="O23" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -3232,7 +3283,7 @@
         <v>2019</v>
       </c>
       <c r="B24" s="35">
-        <v>43805</v>
+        <v>43809</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>164</v>
@@ -3240,11 +3291,11 @@
       <c r="D24" s="44">
         <v>11</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>111</v>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>444</v>
@@ -3256,22 +3307,22 @@
         <v>1</v>
       </c>
       <c r="J24" s="3">
-        <v>16</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -3287,23 +3338,23 @@
       <c r="D25" s="44">
         <v>11</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>117</v>
+      <c r="E25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>23</v>
+        <v>444</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
       </c>
       <c r="J25" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>12</v>
@@ -3311,12 +3362,14 @@
       <c r="L25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N25" s="1"/>
+      <c r="M25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="O25" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -3324,7 +3377,7 @@
         <v>2019</v>
       </c>
       <c r="B26" s="35">
-        <v>43803</v>
+        <v>43805</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>164</v>
@@ -3333,22 +3386,22 @@
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>76</v>
+        <v>453</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
       <c r="J26" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>12</v>
@@ -3356,12 +3409,12 @@
       <c r="L26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="7" t="s">
-        <v>121</v>
+      <c r="M26" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -3369,7 +3422,7 @@
         <v>2019</v>
       </c>
       <c r="B27" s="35">
-        <v>43798</v>
+        <v>43803</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>164</v>
@@ -3377,17 +3430,17 @@
       <c r="D27" s="44">
         <v>11</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>123</v>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
@@ -3402,13 +3455,11 @@
         <v>12</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -3416,7 +3467,7 @@
         <v>2019</v>
       </c>
       <c r="B28" s="35">
-        <v>43775</v>
+        <v>43798</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>164</v>
@@ -3425,16 +3476,16 @@
         <v>11</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
@@ -3449,11 +3500,13 @@
         <v>12</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="N28" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="O28" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -3470,22 +3523,22 @@
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="I29" s="3">
         <v>1</v>
       </c>
       <c r="J29" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>12</v>
@@ -3493,14 +3546,12 @@
       <c r="L29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>137</v>
+      <c r="M29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -3508,7 +3559,7 @@
         <v>2019</v>
       </c>
       <c r="B30" s="35">
-        <v>43755</v>
+        <v>43775</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>164</v>
@@ -3517,35 +3568,37 @@
         <v>11</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
       </c>
       <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="4" t="s">
-        <v>141</v>
+      <c r="M30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3553,7 +3606,7 @@
         <v>2019</v>
       </c>
       <c r="B31" s="35">
-        <v>43699</v>
+        <v>43755</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>164</v>
@@ -3562,10 +3615,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>435</v>
@@ -3586,13 +3639,11 @@
         <v>12</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>145</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N31" s="1"/>
       <c r="O31" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -3600,7 +3651,7 @@
         <v>2019</v>
       </c>
       <c r="B32" s="35">
-        <v>43691</v>
+        <v>43699</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>164</v>
@@ -3609,35 +3660,37 @@
         <v>11</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
       </c>
       <c r="J32" s="3">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N32" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="O32" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -3645,7 +3698,7 @@
         <v>2019</v>
       </c>
       <c r="B33" s="35">
-        <v>43689</v>
+        <v>43691</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>164</v>
@@ -3654,35 +3707,35 @@
         <v>11</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>12</v>
+        <v>147</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
       </c>
       <c r="J33" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="3">
-        <v>1</v>
+      <c r="L33" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3690,7 +3743,7 @@
         <v>2019</v>
       </c>
       <c r="B34" s="35">
-        <v>43675</v>
+        <v>43689</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>164</v>
@@ -3699,16 +3752,16 @@
         <v>11</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="I34" s="3">
         <v>1</v>
@@ -3716,20 +3769,18 @@
       <c r="J34" s="3">
         <v>1</v>
       </c>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="K34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N34" s="1"/>
       <c r="O34" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3737,7 +3788,7 @@
         <v>2019</v>
       </c>
       <c r="B35" s="35">
-        <v>43669</v>
+        <v>43675</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>164</v>
@@ -3746,16 +3797,16 @@
         <v>11</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="I35" s="3">
         <v>1</v>
@@ -3763,18 +3814,20 @@
       <c r="J35" s="3">
         <v>1</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N35" s="7"/>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="O35" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3782,7 +3835,7 @@
         <v>2019</v>
       </c>
       <c r="B36" s="35">
-        <v>43651</v>
+        <v>43669</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>164</v>
@@ -3790,36 +3843,36 @@
       <c r="D36" s="44">
         <v>11</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>163</v>
+      <c r="E36" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>164</v>
+        <v>439</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="I36" s="3">
         <v>1</v>
       </c>
       <c r="J36" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N36" s="1"/>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N36" s="7"/>
       <c r="O36" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3827,7 +3880,7 @@
         <v>2019</v>
       </c>
       <c r="B37" s="35">
-        <v>43640</v>
+        <v>43651</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>164</v>
@@ -3836,16 +3889,16 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>168</v>
+        <v>12</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>169</v>
+        <v>442</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
@@ -3859,14 +3912,12 @@
       <c r="L37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="M37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37" s="1"/>
       <c r="O37" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3874,7 +3925,7 @@
         <v>2019</v>
       </c>
       <c r="B38" s="35">
-        <v>43634</v>
+        <v>43640</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>164</v>
@@ -3882,36 +3933,38 @@
       <c r="D38" s="44">
         <v>11</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>173</v>
+      <c r="E38" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="I38" s="3">
         <v>1</v>
       </c>
       <c r="J38" s="3">
-        <v>1</v>
-      </c>
-      <c r="K38" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N38" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="O38" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3919,7 +3972,7 @@
         <v>2019</v>
       </c>
       <c r="B39" s="35">
-        <v>43628</v>
+        <v>43634</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>164</v>
@@ -3927,17 +3980,17 @@
       <c r="D39" s="44">
         <v>11</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
+      <c r="E39" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
@@ -3945,18 +3998,18 @@
       <c r="J39" s="3">
         <v>1</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>12</v>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3964,7 +4017,7 @@
         <v>2019</v>
       </c>
       <c r="B40" s="35">
-        <v>43618</v>
+        <v>43628</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>164</v>
@@ -3975,33 +4028,33 @@
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>181</v>
+      <c r="F40" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="I40" s="3">
         <v>1</v>
       </c>
       <c r="J40" s="3">
-        <v>4</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>182</v>
+      <c r="M40" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="15" t="s">
-        <v>183</v>
+      <c r="O40" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -4009,7 +4062,7 @@
         <v>2019</v>
       </c>
       <c r="B41" s="35">
-        <v>43613</v>
+        <v>43618</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>164</v>
@@ -4017,38 +4070,36 @@
       <c r="D41" s="44">
         <v>11</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>185</v>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="I41" s="3">
         <v>1</v>
       </c>
       <c r="J41" s="3">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>188</v>
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -4056,7 +4107,7 @@
         <v>2019</v>
       </c>
       <c r="B42" s="35">
-        <v>43603</v>
+        <v>43613</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>164</v>
@@ -4064,17 +4115,17 @@
       <c r="D42" s="44">
         <v>11</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>189</v>
+      <c r="E42" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>36</v>
+        <v>465</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="I42" s="3">
         <v>1</v>
@@ -4088,14 +4139,14 @@
       <c r="L42" s="3">
         <v>1</v>
       </c>
-      <c r="M42" s="13" t="s">
-        <v>191</v>
+      <c r="M42" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -4103,7 +4154,7 @@
         <v>2019</v>
       </c>
       <c r="B43" s="35">
-        <v>43589</v>
+        <v>43603</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>164</v>
@@ -4111,17 +4162,17 @@
       <c r="D43" s="44">
         <v>11</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>194</v>
+      <c r="E43" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="I43" s="3">
         <v>1</v>
@@ -4132,15 +4183,17 @@
       <c r="K43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="N43" s="1"/>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="O43" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -4148,7 +4201,7 @@
         <v>2019</v>
       </c>
       <c r="B44" s="35">
-        <v>43583</v>
+        <v>43589</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>164</v>
@@ -4157,16 +4210,16 @@
         <v>11</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>56</v>
+        <v>447</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="I44" s="3">
         <v>1</v>
@@ -4174,18 +4227,18 @@
       <c r="J44" s="3">
         <v>1</v>
       </c>
-      <c r="K44" s="3">
-        <v>1</v>
+      <c r="K44" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -4193,7 +4246,7 @@
         <v>2019</v>
       </c>
       <c r="B45" s="35">
-        <v>43581</v>
+        <v>43583</v>
       </c>
       <c r="C45" s="41" t="s">
         <v>164</v>
@@ -4202,10 +4255,10 @@
         <v>11</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>436</v>
@@ -4219,20 +4272,18 @@
       <c r="J45" s="3">
         <v>1</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="N45" s="1"/>
       <c r="O45" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4240,7 +4291,7 @@
         <v>2019</v>
       </c>
       <c r="B46" s="35">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="C46" s="41" t="s">
         <v>164</v>
@@ -4248,17 +4299,17 @@
       <c r="D46" s="44">
         <v>11</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
+      <c r="E46" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>241</v>
+        <v>56</v>
       </c>
       <c r="I46" s="3">
         <v>1</v>
@@ -4266,20 +4317,20 @@
       <c r="J46" s="3">
         <v>1</v>
       </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>208</v>
+      <c r="K46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -4287,7 +4338,7 @@
         <v>2019</v>
       </c>
       <c r="B47" s="35">
-        <v>43572</v>
+        <v>43580</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>164</v>
@@ -4295,36 +4346,38 @@
       <c r="D47" s="44">
         <v>11</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>211</v>
+      <c r="E47" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="I47" s="3">
         <v>1</v>
       </c>
       <c r="J47" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K47" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="N47" s="7"/>
+      <c r="M47" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="O47" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -4332,7 +4385,7 @@
         <v>2019</v>
       </c>
       <c r="B48" s="35">
-        <v>43553</v>
+        <v>43572</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>164</v>
@@ -4340,38 +4393,36 @@
       <c r="D48" s="44">
         <v>11</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>216</v>
+      <c r="E48" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I48" s="3">
         <v>1</v>
       </c>
       <c r="J48" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K48" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="M48" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="N48" s="7"/>
       <c r="O48" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -4379,7 +4430,7 @@
         <v>2019</v>
       </c>
       <c r="B49" s="35">
-        <v>43541</v>
+        <v>43553</v>
       </c>
       <c r="C49" s="41" t="s">
         <v>164</v>
@@ -4388,16 +4439,16 @@
         <v>11</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="I49" s="3">
         <v>1</v>
@@ -4405,20 +4456,20 @@
       <c r="J49" s="3">
         <v>1</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>223</v>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -4426,7 +4477,7 @@
         <v>2019</v>
       </c>
       <c r="B50" s="35">
-        <v>43540</v>
+        <v>43541</v>
       </c>
       <c r="C50" s="41" t="s">
         <v>164</v>
@@ -4435,35 +4486,37 @@
         <v>11</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="I50" s="3">
         <v>1</v>
       </c>
       <c r="J50" s="3">
-        <v>3</v>
-      </c>
-      <c r="K50" s="3">
-        <v>3</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="N50" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="O50" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -4479,36 +4532,36 @@
       <c r="D51" s="44">
         <v>11</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>231</v>
+      <c r="E51" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>76</v>
+        <v>464</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="I51" s="3">
         <v>1</v>
       </c>
       <c r="J51" s="3">
-        <v>1</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="3">
-        <v>1</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>232</v>
+        <v>3</v>
+      </c>
+      <c r="K51" s="3">
+        <v>3</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -4516,7 +4569,7 @@
         <v>2019</v>
       </c>
       <c r="B52" s="35">
-        <v>43536</v>
+        <v>43540</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>164</v>
@@ -4524,17 +4577,17 @@
       <c r="D52" s="44">
         <v>11</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>235</v>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>99</v>
+        <v>440</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="I52" s="3">
         <v>1</v>
@@ -4542,20 +4595,18 @@
       <c r="J52" s="3">
         <v>1</v>
       </c>
-      <c r="K52" s="3">
-        <v>1</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="K52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N52" s="1"/>
       <c r="O52" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -4563,7 +4614,7 @@
         <v>2019</v>
       </c>
       <c r="B53" s="35">
-        <v>43528</v>
+        <v>43536</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>164</v>
@@ -4572,16 +4623,16 @@
         <v>11</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>241</v>
+        <v>99</v>
       </c>
       <c r="I53" s="3">
         <v>1</v>
@@ -4595,14 +4646,14 @@
       <c r="L53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>243</v>
+      <c r="M53" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -4610,7 +4661,7 @@
         <v>2019</v>
       </c>
       <c r="B54" s="35">
-        <v>43525</v>
+        <v>43528</v>
       </c>
       <c r="C54" s="41" t="s">
         <v>164</v>
@@ -4619,16 +4670,16 @@
         <v>11</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -4636,18 +4687,20 @@
       <c r="J54" s="3">
         <v>1</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="N54" s="1"/>
+      <c r="K54" s="3">
+        <v>1</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="O54" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -4655,7 +4708,7 @@
         <v>2019</v>
       </c>
       <c r="B55" s="35">
-        <v>43511</v>
+        <v>43525</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>164</v>
@@ -4664,16 +4717,16 @@
         <v>11</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="I55" s="3">
         <v>1</v>
@@ -4684,15 +4737,15 @@
       <c r="K55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L55" s="3" t="s">
-        <v>12</v>
+      <c r="L55" s="3">
+        <v>1</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N55" s="1"/>
-      <c r="O55" s="17" t="s">
-        <v>251</v>
+      <c r="O55" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -4700,7 +4753,7 @@
         <v>2019</v>
       </c>
       <c r="B56" s="35">
-        <v>43507</v>
+        <v>43511</v>
       </c>
       <c r="C56" s="41" t="s">
         <v>164</v>
@@ -4709,16 +4762,16 @@
         <v>11</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>12</v>
+        <v>248</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="I56" s="3">
         <v>1</v>
@@ -4726,20 +4779,18 @@
       <c r="J56" s="3">
         <v>1</v>
       </c>
-      <c r="K56" s="3">
-        <v>1</v>
+      <c r="K56" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="N56" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="17" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -4747,7 +4798,7 @@
         <v>2019</v>
       </c>
       <c r="B57" s="35">
-        <v>43505</v>
+        <v>43507</v>
       </c>
       <c r="C57" s="41" t="s">
         <v>164</v>
@@ -4755,11 +4806,11 @@
       <c r="D57" s="44">
         <v>11</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>257</v>
+      <c r="F57" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>445</v>
@@ -4773,17 +4824,17 @@
       <c r="J57" s="3">
         <v>1</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>12</v>
+      <c r="K57" s="3">
+        <v>1</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O57" s="4" t="s">
         <v>256</v>
@@ -4794,7 +4845,7 @@
         <v>2019</v>
       </c>
       <c r="B58" s="35">
-        <v>43502</v>
+        <v>43505</v>
       </c>
       <c r="C58" s="41" t="s">
         <v>164</v>
@@ -4802,7 +4853,7 @@
       <c r="D58" s="44">
         <v>11</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F58" s="7" t="s">
@@ -4827,13 +4878,13 @@
         <v>12</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="O58" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -4841,7 +4892,7 @@
         <v>2019</v>
       </c>
       <c r="B59" s="35">
-        <v>43500</v>
+        <v>43502</v>
       </c>
       <c r="C59" s="41" t="s">
         <v>164</v>
@@ -4865,20 +4916,22 @@
         <v>1</v>
       </c>
       <c r="J59" s="3">
-        <v>2</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="N59" s="7"/>
-      <c r="O59" s="4" t="s">
-        <v>264</v>
+        <v>1</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="O59" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4886,7 +4939,7 @@
         <v>2019</v>
       </c>
       <c r="B60" s="35">
-        <v>43485</v>
+        <v>43500</v>
       </c>
       <c r="C60" s="41" t="s">
         <v>164</v>
@@ -4894,17 +4947,17 @@
       <c r="D60" s="44">
         <v>11</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
+      <c r="E60" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="I60" s="3">
         <v>1</v>
@@ -4913,25 +4966,25 @@
         <v>2</v>
       </c>
       <c r="K60" s="3">
-        <v>2</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>267</v>
+        <v>1</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="N60" s="7"/>
       <c r="O60" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="19">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B61" s="35">
-        <v>43453</v>
+        <v>43485</v>
       </c>
       <c r="C61" s="41" t="s">
         <v>164</v>
@@ -4940,35 +4993,35 @@
         <v>11</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>270</v>
+        <v>12</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>89</v>
+        <v>452</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="I61" s="3">
         <v>1</v>
       </c>
       <c r="J61" s="3">
-        <v>3</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="K61" s="3">
+        <v>2</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N61" s="1"/>
+      <c r="M61" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="N61" s="7"/>
       <c r="O61" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -4976,7 +5029,7 @@
         <v>2018</v>
       </c>
       <c r="B62" s="35">
-        <v>43408</v>
+        <v>43453</v>
       </c>
       <c r="C62" s="41" t="s">
         <v>164</v>
@@ -4985,10 +5038,10 @@
         <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>444</v>
@@ -5000,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>12</v>
@@ -5009,11 +5062,11 @@
         <v>12</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N62" s="1"/>
-      <c r="O62" s="14" t="s">
-        <v>276</v>
+      <c r="O62" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -5021,7 +5074,7 @@
         <v>2018</v>
       </c>
       <c r="B63" s="35">
-        <v>43396</v>
+        <v>43408</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>164</v>
@@ -5030,10 +5083,10 @@
         <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>444</v>
@@ -5045,20 +5098,20 @@
         <v>1</v>
       </c>
       <c r="J63" s="3">
-        <v>6</v>
-      </c>
-      <c r="K63" s="3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N63" s="1"/>
-      <c r="O63" s="4" t="s">
-        <v>280</v>
+      <c r="O63" s="14" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -5066,7 +5119,7 @@
         <v>2018</v>
       </c>
       <c r="B64" s="35">
-        <v>43393</v>
+        <v>43396</v>
       </c>
       <c r="C64" s="41" t="s">
         <v>164</v>
@@ -5075,35 +5128,35 @@
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I64" s="3">
         <v>1</v>
       </c>
       <c r="J64" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K64" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M64" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="N64" s="7"/>
+      <c r="M64" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N64" s="1"/>
       <c r="O64" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -5111,7 +5164,7 @@
         <v>2018</v>
       </c>
       <c r="B65" s="35">
-        <v>43390</v>
+        <v>43393</v>
       </c>
       <c r="C65" s="41" t="s">
         <v>164</v>
@@ -5119,17 +5172,17 @@
       <c r="D65" s="44">
         <v>11</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>12</v>
+      <c r="E65" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>286</v>
+        <v>89</v>
       </c>
       <c r="I65" s="3">
         <v>1</v>
@@ -5144,11 +5197,11 @@
         <v>12</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N65" s="7"/>
-      <c r="O65" s="20" t="s">
-        <v>288</v>
+      <c r="O65" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -5156,7 +5209,7 @@
         <v>2018</v>
       </c>
       <c r="B66" s="35">
-        <v>43335</v>
+        <v>43390</v>
       </c>
       <c r="C66" s="41" t="s">
         <v>164</v>
@@ -5165,16 +5218,16 @@
         <v>11</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="I66" s="3">
         <v>1</v>
@@ -5189,13 +5242,11 @@
         <v>12</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
+      </c>
+      <c r="N66" s="7"/>
+      <c r="O66" s="20" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -5203,7 +5254,7 @@
         <v>2018</v>
       </c>
       <c r="B67" s="35">
-        <v>43312</v>
+        <v>43335</v>
       </c>
       <c r="C67" s="41" t="s">
         <v>164</v>
@@ -5211,17 +5262,17 @@
       <c r="D67" s="44">
         <v>11</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
+      <c r="E67" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="I67" s="3">
         <v>1</v>
@@ -5236,11 +5287,13 @@
         <v>12</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="N67" s="7"/>
-      <c r="O67" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -5248,7 +5301,7 @@
         <v>2018</v>
       </c>
       <c r="B68" s="35">
-        <v>43245</v>
+        <v>43312</v>
       </c>
       <c r="C68" s="41" t="s">
         <v>164</v>
@@ -5257,16 +5310,16 @@
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>298</v>
+        <v>12</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>253</v>
+        <v>448</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="I68" s="3">
         <v>1</v>
@@ -5280,12 +5333,12 @@
       <c r="L68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="N68" s="1"/>
-      <c r="O68" s="4" t="s">
-        <v>300</v>
+      <c r="M68" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="N68" s="7"/>
+      <c r="O68" s="12" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -5293,7 +5346,7 @@
         <v>2018</v>
       </c>
       <c r="B69" s="35">
-        <v>43229</v>
+        <v>43245</v>
       </c>
       <c r="C69" s="41" t="s">
         <v>164</v>
@@ -5302,35 +5355,35 @@
         <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="I69" s="3">
         <v>1</v>
       </c>
-      <c r="J69" s="2">
-        <v>1</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>12</v>
+      <c r="J69" s="3">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3">
+        <v>1</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M69" s="1"/>
-      <c r="N69" s="17" t="s">
-        <v>303</v>
-      </c>
+      <c r="M69" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N69" s="1"/>
       <c r="O69" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -5338,7 +5391,7 @@
         <v>2018</v>
       </c>
       <c r="B70" s="35">
-        <v>43225</v>
+        <v>43229</v>
       </c>
       <c r="C70" s="41" t="s">
         <v>164</v>
@@ -5347,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>302</v>
@@ -5362,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>12</v>
@@ -5370,12 +5423,12 @@
       <c r="L70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M70" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="N70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="O70" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -5383,7 +5436,7 @@
         <v>2018</v>
       </c>
       <c r="B71" s="35">
-        <v>43224</v>
+        <v>43225</v>
       </c>
       <c r="C71" s="41" t="s">
         <v>164</v>
@@ -5407,16 +5460,16 @@
         <v>1</v>
       </c>
       <c r="J71" s="2">
-        <v>27</v>
-      </c>
-      <c r="K71" s="2">
-        <v>5</v>
-      </c>
-      <c r="L71" s="2">
-        <v>1</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>307</v>
+        <v>9</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="4" t="s">
@@ -5428,7 +5481,7 @@
         <v>2018</v>
       </c>
       <c r="B72" s="35">
-        <v>43215</v>
+        <v>43224</v>
       </c>
       <c r="C72" s="41" t="s">
         <v>164</v>
@@ -5437,35 +5490,35 @@
         <v>11</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="I72" s="3">
         <v>1</v>
       </c>
-      <c r="J72" s="3">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>12</v>
+      <c r="J72" s="2">
+        <v>27</v>
+      </c>
+      <c r="K72" s="2">
+        <v>5</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N72" s="1"/>
-      <c r="O72" s="17" t="s">
-        <v>311</v>
+      <c r="O72" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -5473,7 +5526,7 @@
         <v>2018</v>
       </c>
       <c r="B73" s="35">
-        <v>43193</v>
+        <v>43215</v>
       </c>
       <c r="C73" s="41" t="s">
         <v>164</v>
@@ -5482,34 +5535,35 @@
         <v>11</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I73" s="3">
         <v>1</v>
       </c>
       <c r="J73" s="3">
-        <v>1</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="K73" s="3">
+        <v>3</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="O73" s="14" t="s">
-        <v>315</v>
+        <v>310</v>
+      </c>
+      <c r="N73" s="1"/>
+      <c r="O73" s="17" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -5526,7 +5580,7 @@
         <v>11</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>313</v>
@@ -5550,9 +5604,8 @@
         <v>12</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="N74" s="1"/>
+        <v>314</v>
+      </c>
       <c r="O74" s="14" t="s">
         <v>315</v>
       </c>
@@ -5562,7 +5615,7 @@
         <v>2018</v>
       </c>
       <c r="B75" s="35">
-        <v>43192</v>
+        <v>43193</v>
       </c>
       <c r="C75" s="41" t="s">
         <v>164</v>
@@ -5570,38 +5623,36 @@
       <c r="D75" s="44">
         <v>11</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>318</v>
+      <c r="E75" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I75" s="3">
         <v>1</v>
       </c>
       <c r="J75" s="3">
-        <v>2</v>
-      </c>
-      <c r="K75" s="3">
-        <v>1</v>
-      </c>
-      <c r="L75" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
+      </c>
+      <c r="N75" s="1"/>
+      <c r="O75" s="14" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -5609,7 +5660,7 @@
         <v>2018</v>
       </c>
       <c r="B76" s="35">
-        <v>43132</v>
+        <v>43192</v>
       </c>
       <c r="C76" s="41" t="s">
         <v>164</v>
@@ -5618,35 +5669,37 @@
         <v>11</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I76" s="3">
         <v>1</v>
       </c>
-      <c r="J76" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N76" s="7"/>
+      <c r="J76" s="3">
+        <v>2</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="O76" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -5654,7 +5707,7 @@
         <v>2018</v>
       </c>
       <c r="B77" s="35">
-        <v>43129</v>
+        <v>43132</v>
       </c>
       <c r="C77" s="41" t="s">
         <v>164</v>
@@ -5662,36 +5715,36 @@
       <c r="D77" s="44">
         <v>11</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>309</v>
+      <c r="E77" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>17</v>
+        <v>435</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I77" s="3">
         <v>1</v>
       </c>
-      <c r="J77" s="3">
-        <v>2</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N77" s="1"/>
+      <c r="J77" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="N77" s="7"/>
       <c r="O77" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -5699,7 +5752,7 @@
         <v>2018</v>
       </c>
       <c r="B78" s="35">
-        <v>43126</v>
+        <v>43129</v>
       </c>
       <c r="C78" s="41" t="s">
         <v>164</v>
@@ -5707,17 +5760,17 @@
       <c r="D78" s="44">
         <v>11</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>329</v>
+      <c r="E78" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>330</v>
+        <v>463</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I78" s="3">
         <v>1</v>
@@ -5732,19 +5785,19 @@
         <v>12</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="N78" s="4"/>
+        <v>327</v>
+      </c>
+      <c r="N78" s="1"/>
       <c r="O78" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="19">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B79" s="35">
-        <v>43090</v>
+        <v>43126</v>
       </c>
       <c r="C79" s="41" t="s">
         <v>164</v>
@@ -5753,22 +5806,22 @@
         <v>11</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I79" s="3">
         <v>1</v>
       </c>
       <c r="J79" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>12</v>
@@ -5777,13 +5830,11 @@
         <v>12</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>337</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N79" s="4"/>
       <c r="O79" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -5791,7 +5842,7 @@
         <v>2017</v>
       </c>
       <c r="B80" s="35">
-        <v>43069</v>
+        <v>43090</v>
       </c>
       <c r="C80" s="41" t="s">
         <v>164</v>
@@ -5800,35 +5851,37 @@
         <v>11</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>218</v>
+        <v>335</v>
       </c>
       <c r="I80" s="3">
         <v>1</v>
       </c>
       <c r="J80" s="3">
-        <v>1</v>
-      </c>
-      <c r="K80" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M80" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="N80" s="7"/>
+      <c r="M80" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="O80" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -5836,7 +5889,7 @@
         <v>2017</v>
       </c>
       <c r="B81" s="35">
-        <v>42982</v>
+        <v>43069</v>
       </c>
       <c r="C81" s="41" t="s">
         <v>164</v>
@@ -5844,17 +5897,17 @@
       <c r="D81" s="44">
         <v>11</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>344</v>
+      <c r="E81" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>164</v>
+        <v>465</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="I81" s="3">
         <v>1</v>
@@ -5862,18 +5915,18 @@
       <c r="J81" s="3">
         <v>1</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>12</v>
+      <c r="K81" s="3">
+        <v>1</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M81" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="N81" s="1"/>
+      <c r="M81" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="N81" s="7"/>
       <c r="O81" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5881,7 +5934,7 @@
         <v>2017</v>
       </c>
       <c r="B82" s="35">
-        <v>42980</v>
+        <v>42982</v>
       </c>
       <c r="C82" s="41" t="s">
         <v>164</v>
@@ -5889,17 +5942,17 @@
       <c r="D82" s="44">
         <v>11</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>348</v>
+      <c r="E82" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>213</v>
+        <v>442</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="I82" s="3">
         <v>1</v>
@@ -5913,14 +5966,12 @@
       <c r="L82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M82" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="N82" s="7" t="s">
-        <v>350</v>
-      </c>
+      <c r="M82" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N82" s="1"/>
       <c r="O82" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -5928,7 +5979,7 @@
         <v>2017</v>
       </c>
       <c r="B83" s="35">
-        <v>42957</v>
+        <v>42980</v>
       </c>
       <c r="C83" s="41" t="s">
         <v>164</v>
@@ -5937,16 +5988,16 @@
         <v>11</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>152</v>
+        <v>455</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="I83" s="3">
         <v>1</v>
@@ -5960,14 +6011,14 @@
       <c r="L83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M83" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>355</v>
+      <c r="M83" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="N83" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -5975,7 +6026,7 @@
         <v>2017</v>
       </c>
       <c r="B84" s="35">
-        <v>42951</v>
+        <v>42957</v>
       </c>
       <c r="C84" s="41" t="s">
         <v>164</v>
@@ -5983,23 +6034,23 @@
       <c r="D84" s="44">
         <v>11</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>12</v>
+      <c r="E84" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="I84" s="3">
         <v>1</v>
       </c>
       <c r="J84" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>12</v>
@@ -6008,11 +6059,13 @@
         <v>12</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="N84" s="1"/>
+        <v>354</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="O84" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -6020,7 +6073,7 @@
         <v>2017</v>
       </c>
       <c r="B85" s="35">
-        <v>42927</v>
+        <v>42951</v>
       </c>
       <c r="C85" s="41" t="s">
         <v>164</v>
@@ -6029,10 +6082,10 @@
         <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>450</v>
@@ -6044,22 +6097,20 @@
         <v>1</v>
       </c>
       <c r="J85" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L85" s="3">
-        <v>1</v>
+      <c r="L85" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>363</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N85" s="1"/>
       <c r="O85" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -6067,7 +6118,7 @@
         <v>2017</v>
       </c>
       <c r="B86" s="35">
-        <v>42743</v>
+        <v>42927</v>
       </c>
       <c r="C86" s="41" t="s">
         <v>164</v>
@@ -6076,45 +6127,45 @@
         <v>11</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I86" s="3">
         <v>1</v>
       </c>
       <c r="J86" s="3">
-        <v>5</v>
-      </c>
-      <c r="K86" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L86" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="O86" s="63" t="s">
-        <v>488</v>
+        <v>363</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="19">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B87" s="35">
-        <v>42710</v>
+        <v>42743</v>
       </c>
       <c r="C87" s="41" t="s">
         <v>164</v>
@@ -6126,32 +6177,34 @@
         <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I87" s="3">
         <v>1</v>
       </c>
       <c r="J87" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K87" s="3">
-        <v>1</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="L87" s="3">
+        <v>2</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="N87" s="1"/>
-      <c r="O87" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="O87" s="63" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -6159,7 +6212,7 @@
         <v>2016</v>
       </c>
       <c r="B88" s="35">
-        <v>42709</v>
+        <v>42710</v>
       </c>
       <c r="C88" s="41" t="s">
         <v>164</v>
@@ -6168,16 +6221,16 @@
         <v>11</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>371</v>
+        <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
@@ -6192,66 +6245,64 @@
         <v>12</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B89" s="35">
+        <v>42709</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" s="44">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N89" s="1"/>
+      <c r="O89" s="4" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="34">
-        <v>2016</v>
-      </c>
-      <c r="B89" s="36">
-        <v>42614</v>
-      </c>
-      <c r="C89" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D89" s="44">
-        <v>11</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H89" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1</v>
-      </c>
-      <c r="J89" s="25">
-        <v>2</v>
-      </c>
-      <c r="K89" s="25">
-        <v>1</v>
-      </c>
-      <c r="L89" s="25">
-        <v>1</v>
-      </c>
-      <c r="M89" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="N89" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="O89" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="34">
         <v>2016</v>
       </c>
-      <c r="B90" s="51">
-        <v>42579</v>
+      <c r="B90" s="36">
+        <v>42614</v>
       </c>
       <c r="C90" s="41" t="s">
         <v>164</v>
@@ -6259,46 +6310,46 @@
       <c r="D90" s="44">
         <v>11</v>
       </c>
-      <c r="E90" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="F90" s="57" t="s">
-        <v>477</v>
+      <c r="E90" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>375</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="I90" s="3">
         <v>1</v>
       </c>
       <c r="J90" s="25">
-        <v>1</v>
-      </c>
-      <c r="K90" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L90" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M90" s="56" t="s">
-        <v>478</v>
+        <v>2</v>
+      </c>
+      <c r="K90" s="25">
+        <v>1</v>
+      </c>
+      <c r="L90" s="25">
+        <v>1</v>
+      </c>
+      <c r="M90" s="23" t="s">
+        <v>376</v>
       </c>
       <c r="N90" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O90" s="53" t="s">
-        <v>479</v>
+        <v>377</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="34">
         <v>2016</v>
       </c>
-      <c r="B91" s="36">
-        <v>42445</v>
+      <c r="B91" s="51">
+        <v>42579</v>
       </c>
       <c r="C91" s="41" t="s">
         <v>164</v>
@@ -6306,17 +6357,17 @@
       <c r="D91" s="44">
         <v>11</v>
       </c>
-      <c r="E91" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="F91" s="23" t="s">
-        <v>380</v>
+      <c r="E91" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="F91" s="57" t="s">
+        <v>477</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="I91" s="3">
         <v>1</v>
@@ -6324,18 +6375,20 @@
       <c r="J91" s="25">
         <v>1</v>
       </c>
-      <c r="K91" s="25">
-        <v>1</v>
+      <c r="K91" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="L91" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M91" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="N91" s="23"/>
-      <c r="O91" s="4" t="s">
-        <v>382</v>
+      <c r="M91" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="N91" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O91" s="53" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -6343,7 +6396,7 @@
         <v>2016</v>
       </c>
       <c r="B92" s="36">
-        <v>42429</v>
+        <v>42445</v>
       </c>
       <c r="C92" s="41" t="s">
         <v>164</v>
@@ -6352,15 +6405,15 @@
         <v>11</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H92" s="26" t="s">
+      <c r="H92" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I92" s="3">
@@ -6369,18 +6422,18 @@
       <c r="J92" s="25">
         <v>1</v>
       </c>
-      <c r="K92" s="25" t="s">
-        <v>12</v>
+      <c r="K92" s="25">
+        <v>1</v>
       </c>
       <c r="L92" s="25" t="s">
         <v>12</v>
       </c>
       <c r="M92" s="23" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N92" s="23"/>
-      <c r="O92" s="14" t="s">
-        <v>386</v>
+      <c r="O92" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -6388,7 +6441,7 @@
         <v>2016</v>
       </c>
       <c r="B93" s="36">
-        <v>42414</v>
+        <v>42429</v>
       </c>
       <c r="C93" s="41" t="s">
         <v>164</v>
@@ -6397,22 +6450,22 @@
         <v>11</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H93" s="24" t="s">
+      <c r="H93" s="26" t="s">
         <v>36</v>
       </c>
       <c r="I93" s="3">
         <v>1</v>
       </c>
       <c r="J93" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" s="25" t="s">
         <v>12</v>
@@ -6420,14 +6473,12 @@
       <c r="L93" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M93" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="N93" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="O93" s="4" t="s">
-        <v>391</v>
+      <c r="M93" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="N93" s="23"/>
+      <c r="O93" s="14" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -6435,7 +6486,7 @@
         <v>2016</v>
       </c>
       <c r="B94" s="36">
-        <v>42382</v>
+        <v>42414</v>
       </c>
       <c r="C94" s="41" t="s">
         <v>164</v>
@@ -6444,22 +6495,22 @@
         <v>11</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>12</v>
+        <v>387</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>388</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="I94" s="3">
         <v>1</v>
       </c>
       <c r="J94" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K94" s="25" t="s">
         <v>12</v>
@@ -6467,20 +6518,22 @@
       <c r="L94" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M94" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="N94" s="23"/>
+      <c r="M94" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="N94" s="23" t="s">
+        <v>390</v>
+      </c>
       <c r="O94" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="34">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B95" s="36">
-        <v>42320</v>
+        <v>42382</v>
       </c>
       <c r="C95" s="41" t="s">
         <v>164</v>
@@ -6489,16 +6542,16 @@
         <v>11</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="I95" s="3">
         <v>1</v>
@@ -6506,20 +6559,18 @@
       <c r="J95" s="25">
         <v>1</v>
       </c>
-      <c r="K95" s="25">
-        <v>1</v>
+      <c r="K95" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="L95" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M95" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="N95" s="28" t="s">
-        <v>398</v>
-      </c>
+      <c r="M95" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="N95" s="23"/>
       <c r="O95" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -6527,7 +6578,7 @@
         <v>2015</v>
       </c>
       <c r="B96" s="36">
-        <v>42178</v>
+        <v>42320</v>
       </c>
       <c r="C96" s="41" t="s">
         <v>164</v>
@@ -6535,11 +6586,11 @@
       <c r="D96" s="44">
         <v>11</v>
       </c>
-      <c r="E96" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="F96" s="28" t="s">
-        <v>401</v>
+      <c r="E96" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>396</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>450</v>
@@ -6550,29 +6601,31 @@
       <c r="I96" s="3">
         <v>1</v>
       </c>
-      <c r="J96" s="29">
-        <v>2</v>
-      </c>
-      <c r="K96" s="29">
-        <v>1</v>
-      </c>
-      <c r="L96" s="29" t="s">
+      <c r="J96" s="25">
+        <v>1</v>
+      </c>
+      <c r="K96" s="25">
+        <v>1</v>
+      </c>
+      <c r="L96" s="25" t="s">
         <v>12</v>
       </c>
       <c r="M96" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N96" s="23"/>
+        <v>397</v>
+      </c>
+      <c r="N96" s="28" t="s">
+        <v>398</v>
+      </c>
       <c r="O96" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="34">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B97" s="36">
-        <v>41970</v>
+        <v>42178</v>
       </c>
       <c r="C97" s="41" t="s">
         <v>164</v>
@@ -6580,11 +6633,11 @@
       <c r="D97" s="44">
         <v>11</v>
       </c>
-      <c r="E97" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>405</v>
+      <c r="E97" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F97" s="28" t="s">
+        <v>401</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>450</v>
@@ -6595,21 +6648,21 @@
       <c r="I97" s="3">
         <v>1</v>
       </c>
-      <c r="J97" s="25">
-        <v>4</v>
-      </c>
-      <c r="K97" s="25">
+      <c r="J97" s="29">
         <v>2</v>
       </c>
-      <c r="L97" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M97" s="23" t="s">
-        <v>406</v>
+      <c r="K97" s="29">
+        <v>1</v>
+      </c>
+      <c r="L97" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M97" s="28" t="s">
+        <v>402</v>
       </c>
       <c r="N97" s="23"/>
       <c r="O97" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -6617,7 +6670,7 @@
         <v>2014</v>
       </c>
       <c r="B98" s="36">
-        <v>41852</v>
+        <v>41970</v>
       </c>
       <c r="C98" s="41" t="s">
         <v>164</v>
@@ -6626,16 +6679,16 @@
         <v>11</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="I98" s="3">
         <v>1</v>
@@ -6643,26 +6696,26 @@
       <c r="J98" s="25">
         <v>4</v>
       </c>
-      <c r="K98" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L98" s="25">
-        <v>4</v>
+      <c r="K98" s="25">
+        <v>2</v>
+      </c>
+      <c r="L98" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="M98" s="23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="N98" s="23"/>
       <c r="O98" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="34">
         <v>2014</v>
       </c>
-      <c r="B99" s="51">
-        <v>41779</v>
+      <c r="B99" s="36">
+        <v>41852</v>
       </c>
       <c r="C99" s="41" t="s">
         <v>164</v>
@@ -6670,229 +6723,230 @@
       <c r="D99" s="44">
         <v>11</v>
       </c>
-      <c r="E99" s="55" t="s">
-        <v>472</v>
-      </c>
-      <c r="F99" s="54" t="s">
-        <v>473</v>
+      <c r="E99" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>409</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="I99" s="3">
         <v>1</v>
       </c>
       <c r="J99" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K99" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="L99" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M99" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="N99" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O99" s="53" t="s">
-        <v>475</v>
+      <c r="L99" s="25">
+        <v>4</v>
+      </c>
+      <c r="M99" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="N99" s="23"/>
+      <c r="O99" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="34">
         <v>2014</v>
       </c>
-      <c r="B100" s="36">
+      <c r="B100" s="51">
+        <v>41779</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="44">
+        <v>11</v>
+      </c>
+      <c r="E100" s="55" t="s">
+        <v>472</v>
+      </c>
+      <c r="F100" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H100" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1</v>
+      </c>
+      <c r="J100" s="25">
+        <v>1</v>
+      </c>
+      <c r="K100" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L100" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M100" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="N100" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" s="53" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="34">
+        <v>2014</v>
+      </c>
+      <c r="B101" s="36">
         <v>41674</v>
       </c>
-      <c r="C100" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D100" s="44">
-        <v>11</v>
-      </c>
-      <c r="E100" s="23" t="s">
+      <c r="C101" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" s="44">
+        <v>11</v>
+      </c>
+      <c r="E101" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="F100" s="23" t="s">
+      <c r="F101" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="G100" s="22" t="s">
+      <c r="G101" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="H100" s="24" t="s">
+      <c r="H101" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="I100" s="3">
-        <v>1</v>
-      </c>
-      <c r="J100" s="25">
+      <c r="I101" s="3">
+        <v>1</v>
+      </c>
+      <c r="J101" s="25">
         <v>2</v>
       </c>
-      <c r="K100" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L100" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M100" s="23" t="s">
+      <c r="K101" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M101" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="N100" s="23"/>
-      <c r="O100" s="4" t="s">
+      <c r="N101" s="23"/>
+      <c r="O101" s="4" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="62">
-        <v>2013</v>
-      </c>
-      <c r="B101" s="49">
-        <v>41528</v>
-      </c>
-      <c r="C101" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D101" s="44">
-        <v>11</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="G101" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1</v>
-      </c>
-      <c r="J101" s="25">
-        <v>4</v>
-      </c>
-      <c r="K101" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L101" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M101" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N101" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O101" s="63" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="62">
+        <v>2013</v>
+      </c>
+      <c r="B102" s="49">
+        <v>41528</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D102" s="44">
+        <v>11</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="50" t="s">
+        <v>468</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="H102" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1</v>
+      </c>
+      <c r="J102" s="25">
+        <v>4</v>
+      </c>
+      <c r="K102" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L102" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O102" s="63" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="62">
         <v>2012</v>
       </c>
-      <c r="B102" s="51">
+      <c r="B103" s="51">
         <v>40966</v>
       </c>
-      <c r="C102" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D102" s="44">
-        <v>11</v>
-      </c>
-      <c r="E102" s="52" t="s">
+      <c r="C103" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D103" s="44">
+        <v>11</v>
+      </c>
+      <c r="E103" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="F102" s="52" t="s">
+      <c r="F103" s="52" t="s">
         <v>470</v>
       </c>
-      <c r="G102" s="22" t="s">
+      <c r="G103" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="H102" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1</v>
-      </c>
-      <c r="J102" s="25">
-        <v>1</v>
-      </c>
-      <c r="K102" s="25">
+      <c r="H103" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I103" s="3">
+        <v>1</v>
+      </c>
+      <c r="J103" s="25">
+        <v>1</v>
+      </c>
+      <c r="K103" s="25">
         <v>0</v>
       </c>
-      <c r="L102" s="25">
-        <v>1</v>
-      </c>
-      <c r="M102" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N102" s="52" t="s">
+      <c r="L103" s="25">
+        <v>1</v>
+      </c>
+      <c r="M103" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N103" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="O102" s="53" t="s">
+      <c r="O103" s="53" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="34">
-        <v>2012</v>
-      </c>
-      <c r="B103" s="37">
-        <v>2012</v>
-      </c>
-      <c r="C103" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D103" s="44">
-        <v>11</v>
-      </c>
-      <c r="E103" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="F103" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H103" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="I103" s="3">
-        <v>1</v>
-      </c>
-      <c r="J103" s="30">
-        <v>3</v>
-      </c>
-      <c r="K103" s="31">
-        <v>1</v>
-      </c>
-      <c r="L103" s="31">
-        <v>1</v>
-      </c>
-      <c r="M103" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="O103" s="14" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="34">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B104" s="37">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C104" s="41" t="s">
         <v>164</v>
@@ -6900,32 +6954,33 @@
       <c r="D104" s="44">
         <v>11</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>12</v>
+      <c r="E104" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="F104" s="32" t="s">
+        <v>418</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H104" s="26" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="I104" s="3">
         <v>1</v>
       </c>
-      <c r="J104" s="25">
-        <v>1</v>
-      </c>
-      <c r="K104" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L104" s="25">
-        <v>1</v>
-      </c>
-      <c r="M104" s="23"/>
-      <c r="N104" s="32"/>
+      <c r="J104" s="30">
+        <v>3</v>
+      </c>
+      <c r="K104" s="31">
+        <v>1</v>
+      </c>
+      <c r="L104" s="31">
+        <v>1</v>
+      </c>
+      <c r="M104" s="33" t="s">
+        <v>419</v>
+      </c>
       <c r="O104" s="14" t="s">
         <v>417</v>
       </c>
@@ -6949,25 +7004,25 @@
       <c r="F105" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G105" s="46" t="s">
-        <v>456</v>
+      <c r="G105" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>420</v>
+        <v>17</v>
       </c>
       <c r="I105" s="3">
         <v>1</v>
       </c>
-      <c r="J105" s="30">
-        <v>2</v>
-      </c>
-      <c r="K105" s="31">
-        <v>2</v>
-      </c>
-      <c r="L105" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M105" s="32"/>
+      <c r="J105" s="25">
+        <v>1</v>
+      </c>
+      <c r="K105" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L105" s="25">
+        <v>1</v>
+      </c>
+      <c r="M105" s="23"/>
       <c r="N105" s="32"/>
       <c r="O105" s="14" t="s">
         <v>417</v>
@@ -6975,10 +7030,10 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="34">
-        <v>2010</v>
-      </c>
-      <c r="B106" s="36">
-        <v>40318</v>
+        <v>2011</v>
+      </c>
+      <c r="B106" s="37">
+        <v>2011</v>
       </c>
       <c r="C106" s="41" t="s">
         <v>164</v>
@@ -6986,44 +7041,42 @@
       <c r="D106" s="44">
         <v>11</v>
       </c>
-      <c r="E106" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H106" s="24" t="s">
-        <v>89</v>
+      <c r="E106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="H106" s="26" t="s">
+        <v>420</v>
       </c>
       <c r="I106" s="3">
         <v>1</v>
       </c>
-      <c r="J106" s="25">
-        <v>1</v>
-      </c>
-      <c r="K106" s="25">
-        <v>1</v>
-      </c>
-      <c r="L106" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M106" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="N106" s="23"/>
-      <c r="O106" s="4" t="s">
-        <v>424</v>
+      <c r="J106" s="30">
+        <v>2</v>
+      </c>
+      <c r="K106" s="31">
+        <v>2</v>
+      </c>
+      <c r="L106" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="14" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="34">
-        <v>2009</v>
-      </c>
-      <c r="B107" s="37">
-        <v>39995</v>
+        <v>2010</v>
+      </c>
+      <c r="B107" s="36">
+        <v>40318</v>
       </c>
       <c r="C107" s="41" t="s">
         <v>164</v>
@@ -7032,35 +7085,35 @@
         <v>11</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>12</v>
+        <v>421</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>422</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H107" s="24" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="I107" s="3">
         <v>1</v>
       </c>
       <c r="J107" s="25">
-        <v>14</v>
-      </c>
-      <c r="K107" s="31" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K107" s="25">
+        <v>1</v>
       </c>
       <c r="L107" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M107" s="16" t="s">
-        <v>426</v>
+      <c r="M107" s="23" t="s">
+        <v>423</v>
       </c>
       <c r="N107" s="23"/>
-      <c r="O107" s="20" t="s">
-        <v>427</v>
+      <c r="O107" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -7068,7 +7121,7 @@
         <v>2009</v>
       </c>
       <c r="B108" s="37">
-        <v>39969</v>
+        <v>39995</v>
       </c>
       <c r="C108" s="41" t="s">
         <v>164</v>
@@ -7076,154 +7129,200 @@
       <c r="D108" s="44">
         <v>11</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>12</v>
+      <c r="E108" s="23" t="s">
+        <v>425</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>40</v>
+      <c r="G108" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H108" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="I108" s="3">
         <v>1</v>
       </c>
       <c r="J108" s="25">
-        <v>2</v>
-      </c>
-      <c r="K108" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" s="31" t="s">
         <v>12</v>
       </c>
       <c r="L108" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M108" s="23" t="s">
-        <v>428</v>
+      <c r="M108" s="16" t="s">
+        <v>426</v>
       </c>
       <c r="N108" s="23"/>
       <c r="O108" s="20" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B109" s="37">
+        <v>39969</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D109" s="44">
+        <v>11</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I109" s="3">
+        <v>1</v>
+      </c>
+      <c r="J109" s="25">
+        <v>2</v>
+      </c>
+      <c r="K109" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L109" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M109" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="N109" s="23"/>
+      <c r="O109" s="20" t="s">
         <v>429</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O108" xr:uid="{51CCA004-4EBA-DB40-B10C-5F8D6554DBC2}"/>
+  <autoFilter ref="A1:O109" xr:uid="{51CCA004-4EBA-DB40-B10C-5F8D6554DBC2}"/>
   <hyperlinks>
-    <hyperlink ref="O9" r:id="rId1" xr:uid="{EBBF2AB6-87FC-E040-8926-9C2F183AF376}"/>
-    <hyperlink ref="O72" r:id="rId2" xr:uid="{D5F84E9F-EE09-9449-B391-C0700606B07E}"/>
-    <hyperlink ref="N9" r:id="rId3" xr:uid="{2AE0F851-C9A5-3549-9644-34486831A1C1}"/>
-    <hyperlink ref="O7" r:id="rId4" xr:uid="{B804790A-0FF2-AE4D-8EA9-12439AFD55FE}"/>
-    <hyperlink ref="O15" r:id="rId5" xr:uid="{3B88E5F2-A0BF-534D-9FAC-8A826F055F8B}"/>
-    <hyperlink ref="O11" r:id="rId6" xr:uid="{20DC7A21-4189-B24B-A4AA-3707DF6129A9}"/>
-    <hyperlink ref="O17" r:id="rId7" xr:uid="{9BBCD56B-FAA4-0442-9984-3144B90B74E2}"/>
-    <hyperlink ref="O8" r:id="rId8" xr:uid="{04F5EBF0-A4AB-9348-BBE0-9DA876DBBCB9}"/>
-    <hyperlink ref="O19" r:id="rId9" xr:uid="{FD5FD7D2-2217-1C4D-AB0C-0D578AB02313}"/>
-    <hyperlink ref="O21" r:id="rId10" xr:uid="{50DF3771-3014-FF45-B91B-554D92407AF7}"/>
-    <hyperlink ref="O24" r:id="rId11" xr:uid="{EAE7C061-D124-5540-AB54-A115A8971306}"/>
-    <hyperlink ref="O23" r:id="rId12" xr:uid="{7994FC08-B203-8F4D-8B61-DF35892909A1}"/>
-    <hyperlink ref="O6" r:id="rId13" xr:uid="{0B51B5D8-3906-D344-9CB0-AF632E406A90}"/>
-    <hyperlink ref="O20" r:id="rId14" xr:uid="{CB115356-E38B-0A4F-BD2E-E1DD14EB77AB}"/>
-    <hyperlink ref="O27" r:id="rId15" xr:uid="{C42E7FD4-0497-7A45-B619-076E8B885FE9}"/>
-    <hyperlink ref="O32" r:id="rId16" xr:uid="{1FEA88E9-DD5E-864B-9EB7-9B7FADE7288C}"/>
-    <hyperlink ref="O28" r:id="rId17" xr:uid="{434827F6-5116-624C-8FEA-5573D5F3D845}"/>
-    <hyperlink ref="O3" r:id="rId18" xr:uid="{826D62DE-B107-B745-A894-94CBFC44BEB7}"/>
-    <hyperlink ref="O4" r:id="rId19" xr:uid="{673F422A-5B08-C349-B716-023E7432D859}"/>
-    <hyperlink ref="O77" r:id="rId20" xr:uid="{A399BD4B-BF3A-2840-9168-829E19068186}"/>
-    <hyperlink ref="O51" r:id="rId21" xr:uid="{F3A48F46-259E-754E-8909-5CA77E6A4047}"/>
-    <hyperlink ref="O16" r:id="rId22" xr:uid="{EF4151BF-C8EB-2C4E-AA75-DE59846EB7D3}"/>
-    <hyperlink ref="O55" r:id="rId23" xr:uid="{65E83A7C-45FF-7C44-B324-72AB2FCFBF74}"/>
-    <hyperlink ref="O52" r:id="rId24" xr:uid="{D5EF334A-3E47-AE4D-8F9B-E27CAFCF31FA}"/>
-    <hyperlink ref="O50" r:id="rId25" xr:uid="{A9B8A2E3-049C-5140-9019-A85A999D5A0F}"/>
-    <hyperlink ref="O54" r:id="rId26" xr:uid="{B5A7D6AB-B82C-3545-B269-62CA72E6B10A}"/>
-    <hyperlink ref="O5" r:id="rId27" xr:uid="{5D16655E-9918-B246-A1E4-A1C8ACB3439C}"/>
-    <hyperlink ref="O56" r:id="rId28" xr:uid="{409BA013-EDE1-5549-BEFF-62B4701835B8}"/>
-    <hyperlink ref="O68" r:id="rId29" xr:uid="{C881A008-4FA8-6A44-B73D-99B773DB17A2}"/>
-    <hyperlink ref="O58" r:id="rId30" xr:uid="{9BC27B0D-1A62-9C4C-827B-B2C8B2C4B1A8}"/>
-    <hyperlink ref="O59" r:id="rId31" xr:uid="{8ABB7555-E4FD-804A-A9E9-7C173AB084DA}"/>
-    <hyperlink ref="O57" r:id="rId32" xr:uid="{6E1D1288-DC79-7E40-B3AE-E5251EC74370}"/>
-    <hyperlink ref="O25" r:id="rId33" xr:uid="{13DDC6B3-E09C-654D-B25B-76305B5D2EA8}"/>
-    <hyperlink ref="O43" r:id="rId34" xr:uid="{3FEFA9FF-969D-C84C-AB8B-9C831DC6615E}"/>
-    <hyperlink ref="O40" r:id="rId35" xr:uid="{814C4BA2-B230-9A46-8814-3DEE328D2C5C}"/>
-    <hyperlink ref="O100" r:id="rId36" xr:uid="{7E93212B-73FB-3E4D-BCD4-8B777E2DBFF3}"/>
-    <hyperlink ref="O63" r:id="rId37" xr:uid="{5C8DF39F-BDB1-3B4F-BE90-F8FFB71452D9}"/>
-    <hyperlink ref="O36" r:id="rId38" xr:uid="{1F1761E1-0A4E-BC40-9E1B-09CC68BDDD06}"/>
-    <hyperlink ref="O22" r:id="rId39" xr:uid="{356BBF8B-D112-ED40-95DE-6AB3A204F42C}"/>
-    <hyperlink ref="O10" r:id="rId40" xr:uid="{700104D6-90C0-8C42-AE32-0F2D16F3EA44}"/>
-    <hyperlink ref="O31" r:id="rId41" xr:uid="{74087B49-DF75-694D-878E-77E0C79AE2FB}"/>
-    <hyperlink ref="O34" r:id="rId42" xr:uid="{72093307-A3A5-A04A-AA11-98B96FE0F154}"/>
-    <hyperlink ref="O79" r:id="rId43" xr:uid="{6E741000-2EAF-AD42-BC04-E5F07EFB1CF4}"/>
-    <hyperlink ref="O39" r:id="rId44" xr:uid="{0780F015-440A-B241-923F-C77D587B8843}"/>
-    <hyperlink ref="O42" r:id="rId45" xr:uid="{64252ECE-1867-0047-BA98-84C3506775EE}"/>
-    <hyperlink ref="O75" r:id="rId46" xr:uid="{AE32A472-DB69-E04A-9D0A-865CBAECD5CB}"/>
-    <hyperlink ref="O12" r:id="rId47" xr:uid="{75700E12-229E-E64F-92DB-613EB2181AD7}"/>
-    <hyperlink ref="O44" r:id="rId48" xr:uid="{08037EDA-E0E5-1D47-BFE2-238620188875}"/>
-    <hyperlink ref="O37" r:id="rId49" xr:uid="{4D795149-9396-0744-A571-7F96F56FAB7C}"/>
-    <hyperlink ref="O45" r:id="rId50" xr:uid="{43D87AF8-3DED-9C49-8AD4-4A2378DAE7CD}"/>
-    <hyperlink ref="N4" r:id="rId51" xr:uid="{7896A6EA-5739-E54A-83E3-17386B7DCCC8}"/>
-    <hyperlink ref="O46" r:id="rId52" xr:uid="{762823A3-02E0-4A4F-B3CC-6F30D298A987}"/>
-    <hyperlink ref="O76" r:id="rId53" xr:uid="{7FB2ED77-A405-CE4B-A585-86FF6AE50D99}"/>
-    <hyperlink ref="O30" r:id="rId54" xr:uid="{B2D0A2CC-672B-864A-A1B5-AFBF790DF6F7}"/>
-    <hyperlink ref="O18" r:id="rId55" xr:uid="{CEF4DD82-F8E0-644B-BA30-5328CBAAD6D7}"/>
-    <hyperlink ref="O26" r:id="rId56" xr:uid="{70B1D8D1-2CCF-E645-A619-CB613E7A0E4B}"/>
-    <hyperlink ref="O49" r:id="rId57" xr:uid="{62E8C11E-4B21-9A41-A51F-420F92CBFAEF}"/>
-    <hyperlink ref="O33" r:id="rId58" xr:uid="{62900264-CBD8-4C4F-A968-5C208FAD4F6E}"/>
-    <hyperlink ref="O38" r:id="rId59" xr:uid="{B3A0D0E5-33C0-DF42-ADAA-76842D460DD2}"/>
-    <hyperlink ref="O47" r:id="rId60" xr:uid="{C922300D-32FA-3B41-AF3C-420E47135D55}"/>
-    <hyperlink ref="O82" r:id="rId61" xr:uid="{D4B318CC-442F-0B48-BF75-66D667ED40B3}"/>
-    <hyperlink ref="O60" r:id="rId62" xr:uid="{46550FCA-A797-4A4F-9446-3E016BCB210C}"/>
-    <hyperlink ref="O66" r:id="rId63" xr:uid="{14210FB2-D115-284E-967E-E0D45A486B1A}"/>
-    <hyperlink ref="O53" r:id="rId64" xr:uid="{E73C370D-B744-0547-95C8-AD942149703A}"/>
-    <hyperlink ref="O35" r:id="rId65" xr:uid="{B26AD6EE-A384-CB40-BB09-9ECE1CAC3C6C}"/>
-    <hyperlink ref="O41" r:id="rId66" xr:uid="{0A33F70B-2C22-CF4E-8A9E-184ED3350F68}"/>
-    <hyperlink ref="O48" r:id="rId67" xr:uid="{226FFAB8-D1AC-EE45-A8EB-AF015A072D7B}"/>
-    <hyperlink ref="O61" r:id="rId68" xr:uid="{3403ED5E-9557-9945-ACE2-794275ABCD30}"/>
-    <hyperlink ref="O14" r:id="rId69" xr:uid="{0B66E410-7037-E34A-A17F-C8CD8C856BC2}"/>
-    <hyperlink ref="N79" r:id="rId70" xr:uid="{D957EF76-E963-B649-B5D5-ECC122F9D220}"/>
-    <hyperlink ref="O13" r:id="rId71" xr:uid="{BD0B2185-2D10-1045-BD27-25CA24C06722}"/>
-    <hyperlink ref="O71" r:id="rId72" xr:uid="{96AB786D-0F4C-AC49-AFFF-6D3D1C0CD871}"/>
-    <hyperlink ref="O69" r:id="rId73" xr:uid="{78BC6DD0-1546-2C4E-8BFC-D4F254A31EE0}"/>
-    <hyperlink ref="O70" r:id="rId74" xr:uid="{59D6C639-372D-1247-9F96-B1AC94E381CC}"/>
-    <hyperlink ref="O80" r:id="rId75" xr:uid="{80F98F9E-3693-6F4C-813A-B0E0AABFC572}"/>
-    <hyperlink ref="O81" r:id="rId76" xr:uid="{9ABED5E4-3657-0144-A537-50F2A9404DA6}"/>
-    <hyperlink ref="O83" r:id="rId77" xr:uid="{6EF9C798-4B55-E347-9B8D-89824CDDFFDC}"/>
-    <hyperlink ref="O84" r:id="rId78" xr:uid="{7141712A-DB16-7641-910F-6F15531A2C68}"/>
-    <hyperlink ref="O87" r:id="rId79" xr:uid="{BDAFCDED-7674-4E44-A7AB-DF73D0F11BA2}"/>
-    <hyperlink ref="O88" r:id="rId80" xr:uid="{7F6135A9-BB6F-444F-BFC8-58EBBDAA145E}"/>
-    <hyperlink ref="O98" r:id="rId81" xr:uid="{31B0D5AB-114F-BB4B-B3D8-DD78ADB59D57}"/>
-    <hyperlink ref="O89" r:id="rId82" xr:uid="{6C7431EC-4DA4-4242-9104-35327E21C287}"/>
-    <hyperlink ref="O85" r:id="rId83" xr:uid="{17DF4DA7-9397-A941-8F25-CE4247E0038B}"/>
-    <hyperlink ref="O65" r:id="rId84" xr:uid="{65347B8F-F92C-714E-A269-AD4EB5AA8D88}"/>
-    <hyperlink ref="O78" r:id="rId85" xr:uid="{BF185D61-88F6-7F44-B298-7E8F25BD759B}"/>
-    <hyperlink ref="O94" r:id="rId86" xr:uid="{5E3F0024-1804-DB47-9EF7-2226F71341B1}"/>
-    <hyperlink ref="O64" r:id="rId87" xr:uid="{2D0A1ECA-F250-C04B-897F-8A289226850A}"/>
-    <hyperlink ref="O67" r:id="rId88" xr:uid="{C3421137-68E8-0147-B280-77724174E6D7}"/>
-    <hyperlink ref="N69" r:id="rId89" xr:uid="{00447881-4E41-EC46-8985-C37E283F6416}"/>
-    <hyperlink ref="N12" r:id="rId90" xr:uid="{E2ABA3D6-3048-0241-AA72-67EB927210C3}"/>
-    <hyperlink ref="O97" r:id="rId91" xr:uid="{250662FE-33C0-914E-AA98-8C36108755B1}"/>
-    <hyperlink ref="N19" r:id="rId92" xr:uid="{8DB28FEB-E18D-7B40-9BC2-58FD596004B1}"/>
-    <hyperlink ref="O91" r:id="rId93" xr:uid="{BCD23027-9180-D24D-BC35-2C3750B0122B}"/>
-    <hyperlink ref="O93" r:id="rId94" xr:uid="{5542FB2A-3DFF-CC40-BC68-75BCE7C725DA}"/>
-    <hyperlink ref="O96" r:id="rId95" xr:uid="{812A0065-40EC-9D4D-8C54-C52073427100}"/>
-    <hyperlink ref="O95" r:id="rId96" xr:uid="{BD8934F8-6677-A144-B23B-F79016AC3E65}"/>
-    <hyperlink ref="O106" r:id="rId97" xr:uid="{1B1EC616-8662-1E4C-850A-3DB62CB42D70}"/>
-    <hyperlink ref="O107" r:id="rId98" xr:uid="{B38FD18E-9439-D34D-9C57-C9B7831F08D5}"/>
-    <hyperlink ref="O108" r:id="rId99" xr:uid="{0E343F60-C1EA-5B48-A47B-33DFBB18F774}"/>
-    <hyperlink ref="O92" r:id="rId100" xr:uid="{06F3B3F1-F274-9947-AF98-B1DB979D285A}"/>
-    <hyperlink ref="O103" r:id="rId101" xr:uid="{800AA112-81CD-0343-8C1D-F181C703654C}"/>
-    <hyperlink ref="O104" r:id="rId102" xr:uid="{ACA74ADD-DCAB-7C44-83A6-D8A6DCD63A0B}"/>
-    <hyperlink ref="O105" r:id="rId103" xr:uid="{9EFB4367-F008-E141-9AF7-CC1AC64DE0F0}"/>
-    <hyperlink ref="O62" r:id="rId104" xr:uid="{8800BE43-3C76-974C-B76E-70086FD68AE3}"/>
-    <hyperlink ref="O29" r:id="rId105" xr:uid="{101DCDD5-D5EB-BD49-9F63-A786FE9F7532}"/>
-    <hyperlink ref="O74" r:id="rId106" xr:uid="{7F5DA2C3-E101-634F-A67A-F5D9A278312E}"/>
-    <hyperlink ref="O73" r:id="rId107" xr:uid="{9DE88079-889C-EA46-B942-A6912347B3D8}"/>
-    <hyperlink ref="O102" r:id="rId108" xr:uid="{70FC581C-402E-7A46-8891-BCC48BA414AE}"/>
-    <hyperlink ref="O99" r:id="rId109" xr:uid="{3809DBD9-36DF-784D-97E8-FEF916BF69D1}"/>
-    <hyperlink ref="O90" r:id="rId110" xr:uid="{3AD8155C-34F1-474D-8231-AF43191C2CDF}"/>
+    <hyperlink ref="O10" r:id="rId1" xr:uid="{EBBF2AB6-87FC-E040-8926-9C2F183AF376}"/>
+    <hyperlink ref="O73" r:id="rId2" xr:uid="{D5F84E9F-EE09-9449-B391-C0700606B07E}"/>
+    <hyperlink ref="N10" r:id="rId3" xr:uid="{2AE0F851-C9A5-3549-9644-34486831A1C1}"/>
+    <hyperlink ref="O8" r:id="rId4" xr:uid="{B804790A-0FF2-AE4D-8EA9-12439AFD55FE}"/>
+    <hyperlink ref="O16" r:id="rId5" xr:uid="{3B88E5F2-A0BF-534D-9FAC-8A826F055F8B}"/>
+    <hyperlink ref="O12" r:id="rId6" xr:uid="{20DC7A21-4189-B24B-A4AA-3707DF6129A9}"/>
+    <hyperlink ref="O18" r:id="rId7" xr:uid="{9BBCD56B-FAA4-0442-9984-3144B90B74E2}"/>
+    <hyperlink ref="O9" r:id="rId8" xr:uid="{04F5EBF0-A4AB-9348-BBE0-9DA876DBBCB9}"/>
+    <hyperlink ref="O20" r:id="rId9" xr:uid="{FD5FD7D2-2217-1C4D-AB0C-0D578AB02313}"/>
+    <hyperlink ref="O22" r:id="rId10" xr:uid="{50DF3771-3014-FF45-B91B-554D92407AF7}"/>
+    <hyperlink ref="O25" r:id="rId11" xr:uid="{EAE7C061-D124-5540-AB54-A115A8971306}"/>
+    <hyperlink ref="O24" r:id="rId12" xr:uid="{7994FC08-B203-8F4D-8B61-DF35892909A1}"/>
+    <hyperlink ref="O7" r:id="rId13" xr:uid="{0B51B5D8-3906-D344-9CB0-AF632E406A90}"/>
+    <hyperlink ref="O21" r:id="rId14" xr:uid="{CB115356-E38B-0A4F-BD2E-E1DD14EB77AB}"/>
+    <hyperlink ref="O28" r:id="rId15" xr:uid="{C42E7FD4-0497-7A45-B619-076E8B885FE9}"/>
+    <hyperlink ref="O33" r:id="rId16" xr:uid="{1FEA88E9-DD5E-864B-9EB7-9B7FADE7288C}"/>
+    <hyperlink ref="O29" r:id="rId17" xr:uid="{434827F6-5116-624C-8FEA-5573D5F3D845}"/>
+    <hyperlink ref="O4" r:id="rId18" xr:uid="{826D62DE-B107-B745-A894-94CBFC44BEB7}"/>
+    <hyperlink ref="O5" r:id="rId19" xr:uid="{673F422A-5B08-C349-B716-023E7432D859}"/>
+    <hyperlink ref="O78" r:id="rId20" xr:uid="{A399BD4B-BF3A-2840-9168-829E19068186}"/>
+    <hyperlink ref="O52" r:id="rId21" xr:uid="{F3A48F46-259E-754E-8909-5CA77E6A4047}"/>
+    <hyperlink ref="O17" r:id="rId22" xr:uid="{EF4151BF-C8EB-2C4E-AA75-DE59846EB7D3}"/>
+    <hyperlink ref="O56" r:id="rId23" xr:uid="{65E83A7C-45FF-7C44-B324-72AB2FCFBF74}"/>
+    <hyperlink ref="O53" r:id="rId24" xr:uid="{D5EF334A-3E47-AE4D-8F9B-E27CAFCF31FA}"/>
+    <hyperlink ref="O51" r:id="rId25" xr:uid="{A9B8A2E3-049C-5140-9019-A85A999D5A0F}"/>
+    <hyperlink ref="O55" r:id="rId26" xr:uid="{B5A7D6AB-B82C-3545-B269-62CA72E6B10A}"/>
+    <hyperlink ref="O6" r:id="rId27" xr:uid="{5D16655E-9918-B246-A1E4-A1C8ACB3439C}"/>
+    <hyperlink ref="O57" r:id="rId28" xr:uid="{409BA013-EDE1-5549-BEFF-62B4701835B8}"/>
+    <hyperlink ref="O69" r:id="rId29" xr:uid="{C881A008-4FA8-6A44-B73D-99B773DB17A2}"/>
+    <hyperlink ref="O59" r:id="rId30" xr:uid="{9BC27B0D-1A62-9C4C-827B-B2C8B2C4B1A8}"/>
+    <hyperlink ref="O60" r:id="rId31" xr:uid="{8ABB7555-E4FD-804A-A9E9-7C173AB084DA}"/>
+    <hyperlink ref="O58" r:id="rId32" xr:uid="{6E1D1288-DC79-7E40-B3AE-E5251EC74370}"/>
+    <hyperlink ref="O26" r:id="rId33" xr:uid="{13DDC6B3-E09C-654D-B25B-76305B5D2EA8}"/>
+    <hyperlink ref="O44" r:id="rId34" xr:uid="{3FEFA9FF-969D-C84C-AB8B-9C831DC6615E}"/>
+    <hyperlink ref="O41" r:id="rId35" xr:uid="{814C4BA2-B230-9A46-8814-3DEE328D2C5C}"/>
+    <hyperlink ref="O101" r:id="rId36" xr:uid="{7E93212B-73FB-3E4D-BCD4-8B777E2DBFF3}"/>
+    <hyperlink ref="O64" r:id="rId37" xr:uid="{5C8DF39F-BDB1-3B4F-BE90-F8FFB71452D9}"/>
+    <hyperlink ref="O37" r:id="rId38" xr:uid="{1F1761E1-0A4E-BC40-9E1B-09CC68BDDD06}"/>
+    <hyperlink ref="O23" r:id="rId39" xr:uid="{356BBF8B-D112-ED40-95DE-6AB3A204F42C}"/>
+    <hyperlink ref="O11" r:id="rId40" xr:uid="{700104D6-90C0-8C42-AE32-0F2D16F3EA44}"/>
+    <hyperlink ref="O32" r:id="rId41" xr:uid="{74087B49-DF75-694D-878E-77E0C79AE2FB}"/>
+    <hyperlink ref="O35" r:id="rId42" xr:uid="{72093307-A3A5-A04A-AA11-98B96FE0F154}"/>
+    <hyperlink ref="O80" r:id="rId43" xr:uid="{6E741000-2EAF-AD42-BC04-E5F07EFB1CF4}"/>
+    <hyperlink ref="O40" r:id="rId44" xr:uid="{0780F015-440A-B241-923F-C77D587B8843}"/>
+    <hyperlink ref="O43" r:id="rId45" xr:uid="{64252ECE-1867-0047-BA98-84C3506775EE}"/>
+    <hyperlink ref="O76" r:id="rId46" xr:uid="{AE32A472-DB69-E04A-9D0A-865CBAECD5CB}"/>
+    <hyperlink ref="O13" r:id="rId47" xr:uid="{75700E12-229E-E64F-92DB-613EB2181AD7}"/>
+    <hyperlink ref="O45" r:id="rId48" xr:uid="{08037EDA-E0E5-1D47-BFE2-238620188875}"/>
+    <hyperlink ref="O38" r:id="rId49" xr:uid="{4D795149-9396-0744-A571-7F96F56FAB7C}"/>
+    <hyperlink ref="O46" r:id="rId50" xr:uid="{43D87AF8-3DED-9C49-8AD4-4A2378DAE7CD}"/>
+    <hyperlink ref="N5" r:id="rId51" xr:uid="{7896A6EA-5739-E54A-83E3-17386B7DCCC8}"/>
+    <hyperlink ref="O47" r:id="rId52" xr:uid="{762823A3-02E0-4A4F-B3CC-6F30D298A987}"/>
+    <hyperlink ref="O77" r:id="rId53" xr:uid="{7FB2ED77-A405-CE4B-A585-86FF6AE50D99}"/>
+    <hyperlink ref="O31" r:id="rId54" xr:uid="{B2D0A2CC-672B-864A-A1B5-AFBF790DF6F7}"/>
+    <hyperlink ref="O19" r:id="rId55" xr:uid="{CEF4DD82-F8E0-644B-BA30-5328CBAAD6D7}"/>
+    <hyperlink ref="O27" r:id="rId56" xr:uid="{70B1D8D1-2CCF-E645-A619-CB613E7A0E4B}"/>
+    <hyperlink ref="O50" r:id="rId57" xr:uid="{62E8C11E-4B21-9A41-A51F-420F92CBFAEF}"/>
+    <hyperlink ref="O34" r:id="rId58" xr:uid="{62900264-CBD8-4C4F-A968-5C208FAD4F6E}"/>
+    <hyperlink ref="O39" r:id="rId59" xr:uid="{B3A0D0E5-33C0-DF42-ADAA-76842D460DD2}"/>
+    <hyperlink ref="O48" r:id="rId60" xr:uid="{C922300D-32FA-3B41-AF3C-420E47135D55}"/>
+    <hyperlink ref="O83" r:id="rId61" xr:uid="{D4B318CC-442F-0B48-BF75-66D667ED40B3}"/>
+    <hyperlink ref="O61" r:id="rId62" xr:uid="{46550FCA-A797-4A4F-9446-3E016BCB210C}"/>
+    <hyperlink ref="O67" r:id="rId63" xr:uid="{14210FB2-D115-284E-967E-E0D45A486B1A}"/>
+    <hyperlink ref="O54" r:id="rId64" xr:uid="{E73C370D-B744-0547-95C8-AD942149703A}"/>
+    <hyperlink ref="O36" r:id="rId65" xr:uid="{B26AD6EE-A384-CB40-BB09-9ECE1CAC3C6C}"/>
+    <hyperlink ref="O42" r:id="rId66" xr:uid="{0A33F70B-2C22-CF4E-8A9E-184ED3350F68}"/>
+    <hyperlink ref="O49" r:id="rId67" xr:uid="{226FFAB8-D1AC-EE45-A8EB-AF015A072D7B}"/>
+    <hyperlink ref="O62" r:id="rId68" xr:uid="{3403ED5E-9557-9945-ACE2-794275ABCD30}"/>
+    <hyperlink ref="O15" r:id="rId69" xr:uid="{0B66E410-7037-E34A-A17F-C8CD8C856BC2}"/>
+    <hyperlink ref="N80" r:id="rId70" xr:uid="{D957EF76-E963-B649-B5D5-ECC122F9D220}"/>
+    <hyperlink ref="O14" r:id="rId71" xr:uid="{BD0B2185-2D10-1045-BD27-25CA24C06722}"/>
+    <hyperlink ref="O72" r:id="rId72" xr:uid="{96AB786D-0F4C-AC49-AFFF-6D3D1C0CD871}"/>
+    <hyperlink ref="O70" r:id="rId73" xr:uid="{78BC6DD0-1546-2C4E-8BFC-D4F254A31EE0}"/>
+    <hyperlink ref="O71" r:id="rId74" xr:uid="{59D6C639-372D-1247-9F96-B1AC94E381CC}"/>
+    <hyperlink ref="O81" r:id="rId75" xr:uid="{80F98F9E-3693-6F4C-813A-B0E0AABFC572}"/>
+    <hyperlink ref="O82" r:id="rId76" xr:uid="{9ABED5E4-3657-0144-A537-50F2A9404DA6}"/>
+    <hyperlink ref="O84" r:id="rId77" xr:uid="{6EF9C798-4B55-E347-9B8D-89824CDDFFDC}"/>
+    <hyperlink ref="O85" r:id="rId78" xr:uid="{7141712A-DB16-7641-910F-6F15531A2C68}"/>
+    <hyperlink ref="O88" r:id="rId79" xr:uid="{BDAFCDED-7674-4E44-A7AB-DF73D0F11BA2}"/>
+    <hyperlink ref="O89" r:id="rId80" xr:uid="{7F6135A9-BB6F-444F-BFC8-58EBBDAA145E}"/>
+    <hyperlink ref="O99" r:id="rId81" xr:uid="{31B0D5AB-114F-BB4B-B3D8-DD78ADB59D57}"/>
+    <hyperlink ref="O90" r:id="rId82" xr:uid="{6C7431EC-4DA4-4242-9104-35327E21C287}"/>
+    <hyperlink ref="O86" r:id="rId83" xr:uid="{17DF4DA7-9397-A941-8F25-CE4247E0038B}"/>
+    <hyperlink ref="O66" r:id="rId84" xr:uid="{65347B8F-F92C-714E-A269-AD4EB5AA8D88}"/>
+    <hyperlink ref="O79" r:id="rId85" xr:uid="{BF185D61-88F6-7F44-B298-7E8F25BD759B}"/>
+    <hyperlink ref="O95" r:id="rId86" xr:uid="{5E3F0024-1804-DB47-9EF7-2226F71341B1}"/>
+    <hyperlink ref="O65" r:id="rId87" xr:uid="{2D0A1ECA-F250-C04B-897F-8A289226850A}"/>
+    <hyperlink ref="O68" r:id="rId88" xr:uid="{C3421137-68E8-0147-B280-77724174E6D7}"/>
+    <hyperlink ref="N70" r:id="rId89" xr:uid="{00447881-4E41-EC46-8985-C37E283F6416}"/>
+    <hyperlink ref="N13" r:id="rId90" xr:uid="{E2ABA3D6-3048-0241-AA72-67EB927210C3}"/>
+    <hyperlink ref="O98" r:id="rId91" xr:uid="{250662FE-33C0-914E-AA98-8C36108755B1}"/>
+    <hyperlink ref="N20" r:id="rId92" xr:uid="{8DB28FEB-E18D-7B40-9BC2-58FD596004B1}"/>
+    <hyperlink ref="O92" r:id="rId93" xr:uid="{BCD23027-9180-D24D-BC35-2C3750B0122B}"/>
+    <hyperlink ref="O94" r:id="rId94" xr:uid="{5542FB2A-3DFF-CC40-BC68-75BCE7C725DA}"/>
+    <hyperlink ref="O97" r:id="rId95" xr:uid="{812A0065-40EC-9D4D-8C54-C52073427100}"/>
+    <hyperlink ref="O96" r:id="rId96" xr:uid="{BD8934F8-6677-A144-B23B-F79016AC3E65}"/>
+    <hyperlink ref="O107" r:id="rId97" xr:uid="{1B1EC616-8662-1E4C-850A-3DB62CB42D70}"/>
+    <hyperlink ref="O108" r:id="rId98" xr:uid="{B38FD18E-9439-D34D-9C57-C9B7831F08D5}"/>
+    <hyperlink ref="O109" r:id="rId99" xr:uid="{0E343F60-C1EA-5B48-A47B-33DFBB18F774}"/>
+    <hyperlink ref="O93" r:id="rId100" xr:uid="{06F3B3F1-F274-9947-AF98-B1DB979D285A}"/>
+    <hyperlink ref="O104" r:id="rId101" xr:uid="{800AA112-81CD-0343-8C1D-F181C703654C}"/>
+    <hyperlink ref="O105" r:id="rId102" xr:uid="{ACA74ADD-DCAB-7C44-83A6-D8A6DCD63A0B}"/>
+    <hyperlink ref="O106" r:id="rId103" xr:uid="{9EFB4367-F008-E141-9AF7-CC1AC64DE0F0}"/>
+    <hyperlink ref="O63" r:id="rId104" xr:uid="{8800BE43-3C76-974C-B76E-70086FD68AE3}"/>
+    <hyperlink ref="O30" r:id="rId105" xr:uid="{101DCDD5-D5EB-BD49-9F63-A786FE9F7532}"/>
+    <hyperlink ref="O75" r:id="rId106" xr:uid="{7F5DA2C3-E101-634F-A67A-F5D9A278312E}"/>
+    <hyperlink ref="O74" r:id="rId107" xr:uid="{9DE88079-889C-EA46-B942-A6912347B3D8}"/>
+    <hyperlink ref="O103" r:id="rId108" xr:uid="{70FC581C-402E-7A46-8891-BCC48BA414AE}"/>
+    <hyperlink ref="O100" r:id="rId109" xr:uid="{3809DBD9-36DF-784D-97E8-FEF916BF69D1}"/>
+    <hyperlink ref="O91" r:id="rId110" xr:uid="{3AD8155C-34F1-474D-8231-AF43191C2CDF}"/>
     <hyperlink ref="O2" r:id="rId111" xr:uid="{3C4AD26F-BD76-6349-8D23-5D8C869C6410}"/>
-    <hyperlink ref="O101" r:id="rId112" xr:uid="{EC308CEC-38F1-C446-820C-84FBC25EF9EB}"/>
-    <hyperlink ref="O86" r:id="rId113" xr:uid="{83A48CE7-7E04-1448-B487-A39462F0626A}"/>
+    <hyperlink ref="O102" r:id="rId112" xr:uid="{EC308CEC-38F1-C446-820C-84FBC25EF9EB}"/>
+    <hyperlink ref="O87" r:id="rId113" xr:uid="{83A48CE7-7E04-1448-B487-A39462F0626A}"/>
+    <hyperlink ref="O3" r:id="rId114" xr:uid="{B15A62E6-7152-5240-B6C4-FC47A1FF150E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/import/input/fosas_guanajuato_final.xlsx
+++ b/import/input/fosas_guanajuato_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgeruizreyes/Desktop/R/situacion-fosas-guanajuato/import/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D821CAE2-805B-9E49-92B5-557B4F436CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6F6DDE-9884-3044-9C0D-8443D4B79816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="25040" windowHeight="14240" xr2:uid="{ABC018F8-10CC-0048-91DA-B9DDF9F7D7C3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$110</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="498">
   <si>
     <t>Año</t>
   </si>
@@ -1588,6 +1588,15 @@
   </si>
   <si>
     <t>https://www.infobae.com/america/mexico/2020/06/20/hallaron-una-fosa-clandestina-con-restos-humanos-y-ropa-femenina-en-silao-guanajuato/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desviación de la comunidad de los Sotos, camino de terracería que va la comunidad de La Capilla</t>
+  </si>
+  <si>
+    <t>Comunidad La Capilla</t>
+  </si>
+  <si>
+    <t>https://www.heraldoleon.mx/encuentran-fosa-clandestina-en-salamanca/</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1879,6 +1888,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2195,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D242533B-FE67-2F45-BCCA-7E6BFE92D7BB}">
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2265,50 +2279,50 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="62">
+      <c r="A2" s="34">
         <v>2020</v>
       </c>
-      <c r="B2" s="51">
-        <v>44033</v>
+      <c r="B2" s="67">
+        <v>44043</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="43">
-        <v>11</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>480</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>481</v>
+      <c r="D2" s="44">
+        <v>11</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>496</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>482</v>
       </c>
-      <c r="J2" s="59" t="s">
-        <v>482</v>
-      </c>
-      <c r="K2" s="59" t="s">
-        <v>482</v>
-      </c>
-      <c r="L2" s="59" t="s">
-        <v>483</v>
-      </c>
-      <c r="M2" s="60" t="s">
-        <v>484</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="53" t="s">
-        <v>485</v>
+      <c r="J2" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2316,91 +2330,93 @@
         <v>2020</v>
       </c>
       <c r="B3" s="51">
-        <v>43999</v>
+        <v>44033</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="43">
-        <v>11</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>489</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>490</v>
+      <c r="D3" s="44">
+        <v>11</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>480</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>481</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>459</v>
+        <v>61</v>
       </c>
       <c r="I3" s="59" t="s">
         <v>482</v>
       </c>
       <c r="J3" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="62">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="51">
+        <v>43999</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="44">
+        <v>11</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>459</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K4" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L4" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M4" s="64" t="s">
         <v>493</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="66" t="s">
+      <c r="N4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="66" t="s">
         <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="19">
-        <v>2020</v>
-      </c>
-      <c r="B4" s="35">
-        <v>43966</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="44">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>4</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2408,7 +2424,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="35">
-        <v>43956</v>
+        <v>43966</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>164</v>
@@ -2417,37 +2433,35 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2455,7 +2469,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="35">
-        <v>43947</v>
+        <v>43956</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>164</v>
@@ -2463,36 +2477,38 @@
       <c r="D6" s="44">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>23</v>
+        <v>463</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="1"/>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O6" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2500,7 +2516,7 @@
         <v>2020</v>
       </c>
       <c r="B7" s="35">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>164</v>
@@ -2508,36 +2524,36 @@
       <c r="D7" s="44">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="9">
-        <v>3</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>28</v>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2545,7 +2561,7 @@
         <v>2020</v>
       </c>
       <c r="B8" s="35">
-        <v>43895</v>
+        <v>43946</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>164</v>
@@ -2554,35 +2570,35 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>459</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="3">
-        <v>7</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="J8" s="9">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="1"/>
       <c r="O8" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2590,7 +2606,7 @@
         <v>2020</v>
       </c>
       <c r="B9" s="35">
-        <v>43884</v>
+        <v>43895</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>164</v>
@@ -2599,35 +2615,35 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
       </c>
       <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="O9" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2635,7 +2651,7 @@
         <v>2020</v>
       </c>
       <c r="B10" s="35">
-        <v>43880</v>
+        <v>43884</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>164</v>
@@ -2644,22 +2660,22 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>12</v>
@@ -2668,13 +2684,11 @@
         <v>12</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2682,7 +2696,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="35">
-        <v>43870</v>
+        <v>43880</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>164</v>
@@ -2693,35 +2707,35 @@
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>44</v>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>45</v>
+        <v>449</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>47</v>
+      <c r="M11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2729,7 +2743,7 @@
         <v>2020</v>
       </c>
       <c r="B12" s="35">
-        <v>43868</v>
+        <v>43870</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>164</v>
@@ -2737,38 +2751,38 @@
       <c r="D12" s="44">
         <v>11</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>49</v>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>459</v>
+        <v>435</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2776,7 +2790,7 @@
         <v>2020</v>
       </c>
       <c r="B13" s="35">
-        <v>43866</v>
+        <v>43868</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>164</v>
@@ -2785,37 +2799,37 @@
         <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>56</v>
+        <v>460</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="11">
-        <v>1</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>59</v>
+      <c r="J13" s="3">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2823,7 +2837,7 @@
         <v>2020</v>
       </c>
       <c r="B14" s="35">
-        <v>43857</v>
+        <v>43866</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>164</v>
@@ -2831,38 +2845,38 @@
       <c r="D14" s="44">
         <v>11</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
+      <c r="E14" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1</v>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2870,7 +2884,7 @@
         <v>2020</v>
       </c>
       <c r="B15" s="35">
-        <v>43854</v>
+        <v>43857</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>164</v>
@@ -2878,11 +2892,11 @@
       <c r="D15" s="44">
         <v>11</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>65</v>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>439</v>
@@ -2899,17 +2913,17 @@
       <c r="K15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>67</v>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2917,7 +2931,7 @@
         <v>2020</v>
       </c>
       <c r="B16" s="35">
-        <v>43849</v>
+        <v>43854</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>164</v>
@@ -2926,16 +2940,16 @@
         <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2949,12 +2963,14 @@
       <c r="L16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="1"/>
+      <c r="M16" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="N16" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2962,7 +2978,7 @@
         <v>2020</v>
       </c>
       <c r="B17" s="35">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>164</v>
@@ -2971,16 +2987,16 @@
         <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>76</v>
+        <v>460</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -2994,12 +3010,12 @@
       <c r="L17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="4" t="s">
-        <v>78</v>
+      <c r="M17" s="1"/>
+      <c r="N17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -3007,7 +3023,7 @@
         <v>2020</v>
       </c>
       <c r="B18" s="35">
-        <v>43846</v>
+        <v>43848</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>164</v>
@@ -3015,38 +3031,36 @@
       <c r="D18" s="44">
         <v>11</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>71</v>
+      <c r="E18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>459</v>
+        <v>440</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -3054,7 +3068,7 @@
         <v>2020</v>
       </c>
       <c r="B19" s="35">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>164</v>
@@ -3063,35 +3077,37 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>23</v>
+        <v>460</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="4" t="s">
-        <v>86</v>
+        <v>3</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -3099,7 +3115,7 @@
         <v>2020</v>
       </c>
       <c r="B20" s="35">
-        <v>43836</v>
+        <v>43845</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>164</v>
@@ -3107,38 +3123,36 @@
       <c r="D20" s="44">
         <v>11</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>87</v>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
       </c>
       <c r="J20" s="3">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>91</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N20" s="1"/>
       <c r="O20" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -3146,7 +3160,7 @@
         <v>2020</v>
       </c>
       <c r="B21" s="35">
-        <v>43835</v>
+        <v>43836</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>164</v>
@@ -3155,43 +3169,45 @@
         <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
       </c>
       <c r="J21" s="3">
-        <v>2</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="7" t="s">
-        <v>95</v>
+        <v>5</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="19">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B22" s="35">
-        <v>43825</v>
+        <v>43835</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>164</v>
@@ -3200,37 +3216,35 @@
         <v>11</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
       </c>
       <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1"/>
       <c r="N22" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -3238,7 +3252,7 @@
         <v>2019</v>
       </c>
       <c r="B23" s="35">
-        <v>43822</v>
+        <v>43825</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>164</v>
@@ -3246,17 +3260,17 @@
       <c r="D23" s="44">
         <v>11</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>103</v>
+      <c r="E23" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
@@ -3271,11 +3285,13 @@
         <v>12</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N23" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="O23" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -3283,7 +3299,7 @@
         <v>2019</v>
       </c>
       <c r="B24" s="35">
-        <v>43809</v>
+        <v>43822</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>164</v>
@@ -3291,11 +3307,11 @@
       <c r="D24" s="44">
         <v>11</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
+      <c r="E24" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>444</v>
@@ -3307,22 +3323,20 @@
         <v>1</v>
       </c>
       <c r="J24" s="3">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N24" s="1"/>
       <c r="O24" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -3330,7 +3344,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="35">
-        <v>43805</v>
+        <v>43809</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>164</v>
@@ -3338,11 +3352,11 @@
       <c r="D25" s="44">
         <v>11</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>111</v>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>444</v>
@@ -3354,22 +3368,22 @@
         <v>1</v>
       </c>
       <c r="J25" s="3">
-        <v>16</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -3385,23 +3399,23 @@
       <c r="D26" s="44">
         <v>11</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>117</v>
+      <c r="E26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>23</v>
+        <v>444</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
       <c r="J26" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>12</v>
@@ -3409,12 +3423,14 @@
       <c r="L26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N26" s="1"/>
+      <c r="M26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="O26" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -3422,7 +3438,7 @@
         <v>2019</v>
       </c>
       <c r="B27" s="35">
-        <v>43803</v>
+        <v>43805</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>164</v>
@@ -3431,22 +3447,22 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>76</v>
+        <v>453</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
       </c>
       <c r="J27" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>12</v>
@@ -3454,12 +3470,12 @@
       <c r="L27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="7" t="s">
-        <v>121</v>
+      <c r="M27" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -3467,7 +3483,7 @@
         <v>2019</v>
       </c>
       <c r="B28" s="35">
-        <v>43798</v>
+        <v>43803</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>164</v>
@@ -3475,17 +3491,17 @@
       <c r="D28" s="44">
         <v>11</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>123</v>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
@@ -3500,13 +3516,11 @@
         <v>12</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -3514,7 +3528,7 @@
         <v>2019</v>
       </c>
       <c r="B29" s="35">
-        <v>43775</v>
+        <v>43798</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>164</v>
@@ -3523,16 +3537,16 @@
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="I29" s="3">
         <v>1</v>
@@ -3547,11 +3561,13 @@
         <v>12</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="N29" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="O29" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -3568,22 +3584,22 @@
         <v>11</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
       </c>
       <c r="J30" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>12</v>
@@ -3591,14 +3607,12 @@
       <c r="L30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>137</v>
+      <c r="M30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3606,7 +3620,7 @@
         <v>2019</v>
       </c>
       <c r="B31" s="35">
-        <v>43755</v>
+        <v>43775</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>164</v>
@@ -3615,35 +3629,37 @@
         <v>11</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="4" t="s">
-        <v>141</v>
+      <c r="M31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -3651,7 +3667,7 @@
         <v>2019</v>
       </c>
       <c r="B32" s="35">
-        <v>43699</v>
+        <v>43755</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>164</v>
@@ -3660,10 +3676,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>435</v>
@@ -3684,13 +3700,11 @@
         <v>12</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>145</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N32" s="1"/>
       <c r="O32" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -3698,7 +3712,7 @@
         <v>2019</v>
       </c>
       <c r="B33" s="35">
-        <v>43691</v>
+        <v>43699</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>164</v>
@@ -3707,35 +3721,37 @@
         <v>11</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
       </c>
       <c r="J33" s="3">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N33" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="O33" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3743,7 +3759,7 @@
         <v>2019</v>
       </c>
       <c r="B34" s="35">
-        <v>43689</v>
+        <v>43691</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>164</v>
@@ -3752,35 +3768,35 @@
         <v>11</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>12</v>
+        <v>147</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="I34" s="3">
         <v>1</v>
       </c>
       <c r="J34" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="3">
-        <v>1</v>
+      <c r="L34" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3788,7 +3804,7 @@
         <v>2019</v>
       </c>
       <c r="B35" s="35">
-        <v>43675</v>
+        <v>43689</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>164</v>
@@ -3797,16 +3813,16 @@
         <v>11</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="I35" s="3">
         <v>1</v>
@@ -3814,20 +3830,18 @@
       <c r="J35" s="3">
         <v>1</v>
       </c>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="K35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N35" s="1"/>
       <c r="O35" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3835,7 +3849,7 @@
         <v>2019</v>
       </c>
       <c r="B36" s="35">
-        <v>43669</v>
+        <v>43675</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>164</v>
@@ -3844,16 +3858,16 @@
         <v>11</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="I36" s="3">
         <v>1</v>
@@ -3861,18 +3875,20 @@
       <c r="J36" s="3">
         <v>1</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N36" s="7"/>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="O36" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3880,7 +3896,7 @@
         <v>2019</v>
       </c>
       <c r="B37" s="35">
-        <v>43651</v>
+        <v>43669</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>164</v>
@@ -3888,36 +3904,36 @@
       <c r="D37" s="44">
         <v>11</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>163</v>
+      <c r="E37" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>164</v>
+        <v>439</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
       </c>
       <c r="J37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N37" s="1"/>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N37" s="7"/>
       <c r="O37" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3925,7 +3941,7 @@
         <v>2019</v>
       </c>
       <c r="B38" s="35">
-        <v>43640</v>
+        <v>43651</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>164</v>
@@ -3934,16 +3950,16 @@
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>168</v>
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>169</v>
+        <v>442</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="I38" s="3">
         <v>1</v>
@@ -3957,14 +3973,12 @@
       <c r="L38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="M38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N38" s="1"/>
       <c r="O38" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3972,7 +3986,7 @@
         <v>2019</v>
       </c>
       <c r="B39" s="35">
-        <v>43634</v>
+        <v>43640</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>164</v>
@@ -3980,36 +3994,38 @@
       <c r="D39" s="44">
         <v>11</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>173</v>
+      <c r="E39" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
       </c>
       <c r="J39" s="3">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N39" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="O39" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -4017,7 +4033,7 @@
         <v>2019</v>
       </c>
       <c r="B40" s="35">
-        <v>43628</v>
+        <v>43634</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>164</v>
@@ -4025,17 +4041,17 @@
       <c r="D40" s="44">
         <v>11</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
+      <c r="E40" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="I40" s="3">
         <v>1</v>
@@ -4043,18 +4059,18 @@
       <c r="J40" s="3">
         <v>1</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>12</v>
+      <c r="K40" s="3">
+        <v>1</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -4062,7 +4078,7 @@
         <v>2019</v>
       </c>
       <c r="B41" s="35">
-        <v>43618</v>
+        <v>43628</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>164</v>
@@ -4073,33 +4089,33 @@
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>181</v>
+      <c r="F41" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="I41" s="3">
         <v>1</v>
       </c>
       <c r="J41" s="3">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>182</v>
+      <c r="M41" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="N41" s="1"/>
-      <c r="O41" s="15" t="s">
-        <v>183</v>
+      <c r="O41" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -4107,7 +4123,7 @@
         <v>2019</v>
       </c>
       <c r="B42" s="35">
-        <v>43613</v>
+        <v>43618</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>164</v>
@@ -4115,38 +4131,36 @@
       <c r="D42" s="44">
         <v>11</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>185</v>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="I42" s="3">
         <v>1</v>
       </c>
       <c r="J42" s="3">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="N42" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>188</v>
+        <v>4</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -4154,7 +4168,7 @@
         <v>2019</v>
       </c>
       <c r="B43" s="35">
-        <v>43603</v>
+        <v>43613</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>164</v>
@@ -4162,17 +4176,17 @@
       <c r="D43" s="44">
         <v>11</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>189</v>
+      <c r="E43" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>36</v>
+        <v>465</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="I43" s="3">
         <v>1</v>
@@ -4186,14 +4200,14 @@
       <c r="L43" s="3">
         <v>1</v>
       </c>
-      <c r="M43" s="13" t="s">
-        <v>191</v>
+      <c r="M43" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -4201,7 +4215,7 @@
         <v>2019</v>
       </c>
       <c r="B44" s="35">
-        <v>43589</v>
+        <v>43603</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>164</v>
@@ -4209,17 +4223,17 @@
       <c r="D44" s="44">
         <v>11</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>194</v>
+      <c r="E44" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="I44" s="3">
         <v>1</v>
@@ -4230,15 +4244,17 @@
       <c r="K44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="N44" s="1"/>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="O44" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -4246,7 +4262,7 @@
         <v>2019</v>
       </c>
       <c r="B45" s="35">
-        <v>43583</v>
+        <v>43589</v>
       </c>
       <c r="C45" s="41" t="s">
         <v>164</v>
@@ -4255,16 +4271,16 @@
         <v>11</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>56</v>
+        <v>447</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="I45" s="3">
         <v>1</v>
@@ -4272,18 +4288,18 @@
       <c r="J45" s="3">
         <v>1</v>
       </c>
-      <c r="K45" s="3">
-        <v>1</v>
+      <c r="K45" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4291,7 +4307,7 @@
         <v>2019</v>
       </c>
       <c r="B46" s="35">
-        <v>43581</v>
+        <v>43583</v>
       </c>
       <c r="C46" s="41" t="s">
         <v>164</v>
@@ -4300,10 +4316,10 @@
         <v>11</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>436</v>
@@ -4317,20 +4333,18 @@
       <c r="J46" s="3">
         <v>1</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="N46" s="1"/>
       <c r="O46" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -4338,7 +4352,7 @@
         <v>2019</v>
       </c>
       <c r="B47" s="35">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>164</v>
@@ -4346,17 +4360,17 @@
       <c r="D47" s="44">
         <v>11</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>12</v>
+      <c r="E47" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>241</v>
+        <v>56</v>
       </c>
       <c r="I47" s="3">
         <v>1</v>
@@ -4364,20 +4378,20 @@
       <c r="J47" s="3">
         <v>1</v>
       </c>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>208</v>
+      <c r="K47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -4385,7 +4399,7 @@
         <v>2019</v>
       </c>
       <c r="B48" s="35">
-        <v>43572</v>
+        <v>43580</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>164</v>
@@ -4393,36 +4407,38 @@
       <c r="D48" s="44">
         <v>11</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>211</v>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="I48" s="3">
         <v>1</v>
       </c>
       <c r="J48" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K48" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M48" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="N48" s="7"/>
+      <c r="M48" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="O48" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -4430,7 +4446,7 @@
         <v>2019</v>
       </c>
       <c r="B49" s="35">
-        <v>43553</v>
+        <v>43572</v>
       </c>
       <c r="C49" s="41" t="s">
         <v>164</v>
@@ -4438,38 +4454,36 @@
       <c r="D49" s="44">
         <v>11</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>216</v>
+      <c r="E49" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I49" s="3">
         <v>1</v>
       </c>
       <c r="J49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="M49" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="N49" s="7"/>
       <c r="O49" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -4477,7 +4491,7 @@
         <v>2019</v>
       </c>
       <c r="B50" s="35">
-        <v>43541</v>
+        <v>43553</v>
       </c>
       <c r="C50" s="41" t="s">
         <v>164</v>
@@ -4486,16 +4500,16 @@
         <v>11</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="I50" s="3">
         <v>1</v>
@@ -4503,20 +4517,20 @@
       <c r="J50" s="3">
         <v>1</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>223</v>
+      <c r="K50" s="3">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -4524,7 +4538,7 @@
         <v>2019</v>
       </c>
       <c r="B51" s="35">
-        <v>43540</v>
+        <v>43541</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>164</v>
@@ -4533,35 +4547,37 @@
         <v>11</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="I51" s="3">
         <v>1</v>
       </c>
       <c r="J51" s="3">
-        <v>3</v>
-      </c>
-      <c r="K51" s="3">
-        <v>3</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="N51" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="O51" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -4577,36 +4593,36 @@
       <c r="D52" s="44">
         <v>11</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>231</v>
+      <c r="E52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>76</v>
+        <v>464</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="I52" s="3">
         <v>1</v>
       </c>
       <c r="J52" s="3">
-        <v>1</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>232</v>
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -4614,7 +4630,7 @@
         <v>2019</v>
       </c>
       <c r="B53" s="35">
-        <v>43536</v>
+        <v>43540</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>164</v>
@@ -4622,17 +4638,17 @@
       <c r="D53" s="44">
         <v>11</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>235</v>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>99</v>
+        <v>440</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="I53" s="3">
         <v>1</v>
@@ -4640,20 +4656,18 @@
       <c r="J53" s="3">
         <v>1</v>
       </c>
-      <c r="K53" s="3">
-        <v>1</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="K53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="3">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N53" s="1"/>
       <c r="O53" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -4661,7 +4675,7 @@
         <v>2019</v>
       </c>
       <c r="B54" s="35">
-        <v>43528</v>
+        <v>43536</v>
       </c>
       <c r="C54" s="41" t="s">
         <v>164</v>
@@ -4670,16 +4684,16 @@
         <v>11</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>241</v>
+        <v>99</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -4693,14 +4707,14 @@
       <c r="L54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>243</v>
+      <c r="M54" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -4708,7 +4722,7 @@
         <v>2019</v>
       </c>
       <c r="B55" s="35">
-        <v>43525</v>
+        <v>43528</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>164</v>
@@ -4717,16 +4731,16 @@
         <v>11</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="I55" s="3">
         <v>1</v>
@@ -4734,18 +4748,20 @@
       <c r="J55" s="3">
         <v>1</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="3">
-        <v>1</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="N55" s="1"/>
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="O55" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -4753,7 +4769,7 @@
         <v>2019</v>
       </c>
       <c r="B56" s="35">
-        <v>43511</v>
+        <v>43525</v>
       </c>
       <c r="C56" s="41" t="s">
         <v>164</v>
@@ -4762,16 +4778,16 @@
         <v>11</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="I56" s="3">
         <v>1</v>
@@ -4782,15 +4798,15 @@
       <c r="K56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>12</v>
+      <c r="L56" s="3">
+        <v>1</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N56" s="1"/>
-      <c r="O56" s="17" t="s">
-        <v>251</v>
+      <c r="O56" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -4798,7 +4814,7 @@
         <v>2019</v>
       </c>
       <c r="B57" s="35">
-        <v>43507</v>
+        <v>43511</v>
       </c>
       <c r="C57" s="41" t="s">
         <v>164</v>
@@ -4807,16 +4823,16 @@
         <v>11</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>12</v>
+        <v>248</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="I57" s="3">
         <v>1</v>
@@ -4824,20 +4840,18 @@
       <c r="J57" s="3">
         <v>1</v>
       </c>
-      <c r="K57" s="3">
-        <v>1</v>
+      <c r="K57" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="17" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -4845,7 +4859,7 @@
         <v>2019</v>
       </c>
       <c r="B58" s="35">
-        <v>43505</v>
+        <v>43507</v>
       </c>
       <c r="C58" s="41" t="s">
         <v>164</v>
@@ -4853,11 +4867,11 @@
       <c r="D58" s="44">
         <v>11</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>257</v>
+      <c r="F58" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>445</v>
@@ -4871,17 +4885,17 @@
       <c r="J58" s="3">
         <v>1</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>12</v>
+      <c r="K58" s="3">
+        <v>1</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O58" s="4" t="s">
         <v>256</v>
@@ -4892,7 +4906,7 @@
         <v>2019</v>
       </c>
       <c r="B59" s="35">
-        <v>43502</v>
+        <v>43505</v>
       </c>
       <c r="C59" s="41" t="s">
         <v>164</v>
@@ -4900,7 +4914,7 @@
       <c r="D59" s="44">
         <v>11</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F59" s="7" t="s">
@@ -4925,13 +4939,13 @@
         <v>12</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="O59" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4939,7 +4953,7 @@
         <v>2019</v>
       </c>
       <c r="B60" s="35">
-        <v>43500</v>
+        <v>43502</v>
       </c>
       <c r="C60" s="41" t="s">
         <v>164</v>
@@ -4963,20 +4977,22 @@
         <v>1</v>
       </c>
       <c r="J60" s="3">
-        <v>2</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="N60" s="7"/>
-      <c r="O60" s="4" t="s">
-        <v>264</v>
+        <v>1</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="O60" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -4984,7 +5000,7 @@
         <v>2019</v>
       </c>
       <c r="B61" s="35">
-        <v>43485</v>
+        <v>43500</v>
       </c>
       <c r="C61" s="41" t="s">
         <v>164</v>
@@ -4992,17 +5008,17 @@
       <c r="D61" s="44">
         <v>11</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
+      <c r="E61" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="I61" s="3">
         <v>1</v>
@@ -5011,25 +5027,25 @@
         <v>2</v>
       </c>
       <c r="K61" s="3">
-        <v>2</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>267</v>
+        <v>1</v>
+      </c>
+      <c r="L61" s="3">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="N61" s="7"/>
       <c r="O61" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="19">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B62" s="35">
-        <v>43453</v>
+        <v>43485</v>
       </c>
       <c r="C62" s="41" t="s">
         <v>164</v>
@@ -5038,35 +5054,35 @@
         <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>270</v>
+        <v>12</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>89</v>
+        <v>452</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="I62" s="3">
         <v>1</v>
       </c>
       <c r="J62" s="3">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="K62" s="3">
+        <v>2</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N62" s="1"/>
+      <c r="M62" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="N62" s="7"/>
       <c r="O62" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -5074,7 +5090,7 @@
         <v>2018</v>
       </c>
       <c r="B63" s="35">
-        <v>43408</v>
+        <v>43453</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>164</v>
@@ -5083,10 +5099,10 @@
         <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>444</v>
@@ -5098,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>12</v>
@@ -5107,11 +5123,11 @@
         <v>12</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N63" s="1"/>
-      <c r="O63" s="14" t="s">
-        <v>276</v>
+      <c r="O63" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -5119,7 +5135,7 @@
         <v>2018</v>
       </c>
       <c r="B64" s="35">
-        <v>43396</v>
+        <v>43408</v>
       </c>
       <c r="C64" s="41" t="s">
         <v>164</v>
@@ -5128,10 +5144,10 @@
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>444</v>
@@ -5143,20 +5159,20 @@
         <v>1</v>
       </c>
       <c r="J64" s="3">
-        <v>6</v>
-      </c>
-      <c r="K64" s="3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N64" s="1"/>
-      <c r="O64" s="4" t="s">
-        <v>280</v>
+      <c r="O64" s="14" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -5164,7 +5180,7 @@
         <v>2018</v>
       </c>
       <c r="B65" s="35">
-        <v>43393</v>
+        <v>43396</v>
       </c>
       <c r="C65" s="41" t="s">
         <v>164</v>
@@ -5173,35 +5189,35 @@
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I65" s="3">
         <v>1</v>
       </c>
       <c r="J65" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K65" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M65" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="N65" s="7"/>
+      <c r="M65" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N65" s="1"/>
       <c r="O65" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -5209,7 +5225,7 @@
         <v>2018</v>
       </c>
       <c r="B66" s="35">
-        <v>43390</v>
+        <v>43393</v>
       </c>
       <c r="C66" s="41" t="s">
         <v>164</v>
@@ -5217,17 +5233,17 @@
       <c r="D66" s="44">
         <v>11</v>
       </c>
-      <c r="E66" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>12</v>
+      <c r="E66" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>286</v>
+        <v>89</v>
       </c>
       <c r="I66" s="3">
         <v>1</v>
@@ -5242,11 +5258,11 @@
         <v>12</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N66" s="7"/>
-      <c r="O66" s="20" t="s">
-        <v>288</v>
+      <c r="O66" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -5254,7 +5270,7 @@
         <v>2018</v>
       </c>
       <c r="B67" s="35">
-        <v>43335</v>
+        <v>43390</v>
       </c>
       <c r="C67" s="41" t="s">
         <v>164</v>
@@ -5263,16 +5279,16 @@
         <v>11</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="I67" s="3">
         <v>1</v>
@@ -5287,13 +5303,11 @@
         <v>12</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
+      </c>
+      <c r="N67" s="7"/>
+      <c r="O67" s="20" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -5301,7 +5315,7 @@
         <v>2018</v>
       </c>
       <c r="B68" s="35">
-        <v>43312</v>
+        <v>43335</v>
       </c>
       <c r="C68" s="41" t="s">
         <v>164</v>
@@ -5309,17 +5323,17 @@
       <c r="D68" s="44">
         <v>11</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>12</v>
+      <c r="E68" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="I68" s="3">
         <v>1</v>
@@ -5334,11 +5348,13 @@
         <v>12</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="N68" s="7"/>
-      <c r="O68" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -5346,7 +5362,7 @@
         <v>2018</v>
       </c>
       <c r="B69" s="35">
-        <v>43245</v>
+        <v>43312</v>
       </c>
       <c r="C69" s="41" t="s">
         <v>164</v>
@@ -5355,16 +5371,16 @@
         <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>298</v>
+        <v>12</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>253</v>
+        <v>448</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="I69" s="3">
         <v>1</v>
@@ -5378,12 +5394,12 @@
       <c r="L69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="N69" s="1"/>
-      <c r="O69" s="4" t="s">
-        <v>300</v>
+      <c r="M69" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="N69" s="7"/>
+      <c r="O69" s="12" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -5391,7 +5407,7 @@
         <v>2018</v>
       </c>
       <c r="B70" s="35">
-        <v>43229</v>
+        <v>43245</v>
       </c>
       <c r="C70" s="41" t="s">
         <v>164</v>
@@ -5400,35 +5416,35 @@
         <v>11</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="I70" s="3">
         <v>1</v>
       </c>
-      <c r="J70" s="2">
-        <v>1</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>12</v>
+      <c r="J70" s="3">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3">
+        <v>1</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M70" s="1"/>
-      <c r="N70" s="17" t="s">
-        <v>303</v>
-      </c>
+      <c r="M70" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N70" s="1"/>
       <c r="O70" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -5436,7 +5452,7 @@
         <v>2018</v>
       </c>
       <c r="B71" s="35">
-        <v>43225</v>
+        <v>43229</v>
       </c>
       <c r="C71" s="41" t="s">
         <v>164</v>
@@ -5445,7 +5461,7 @@
         <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>302</v>
@@ -5460,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>12</v>
@@ -5468,12 +5484,12 @@
       <c r="L71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M71" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="N71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="O71" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -5481,7 +5497,7 @@
         <v>2018</v>
       </c>
       <c r="B72" s="35">
-        <v>43224</v>
+        <v>43225</v>
       </c>
       <c r="C72" s="41" t="s">
         <v>164</v>
@@ -5505,16 +5521,16 @@
         <v>1</v>
       </c>
       <c r="J72" s="2">
-        <v>27</v>
-      </c>
-      <c r="K72" s="2">
-        <v>5</v>
-      </c>
-      <c r="L72" s="2">
-        <v>1</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>307</v>
+        <v>9</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="4" t="s">
@@ -5526,7 +5542,7 @@
         <v>2018</v>
       </c>
       <c r="B73" s="35">
-        <v>43215</v>
+        <v>43224</v>
       </c>
       <c r="C73" s="41" t="s">
         <v>164</v>
@@ -5535,35 +5551,35 @@
         <v>11</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="I73" s="3">
         <v>1</v>
       </c>
-      <c r="J73" s="3">
-        <v>3</v>
-      </c>
-      <c r="K73" s="3">
-        <v>3</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>12</v>
+      <c r="J73" s="2">
+        <v>27</v>
+      </c>
+      <c r="K73" s="2">
+        <v>5</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N73" s="1"/>
-      <c r="O73" s="17" t="s">
-        <v>311</v>
+      <c r="O73" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -5571,7 +5587,7 @@
         <v>2018</v>
       </c>
       <c r="B74" s="35">
-        <v>43193</v>
+        <v>43215</v>
       </c>
       <c r="C74" s="41" t="s">
         <v>164</v>
@@ -5580,34 +5596,35 @@
         <v>11</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I74" s="3">
         <v>1</v>
       </c>
       <c r="J74" s="3">
-        <v>1</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="K74" s="3">
+        <v>3</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="O74" s="14" t="s">
-        <v>315</v>
+        <v>310</v>
+      </c>
+      <c r="N74" s="1"/>
+      <c r="O74" s="17" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -5624,7 +5641,7 @@
         <v>11</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>313</v>
@@ -5648,9 +5665,8 @@
         <v>12</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="N75" s="1"/>
+        <v>314</v>
+      </c>
       <c r="O75" s="14" t="s">
         <v>315</v>
       </c>
@@ -5660,7 +5676,7 @@
         <v>2018</v>
       </c>
       <c r="B76" s="35">
-        <v>43192</v>
+        <v>43193</v>
       </c>
       <c r="C76" s="41" t="s">
         <v>164</v>
@@ -5668,38 +5684,36 @@
       <c r="D76" s="44">
         <v>11</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>318</v>
+      <c r="E76" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I76" s="3">
         <v>1</v>
       </c>
       <c r="J76" s="3">
-        <v>2</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
+      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="14" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -5707,7 +5721,7 @@
         <v>2018</v>
       </c>
       <c r="B77" s="35">
-        <v>43132</v>
+        <v>43192</v>
       </c>
       <c r="C77" s="41" t="s">
         <v>164</v>
@@ -5716,35 +5730,37 @@
         <v>11</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I77" s="3">
         <v>1</v>
       </c>
-      <c r="J77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M77" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N77" s="7"/>
+      <c r="J77" s="3">
+        <v>2</v>
+      </c>
+      <c r="K77" s="3">
+        <v>1</v>
+      </c>
+      <c r="L77" s="3">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="O77" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -5752,7 +5768,7 @@
         <v>2018</v>
       </c>
       <c r="B78" s="35">
-        <v>43129</v>
+        <v>43132</v>
       </c>
       <c r="C78" s="41" t="s">
         <v>164</v>
@@ -5760,36 +5776,36 @@
       <c r="D78" s="44">
         <v>11</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>309</v>
+      <c r="E78" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>17</v>
+        <v>435</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I78" s="3">
         <v>1</v>
       </c>
-      <c r="J78" s="3">
-        <v>2</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N78" s="1"/>
+      <c r="J78" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="N78" s="7"/>
       <c r="O78" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -5797,7 +5813,7 @@
         <v>2018</v>
       </c>
       <c r="B79" s="35">
-        <v>43126</v>
+        <v>43129</v>
       </c>
       <c r="C79" s="41" t="s">
         <v>164</v>
@@ -5805,17 +5821,17 @@
       <c r="D79" s="44">
         <v>11</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>329</v>
+      <c r="E79" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>330</v>
+        <v>463</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I79" s="3">
         <v>1</v>
@@ -5830,19 +5846,19 @@
         <v>12</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="N79" s="4"/>
+        <v>327</v>
+      </c>
+      <c r="N79" s="1"/>
       <c r="O79" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="19">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B80" s="35">
-        <v>43090</v>
+        <v>43126</v>
       </c>
       <c r="C80" s="41" t="s">
         <v>164</v>
@@ -5851,22 +5867,22 @@
         <v>11</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I80" s="3">
         <v>1</v>
       </c>
       <c r="J80" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>12</v>
@@ -5875,13 +5891,11 @@
         <v>12</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>337</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N80" s="4"/>
       <c r="O80" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -5889,7 +5903,7 @@
         <v>2017</v>
       </c>
       <c r="B81" s="35">
-        <v>43069</v>
+        <v>43090</v>
       </c>
       <c r="C81" s="41" t="s">
         <v>164</v>
@@ -5898,35 +5912,37 @@
         <v>11</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>218</v>
+        <v>335</v>
       </c>
       <c r="I81" s="3">
         <v>1</v>
       </c>
       <c r="J81" s="3">
-        <v>1</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M81" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="N81" s="7"/>
+      <c r="M81" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="O81" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5934,7 +5950,7 @@
         <v>2017</v>
       </c>
       <c r="B82" s="35">
-        <v>42982</v>
+        <v>43069</v>
       </c>
       <c r="C82" s="41" t="s">
         <v>164</v>
@@ -5942,17 +5958,17 @@
       <c r="D82" s="44">
         <v>11</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>344</v>
+      <c r="E82" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>164</v>
+        <v>465</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="I82" s="3">
         <v>1</v>
@@ -5960,18 +5976,18 @@
       <c r="J82" s="3">
         <v>1</v>
       </c>
-      <c r="K82" s="3" t="s">
-        <v>12</v>
+      <c r="K82" s="3">
+        <v>1</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M82" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="N82" s="1"/>
+      <c r="M82" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="N82" s="7"/>
       <c r="O82" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -5979,7 +5995,7 @@
         <v>2017</v>
       </c>
       <c r="B83" s="35">
-        <v>42980</v>
+        <v>42982</v>
       </c>
       <c r="C83" s="41" t="s">
         <v>164</v>
@@ -5987,17 +6003,17 @@
       <c r="D83" s="44">
         <v>11</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>348</v>
+      <c r="E83" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>213</v>
+        <v>442</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="I83" s="3">
         <v>1</v>
@@ -6011,14 +6027,12 @@
       <c r="L83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M83" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="N83" s="7" t="s">
-        <v>350</v>
-      </c>
+      <c r="M83" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N83" s="1"/>
       <c r="O83" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -6026,7 +6040,7 @@
         <v>2017</v>
       </c>
       <c r="B84" s="35">
-        <v>42957</v>
+        <v>42980</v>
       </c>
       <c r="C84" s="41" t="s">
         <v>164</v>
@@ -6035,16 +6049,16 @@
         <v>11</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>152</v>
+        <v>455</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="I84" s="3">
         <v>1</v>
@@ -6058,14 +6072,14 @@
       <c r="L84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M84" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>355</v>
+      <c r="M84" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="N84" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -6073,7 +6087,7 @@
         <v>2017</v>
       </c>
       <c r="B85" s="35">
-        <v>42951</v>
+        <v>42957</v>
       </c>
       <c r="C85" s="41" t="s">
         <v>164</v>
@@ -6081,23 +6095,23 @@
       <c r="D85" s="44">
         <v>11</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>12</v>
+      <c r="E85" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="I85" s="3">
         <v>1</v>
       </c>
       <c r="J85" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>12</v>
@@ -6106,11 +6120,13 @@
         <v>12</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="N85" s="1"/>
+        <v>354</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="O85" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -6118,7 +6134,7 @@
         <v>2017</v>
       </c>
       <c r="B86" s="35">
-        <v>42927</v>
+        <v>42951</v>
       </c>
       <c r="C86" s="41" t="s">
         <v>164</v>
@@ -6127,10 +6143,10 @@
         <v>11</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>450</v>
@@ -6142,22 +6158,20 @@
         <v>1</v>
       </c>
       <c r="J86" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L86" s="3">
-        <v>1</v>
+      <c r="L86" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>363</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N86" s="1"/>
       <c r="O86" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -6165,7 +6179,7 @@
         <v>2017</v>
       </c>
       <c r="B87" s="35">
-        <v>42743</v>
+        <v>42927</v>
       </c>
       <c r="C87" s="41" t="s">
         <v>164</v>
@@ -6174,45 +6188,45 @@
         <v>11</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I87" s="3">
         <v>1</v>
       </c>
       <c r="J87" s="3">
-        <v>5</v>
-      </c>
-      <c r="K87" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L87" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="O87" s="63" t="s">
-        <v>488</v>
+        <v>363</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="19">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B88" s="35">
-        <v>42710</v>
+        <v>42743</v>
       </c>
       <c r="C88" s="41" t="s">
         <v>164</v>
@@ -6224,32 +6238,34 @@
         <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
       </c>
       <c r="J88" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K88" s="3">
-        <v>1</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="L88" s="3">
+        <v>2</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="N88" s="1"/>
-      <c r="O88" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="O88" s="63" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -6257,7 +6273,7 @@
         <v>2016</v>
       </c>
       <c r="B89" s="35">
-        <v>42709</v>
+        <v>42710</v>
       </c>
       <c r="C89" s="41" t="s">
         <v>164</v>
@@ -6266,16 +6282,16 @@
         <v>11</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>371</v>
+        <v>12</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I89" s="3">
         <v>1</v>
@@ -6290,66 +6306,64 @@
         <v>12</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B90" s="35">
+        <v>42709</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" s="44">
+        <v>11</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="3">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1</v>
+      </c>
+      <c r="K90" s="3">
+        <v>1</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N90" s="1"/>
+      <c r="O90" s="4" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="34">
-        <v>2016</v>
-      </c>
-      <c r="B90" s="36">
-        <v>42614</v>
-      </c>
-      <c r="C90" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D90" s="44">
-        <v>11</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H90" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="I90" s="3">
-        <v>1</v>
-      </c>
-      <c r="J90" s="25">
-        <v>2</v>
-      </c>
-      <c r="K90" s="25">
-        <v>1</v>
-      </c>
-      <c r="L90" s="25">
-        <v>1</v>
-      </c>
-      <c r="M90" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="N90" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="O90" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="34">
         <v>2016</v>
       </c>
-      <c r="B91" s="51">
-        <v>42579</v>
+      <c r="B91" s="36">
+        <v>42614</v>
       </c>
       <c r="C91" s="41" t="s">
         <v>164</v>
@@ -6357,46 +6371,46 @@
       <c r="D91" s="44">
         <v>11</v>
       </c>
-      <c r="E91" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="F91" s="57" t="s">
-        <v>477</v>
+      <c r="E91" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>375</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="I91" s="3">
         <v>1</v>
       </c>
       <c r="J91" s="25">
-        <v>1</v>
-      </c>
-      <c r="K91" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L91" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M91" s="56" t="s">
-        <v>478</v>
+        <v>2</v>
+      </c>
+      <c r="K91" s="25">
+        <v>1</v>
+      </c>
+      <c r="L91" s="25">
+        <v>1</v>
+      </c>
+      <c r="M91" s="23" t="s">
+        <v>376</v>
       </c>
       <c r="N91" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O91" s="53" t="s">
-        <v>479</v>
+        <v>377</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="34">
         <v>2016</v>
       </c>
-      <c r="B92" s="36">
-        <v>42445</v>
+      <c r="B92" s="51">
+        <v>42579</v>
       </c>
       <c r="C92" s="41" t="s">
         <v>164</v>
@@ -6404,17 +6418,17 @@
       <c r="D92" s="44">
         <v>11</v>
       </c>
-      <c r="E92" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>380</v>
+      <c r="E92" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="F92" s="57" t="s">
+        <v>477</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="I92" s="3">
         <v>1</v>
@@ -6422,18 +6436,20 @@
       <c r="J92" s="25">
         <v>1</v>
       </c>
-      <c r="K92" s="25">
-        <v>1</v>
+      <c r="K92" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="L92" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M92" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="N92" s="23"/>
-      <c r="O92" s="4" t="s">
-        <v>382</v>
+      <c r="M92" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="N92" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O92" s="53" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -6441,7 +6457,7 @@
         <v>2016</v>
       </c>
       <c r="B93" s="36">
-        <v>42429</v>
+        <v>42445</v>
       </c>
       <c r="C93" s="41" t="s">
         <v>164</v>
@@ -6450,15 +6466,15 @@
         <v>11</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H93" s="26" t="s">
+      <c r="H93" s="24" t="s">
         <v>36</v>
       </c>
       <c r="I93" s="3">
@@ -6467,18 +6483,18 @@
       <c r="J93" s="25">
         <v>1</v>
       </c>
-      <c r="K93" s="25" t="s">
-        <v>12</v>
+      <c r="K93" s="25">
+        <v>1</v>
       </c>
       <c r="L93" s="25" t="s">
         <v>12</v>
       </c>
       <c r="M93" s="23" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N93" s="23"/>
-      <c r="O93" s="14" t="s">
-        <v>386</v>
+      <c r="O93" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -6486,7 +6502,7 @@
         <v>2016</v>
       </c>
       <c r="B94" s="36">
-        <v>42414</v>
+        <v>42429</v>
       </c>
       <c r="C94" s="41" t="s">
         <v>164</v>
@@ -6495,22 +6511,22 @@
         <v>11</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H94" s="24" t="s">
+      <c r="H94" s="26" t="s">
         <v>36</v>
       </c>
       <c r="I94" s="3">
         <v>1</v>
       </c>
       <c r="J94" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94" s="25" t="s">
         <v>12</v>
@@ -6518,14 +6534,12 @@
       <c r="L94" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M94" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="N94" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="O94" s="4" t="s">
-        <v>391</v>
+      <c r="M94" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="N94" s="23"/>
+      <c r="O94" s="14" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -6533,7 +6547,7 @@
         <v>2016</v>
       </c>
       <c r="B95" s="36">
-        <v>42382</v>
+        <v>42414</v>
       </c>
       <c r="C95" s="41" t="s">
         <v>164</v>
@@ -6542,22 +6556,22 @@
         <v>11</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>12</v>
+        <v>387</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>388</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="I95" s="3">
         <v>1</v>
       </c>
       <c r="J95" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K95" s="25" t="s">
         <v>12</v>
@@ -6565,20 +6579,22 @@
       <c r="L95" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M95" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="N95" s="23"/>
+      <c r="M95" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="N95" s="23" t="s">
+        <v>390</v>
+      </c>
       <c r="O95" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="34">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B96" s="36">
-        <v>42320</v>
+        <v>42382</v>
       </c>
       <c r="C96" s="41" t="s">
         <v>164</v>
@@ -6587,16 +6603,16 @@
         <v>11</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="I96" s="3">
         <v>1</v>
@@ -6604,20 +6620,18 @@
       <c r="J96" s="25">
         <v>1</v>
       </c>
-      <c r="K96" s="25">
-        <v>1</v>
+      <c r="K96" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="L96" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M96" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="N96" s="28" t="s">
-        <v>398</v>
-      </c>
+      <c r="M96" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="N96" s="23"/>
       <c r="O96" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -6625,7 +6639,7 @@
         <v>2015</v>
       </c>
       <c r="B97" s="36">
-        <v>42178</v>
+        <v>42320</v>
       </c>
       <c r="C97" s="41" t="s">
         <v>164</v>
@@ -6633,11 +6647,11 @@
       <c r="D97" s="44">
         <v>11</v>
       </c>
-      <c r="E97" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="F97" s="28" t="s">
-        <v>401</v>
+      <c r="E97" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>396</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>450</v>
@@ -6648,29 +6662,31 @@
       <c r="I97" s="3">
         <v>1</v>
       </c>
-      <c r="J97" s="29">
-        <v>2</v>
-      </c>
-      <c r="K97" s="29">
-        <v>1</v>
-      </c>
-      <c r="L97" s="29" t="s">
+      <c r="J97" s="25">
+        <v>1</v>
+      </c>
+      <c r="K97" s="25">
+        <v>1</v>
+      </c>
+      <c r="L97" s="25" t="s">
         <v>12</v>
       </c>
       <c r="M97" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N97" s="23"/>
+        <v>397</v>
+      </c>
+      <c r="N97" s="28" t="s">
+        <v>398</v>
+      </c>
       <c r="O97" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="34">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B98" s="36">
-        <v>41970</v>
+        <v>42178</v>
       </c>
       <c r="C98" s="41" t="s">
         <v>164</v>
@@ -6678,11 +6694,11 @@
       <c r="D98" s="44">
         <v>11</v>
       </c>
-      <c r="E98" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>405</v>
+      <c r="E98" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>401</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>450</v>
@@ -6693,21 +6709,21 @@
       <c r="I98" s="3">
         <v>1</v>
       </c>
-      <c r="J98" s="25">
-        <v>4</v>
-      </c>
-      <c r="K98" s="25">
+      <c r="J98" s="29">
         <v>2</v>
       </c>
-      <c r="L98" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M98" s="23" t="s">
-        <v>406</v>
+      <c r="K98" s="29">
+        <v>1</v>
+      </c>
+      <c r="L98" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M98" s="28" t="s">
+        <v>402</v>
       </c>
       <c r="N98" s="23"/>
       <c r="O98" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -6715,7 +6731,7 @@
         <v>2014</v>
       </c>
       <c r="B99" s="36">
-        <v>41852</v>
+        <v>41970</v>
       </c>
       <c r="C99" s="41" t="s">
         <v>164</v>
@@ -6724,16 +6740,16 @@
         <v>11</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="I99" s="3">
         <v>1</v>
@@ -6741,26 +6757,26 @@
       <c r="J99" s="25">
         <v>4</v>
       </c>
-      <c r="K99" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L99" s="25">
-        <v>4</v>
+      <c r="K99" s="25">
+        <v>2</v>
+      </c>
+      <c r="L99" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="M99" s="23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="N99" s="23"/>
       <c r="O99" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="34">
         <v>2014</v>
       </c>
-      <c r="B100" s="51">
-        <v>41779</v>
+      <c r="B100" s="36">
+        <v>41852</v>
       </c>
       <c r="C100" s="41" t="s">
         <v>164</v>
@@ -6768,229 +6784,230 @@
       <c r="D100" s="44">
         <v>11</v>
       </c>
-      <c r="E100" s="55" t="s">
-        <v>472</v>
-      </c>
-      <c r="F100" s="54" t="s">
-        <v>473</v>
+      <c r="E100" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>409</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="H100" s="24" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="I100" s="3">
         <v>1</v>
       </c>
       <c r="J100" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K100" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="L100" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M100" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="N100" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O100" s="53" t="s">
-        <v>475</v>
+      <c r="L100" s="25">
+        <v>4</v>
+      </c>
+      <c r="M100" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="N100" s="23"/>
+      <c r="O100" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="34">
         <v>2014</v>
       </c>
-      <c r="B101" s="36">
+      <c r="B101" s="51">
+        <v>41779</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" s="44">
+        <v>11</v>
+      </c>
+      <c r="E101" s="55" t="s">
+        <v>472</v>
+      </c>
+      <c r="F101" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1</v>
+      </c>
+      <c r="J101" s="25">
+        <v>1</v>
+      </c>
+      <c r="K101" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M101" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="N101" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O101" s="53" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="34">
+        <v>2014</v>
+      </c>
+      <c r="B102" s="36">
         <v>41674</v>
       </c>
-      <c r="C101" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D101" s="44">
-        <v>11</v>
-      </c>
-      <c r="E101" s="23" t="s">
+      <c r="C102" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D102" s="44">
+        <v>11</v>
+      </c>
+      <c r="E102" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="F101" s="23" t="s">
+      <c r="F102" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="G101" s="22" t="s">
+      <c r="G102" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="H101" s="24" t="s">
+      <c r="H102" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="I101" s="3">
-        <v>1</v>
-      </c>
-      <c r="J101" s="25">
+      <c r="I102" s="3">
+        <v>1</v>
+      </c>
+      <c r="J102" s="25">
         <v>2</v>
       </c>
-      <c r="K101" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L101" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M101" s="23" t="s">
+      <c r="K102" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L102" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="N101" s="23"/>
-      <c r="O101" s="4" t="s">
+      <c r="N102" s="23"/>
+      <c r="O102" s="4" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="62">
-        <v>2013</v>
-      </c>
-      <c r="B102" s="49">
-        <v>41528</v>
-      </c>
-      <c r="C102" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D102" s="44">
-        <v>11</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="G102" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="H102" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1</v>
-      </c>
-      <c r="J102" s="25">
-        <v>4</v>
-      </c>
-      <c r="K102" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L102" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M102" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N102" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O102" s="63" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="62">
+        <v>2013</v>
+      </c>
+      <c r="B103" s="49">
+        <v>41528</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D103" s="44">
+        <v>11</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="50" t="s">
+        <v>468</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" s="3">
+        <v>1</v>
+      </c>
+      <c r="J103" s="25">
+        <v>4</v>
+      </c>
+      <c r="K103" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L103" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M103" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N103" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O103" s="63" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="62">
         <v>2012</v>
       </c>
-      <c r="B103" s="51">
+      <c r="B104" s="51">
         <v>40966</v>
       </c>
-      <c r="C103" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D103" s="44">
-        <v>11</v>
-      </c>
-      <c r="E103" s="52" t="s">
+      <c r="C104" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D104" s="44">
+        <v>11</v>
+      </c>
+      <c r="E104" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="F103" s="52" t="s">
+      <c r="F104" s="52" t="s">
         <v>470</v>
       </c>
-      <c r="G103" s="22" t="s">
+      <c r="G104" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="H103" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="I103" s="3">
-        <v>1</v>
-      </c>
-      <c r="J103" s="25">
-        <v>1</v>
-      </c>
-      <c r="K103" s="25">
+      <c r="H104" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I104" s="3">
+        <v>1</v>
+      </c>
+      <c r="J104" s="25">
+        <v>1</v>
+      </c>
+      <c r="K104" s="25">
         <v>0</v>
       </c>
-      <c r="L103" s="25">
-        <v>1</v>
-      </c>
-      <c r="M103" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N103" s="52" t="s">
+      <c r="L104" s="25">
+        <v>1</v>
+      </c>
+      <c r="M104" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="O103" s="53" t="s">
+      <c r="O104" s="53" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="34">
-        <v>2012</v>
-      </c>
-      <c r="B104" s="37">
-        <v>2012</v>
-      </c>
-      <c r="C104" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D104" s="44">
-        <v>11</v>
-      </c>
-      <c r="E104" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="F104" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H104" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="I104" s="3">
-        <v>1</v>
-      </c>
-      <c r="J104" s="30">
-        <v>3</v>
-      </c>
-      <c r="K104" s="31">
-        <v>1</v>
-      </c>
-      <c r="L104" s="31">
-        <v>1</v>
-      </c>
-      <c r="M104" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="O104" s="14" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="34">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B105" s="37">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C105" s="41" t="s">
         <v>164</v>
@@ -6998,32 +7015,33 @@
       <c r="D105" s="44">
         <v>11</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>12</v>
+      <c r="E105" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="F105" s="32" t="s">
+        <v>418</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="I105" s="3">
         <v>1</v>
       </c>
-      <c r="J105" s="25">
-        <v>1</v>
-      </c>
-      <c r="K105" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L105" s="25">
-        <v>1</v>
-      </c>
-      <c r="M105" s="23"/>
-      <c r="N105" s="32"/>
+      <c r="J105" s="30">
+        <v>3</v>
+      </c>
+      <c r="K105" s="31">
+        <v>1</v>
+      </c>
+      <c r="L105" s="31">
+        <v>1</v>
+      </c>
+      <c r="M105" s="33" t="s">
+        <v>419</v>
+      </c>
       <c r="O105" s="14" t="s">
         <v>417</v>
       </c>
@@ -7047,25 +7065,25 @@
       <c r="F106" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="46" t="s">
-        <v>456</v>
+      <c r="G106" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="H106" s="26" t="s">
-        <v>420</v>
+        <v>17</v>
       </c>
       <c r="I106" s="3">
         <v>1</v>
       </c>
-      <c r="J106" s="30">
-        <v>2</v>
-      </c>
-      <c r="K106" s="31">
-        <v>2</v>
-      </c>
-      <c r="L106" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M106" s="32"/>
+      <c r="J106" s="25">
+        <v>1</v>
+      </c>
+      <c r="K106" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L106" s="25">
+        <v>1</v>
+      </c>
+      <c r="M106" s="23"/>
       <c r="N106" s="32"/>
       <c r="O106" s="14" t="s">
         <v>417</v>
@@ -7073,10 +7091,10 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="34">
-        <v>2010</v>
-      </c>
-      <c r="B107" s="36">
-        <v>40318</v>
+        <v>2011</v>
+      </c>
+      <c r="B107" s="37">
+        <v>2011</v>
       </c>
       <c r="C107" s="41" t="s">
         <v>164</v>
@@ -7084,44 +7102,42 @@
       <c r="D107" s="44">
         <v>11</v>
       </c>
-      <c r="E107" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H107" s="24" t="s">
-        <v>89</v>
+      <c r="E107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="H107" s="26" t="s">
+        <v>420</v>
       </c>
       <c r="I107" s="3">
         <v>1</v>
       </c>
-      <c r="J107" s="25">
-        <v>1</v>
-      </c>
-      <c r="K107" s="25">
-        <v>1</v>
-      </c>
-      <c r="L107" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M107" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="N107" s="23"/>
-      <c r="O107" s="4" t="s">
-        <v>424</v>
+      <c r="J107" s="30">
+        <v>2</v>
+      </c>
+      <c r="K107" s="31">
+        <v>2</v>
+      </c>
+      <c r="L107" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M107" s="32"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="14" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="34">
-        <v>2009</v>
-      </c>
-      <c r="B108" s="37">
-        <v>39995</v>
+        <v>2010</v>
+      </c>
+      <c r="B108" s="36">
+        <v>40318</v>
       </c>
       <c r="C108" s="41" t="s">
         <v>164</v>
@@ -7130,35 +7146,35 @@
         <v>11</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>12</v>
+        <v>421</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>422</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H108" s="24" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="I108" s="3">
         <v>1</v>
       </c>
       <c r="J108" s="25">
-        <v>14</v>
-      </c>
-      <c r="K108" s="31" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K108" s="25">
+        <v>1</v>
       </c>
       <c r="L108" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M108" s="16" t="s">
-        <v>426</v>
+      <c r="M108" s="23" t="s">
+        <v>423</v>
       </c>
       <c r="N108" s="23"/>
-      <c r="O108" s="20" t="s">
-        <v>427</v>
+      <c r="O108" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -7166,7 +7182,7 @@
         <v>2009</v>
       </c>
       <c r="B109" s="37">
-        <v>39969</v>
+        <v>39995</v>
       </c>
       <c r="C109" s="41" t="s">
         <v>164</v>
@@ -7174,155 +7190,201 @@
       <c r="D109" s="44">
         <v>11</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>12</v>
+      <c r="E109" s="23" t="s">
+        <v>425</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>40</v>
+      <c r="G109" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="I109" s="3">
         <v>1</v>
       </c>
       <c r="J109" s="25">
-        <v>2</v>
-      </c>
-      <c r="K109" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" s="31" t="s">
         <v>12</v>
       </c>
       <c r="L109" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M109" s="23" t="s">
-        <v>428</v>
+      <c r="M109" s="16" t="s">
+        <v>426</v>
       </c>
       <c r="N109" s="23"/>
       <c r="O109" s="20" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B110" s="37">
+        <v>39969</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D110" s="44">
+        <v>11</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I110" s="3">
+        <v>1</v>
+      </c>
+      <c r="J110" s="25">
+        <v>2</v>
+      </c>
+      <c r="K110" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L110" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M110" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="N110" s="23"/>
+      <c r="O110" s="20" t="s">
         <v>429</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O109" xr:uid="{51CCA004-4EBA-DB40-B10C-5F8D6554DBC2}"/>
+  <autoFilter ref="A1:O110" xr:uid="{51CCA004-4EBA-DB40-B10C-5F8D6554DBC2}"/>
   <hyperlinks>
-    <hyperlink ref="O10" r:id="rId1" xr:uid="{EBBF2AB6-87FC-E040-8926-9C2F183AF376}"/>
-    <hyperlink ref="O73" r:id="rId2" xr:uid="{D5F84E9F-EE09-9449-B391-C0700606B07E}"/>
-    <hyperlink ref="N10" r:id="rId3" xr:uid="{2AE0F851-C9A5-3549-9644-34486831A1C1}"/>
-    <hyperlink ref="O8" r:id="rId4" xr:uid="{B804790A-0FF2-AE4D-8EA9-12439AFD55FE}"/>
-    <hyperlink ref="O16" r:id="rId5" xr:uid="{3B88E5F2-A0BF-534D-9FAC-8A826F055F8B}"/>
-    <hyperlink ref="O12" r:id="rId6" xr:uid="{20DC7A21-4189-B24B-A4AA-3707DF6129A9}"/>
-    <hyperlink ref="O18" r:id="rId7" xr:uid="{9BBCD56B-FAA4-0442-9984-3144B90B74E2}"/>
-    <hyperlink ref="O9" r:id="rId8" xr:uid="{04F5EBF0-A4AB-9348-BBE0-9DA876DBBCB9}"/>
-    <hyperlink ref="O20" r:id="rId9" xr:uid="{FD5FD7D2-2217-1C4D-AB0C-0D578AB02313}"/>
-    <hyperlink ref="O22" r:id="rId10" xr:uid="{50DF3771-3014-FF45-B91B-554D92407AF7}"/>
-    <hyperlink ref="O25" r:id="rId11" xr:uid="{EAE7C061-D124-5540-AB54-A115A8971306}"/>
-    <hyperlink ref="O24" r:id="rId12" xr:uid="{7994FC08-B203-8F4D-8B61-DF35892909A1}"/>
-    <hyperlink ref="O7" r:id="rId13" xr:uid="{0B51B5D8-3906-D344-9CB0-AF632E406A90}"/>
-    <hyperlink ref="O21" r:id="rId14" xr:uid="{CB115356-E38B-0A4F-BD2E-E1DD14EB77AB}"/>
-    <hyperlink ref="O28" r:id="rId15" xr:uid="{C42E7FD4-0497-7A45-B619-076E8B885FE9}"/>
-    <hyperlink ref="O33" r:id="rId16" xr:uid="{1FEA88E9-DD5E-864B-9EB7-9B7FADE7288C}"/>
-    <hyperlink ref="O29" r:id="rId17" xr:uid="{434827F6-5116-624C-8FEA-5573D5F3D845}"/>
-    <hyperlink ref="O4" r:id="rId18" xr:uid="{826D62DE-B107-B745-A894-94CBFC44BEB7}"/>
-    <hyperlink ref="O5" r:id="rId19" xr:uid="{673F422A-5B08-C349-B716-023E7432D859}"/>
-    <hyperlink ref="O78" r:id="rId20" xr:uid="{A399BD4B-BF3A-2840-9168-829E19068186}"/>
-    <hyperlink ref="O52" r:id="rId21" xr:uid="{F3A48F46-259E-754E-8909-5CA77E6A4047}"/>
-    <hyperlink ref="O17" r:id="rId22" xr:uid="{EF4151BF-C8EB-2C4E-AA75-DE59846EB7D3}"/>
-    <hyperlink ref="O56" r:id="rId23" xr:uid="{65E83A7C-45FF-7C44-B324-72AB2FCFBF74}"/>
-    <hyperlink ref="O53" r:id="rId24" xr:uid="{D5EF334A-3E47-AE4D-8F9B-E27CAFCF31FA}"/>
-    <hyperlink ref="O51" r:id="rId25" xr:uid="{A9B8A2E3-049C-5140-9019-A85A999D5A0F}"/>
-    <hyperlink ref="O55" r:id="rId26" xr:uid="{B5A7D6AB-B82C-3545-B269-62CA72E6B10A}"/>
-    <hyperlink ref="O6" r:id="rId27" xr:uid="{5D16655E-9918-B246-A1E4-A1C8ACB3439C}"/>
-    <hyperlink ref="O57" r:id="rId28" xr:uid="{409BA013-EDE1-5549-BEFF-62B4701835B8}"/>
-    <hyperlink ref="O69" r:id="rId29" xr:uid="{C881A008-4FA8-6A44-B73D-99B773DB17A2}"/>
-    <hyperlink ref="O59" r:id="rId30" xr:uid="{9BC27B0D-1A62-9C4C-827B-B2C8B2C4B1A8}"/>
-    <hyperlink ref="O60" r:id="rId31" xr:uid="{8ABB7555-E4FD-804A-A9E9-7C173AB084DA}"/>
-    <hyperlink ref="O58" r:id="rId32" xr:uid="{6E1D1288-DC79-7E40-B3AE-E5251EC74370}"/>
-    <hyperlink ref="O26" r:id="rId33" xr:uid="{13DDC6B3-E09C-654D-B25B-76305B5D2EA8}"/>
-    <hyperlink ref="O44" r:id="rId34" xr:uid="{3FEFA9FF-969D-C84C-AB8B-9C831DC6615E}"/>
-    <hyperlink ref="O41" r:id="rId35" xr:uid="{814C4BA2-B230-9A46-8814-3DEE328D2C5C}"/>
-    <hyperlink ref="O101" r:id="rId36" xr:uid="{7E93212B-73FB-3E4D-BCD4-8B777E2DBFF3}"/>
-    <hyperlink ref="O64" r:id="rId37" xr:uid="{5C8DF39F-BDB1-3B4F-BE90-F8FFB71452D9}"/>
-    <hyperlink ref="O37" r:id="rId38" xr:uid="{1F1761E1-0A4E-BC40-9E1B-09CC68BDDD06}"/>
-    <hyperlink ref="O23" r:id="rId39" xr:uid="{356BBF8B-D112-ED40-95DE-6AB3A204F42C}"/>
-    <hyperlink ref="O11" r:id="rId40" xr:uid="{700104D6-90C0-8C42-AE32-0F2D16F3EA44}"/>
-    <hyperlink ref="O32" r:id="rId41" xr:uid="{74087B49-DF75-694D-878E-77E0C79AE2FB}"/>
-    <hyperlink ref="O35" r:id="rId42" xr:uid="{72093307-A3A5-A04A-AA11-98B96FE0F154}"/>
-    <hyperlink ref="O80" r:id="rId43" xr:uid="{6E741000-2EAF-AD42-BC04-E5F07EFB1CF4}"/>
-    <hyperlink ref="O40" r:id="rId44" xr:uid="{0780F015-440A-B241-923F-C77D587B8843}"/>
-    <hyperlink ref="O43" r:id="rId45" xr:uid="{64252ECE-1867-0047-BA98-84C3506775EE}"/>
-    <hyperlink ref="O76" r:id="rId46" xr:uid="{AE32A472-DB69-E04A-9D0A-865CBAECD5CB}"/>
-    <hyperlink ref="O13" r:id="rId47" xr:uid="{75700E12-229E-E64F-92DB-613EB2181AD7}"/>
-    <hyperlink ref="O45" r:id="rId48" xr:uid="{08037EDA-E0E5-1D47-BFE2-238620188875}"/>
-    <hyperlink ref="O38" r:id="rId49" xr:uid="{4D795149-9396-0744-A571-7F96F56FAB7C}"/>
-    <hyperlink ref="O46" r:id="rId50" xr:uid="{43D87AF8-3DED-9C49-8AD4-4A2378DAE7CD}"/>
-    <hyperlink ref="N5" r:id="rId51" xr:uid="{7896A6EA-5739-E54A-83E3-17386B7DCCC8}"/>
-    <hyperlink ref="O47" r:id="rId52" xr:uid="{762823A3-02E0-4A4F-B3CC-6F30D298A987}"/>
-    <hyperlink ref="O77" r:id="rId53" xr:uid="{7FB2ED77-A405-CE4B-A585-86FF6AE50D99}"/>
-    <hyperlink ref="O31" r:id="rId54" xr:uid="{B2D0A2CC-672B-864A-A1B5-AFBF790DF6F7}"/>
-    <hyperlink ref="O19" r:id="rId55" xr:uid="{CEF4DD82-F8E0-644B-BA30-5328CBAAD6D7}"/>
-    <hyperlink ref="O27" r:id="rId56" xr:uid="{70B1D8D1-2CCF-E645-A619-CB613E7A0E4B}"/>
-    <hyperlink ref="O50" r:id="rId57" xr:uid="{62E8C11E-4B21-9A41-A51F-420F92CBFAEF}"/>
-    <hyperlink ref="O34" r:id="rId58" xr:uid="{62900264-CBD8-4C4F-A968-5C208FAD4F6E}"/>
-    <hyperlink ref="O39" r:id="rId59" xr:uid="{B3A0D0E5-33C0-DF42-ADAA-76842D460DD2}"/>
-    <hyperlink ref="O48" r:id="rId60" xr:uid="{C922300D-32FA-3B41-AF3C-420E47135D55}"/>
-    <hyperlink ref="O83" r:id="rId61" xr:uid="{D4B318CC-442F-0B48-BF75-66D667ED40B3}"/>
-    <hyperlink ref="O61" r:id="rId62" xr:uid="{46550FCA-A797-4A4F-9446-3E016BCB210C}"/>
-    <hyperlink ref="O67" r:id="rId63" xr:uid="{14210FB2-D115-284E-967E-E0D45A486B1A}"/>
-    <hyperlink ref="O54" r:id="rId64" xr:uid="{E73C370D-B744-0547-95C8-AD942149703A}"/>
-    <hyperlink ref="O36" r:id="rId65" xr:uid="{B26AD6EE-A384-CB40-BB09-9ECE1CAC3C6C}"/>
-    <hyperlink ref="O42" r:id="rId66" xr:uid="{0A33F70B-2C22-CF4E-8A9E-184ED3350F68}"/>
-    <hyperlink ref="O49" r:id="rId67" xr:uid="{226FFAB8-D1AC-EE45-A8EB-AF015A072D7B}"/>
-    <hyperlink ref="O62" r:id="rId68" xr:uid="{3403ED5E-9557-9945-ACE2-794275ABCD30}"/>
-    <hyperlink ref="O15" r:id="rId69" xr:uid="{0B66E410-7037-E34A-A17F-C8CD8C856BC2}"/>
-    <hyperlink ref="N80" r:id="rId70" xr:uid="{D957EF76-E963-B649-B5D5-ECC122F9D220}"/>
-    <hyperlink ref="O14" r:id="rId71" xr:uid="{BD0B2185-2D10-1045-BD27-25CA24C06722}"/>
-    <hyperlink ref="O72" r:id="rId72" xr:uid="{96AB786D-0F4C-AC49-AFFF-6D3D1C0CD871}"/>
-    <hyperlink ref="O70" r:id="rId73" xr:uid="{78BC6DD0-1546-2C4E-8BFC-D4F254A31EE0}"/>
-    <hyperlink ref="O71" r:id="rId74" xr:uid="{59D6C639-372D-1247-9F96-B1AC94E381CC}"/>
-    <hyperlink ref="O81" r:id="rId75" xr:uid="{80F98F9E-3693-6F4C-813A-B0E0AABFC572}"/>
-    <hyperlink ref="O82" r:id="rId76" xr:uid="{9ABED5E4-3657-0144-A537-50F2A9404DA6}"/>
-    <hyperlink ref="O84" r:id="rId77" xr:uid="{6EF9C798-4B55-E347-9B8D-89824CDDFFDC}"/>
-    <hyperlink ref="O85" r:id="rId78" xr:uid="{7141712A-DB16-7641-910F-6F15531A2C68}"/>
-    <hyperlink ref="O88" r:id="rId79" xr:uid="{BDAFCDED-7674-4E44-A7AB-DF73D0F11BA2}"/>
-    <hyperlink ref="O89" r:id="rId80" xr:uid="{7F6135A9-BB6F-444F-BFC8-58EBBDAA145E}"/>
-    <hyperlink ref="O99" r:id="rId81" xr:uid="{31B0D5AB-114F-BB4B-B3D8-DD78ADB59D57}"/>
-    <hyperlink ref="O90" r:id="rId82" xr:uid="{6C7431EC-4DA4-4242-9104-35327E21C287}"/>
-    <hyperlink ref="O86" r:id="rId83" xr:uid="{17DF4DA7-9397-A941-8F25-CE4247E0038B}"/>
-    <hyperlink ref="O66" r:id="rId84" xr:uid="{65347B8F-F92C-714E-A269-AD4EB5AA8D88}"/>
-    <hyperlink ref="O79" r:id="rId85" xr:uid="{BF185D61-88F6-7F44-B298-7E8F25BD759B}"/>
-    <hyperlink ref="O95" r:id="rId86" xr:uid="{5E3F0024-1804-DB47-9EF7-2226F71341B1}"/>
-    <hyperlink ref="O65" r:id="rId87" xr:uid="{2D0A1ECA-F250-C04B-897F-8A289226850A}"/>
-    <hyperlink ref="O68" r:id="rId88" xr:uid="{C3421137-68E8-0147-B280-77724174E6D7}"/>
-    <hyperlink ref="N70" r:id="rId89" xr:uid="{00447881-4E41-EC46-8985-C37E283F6416}"/>
-    <hyperlink ref="N13" r:id="rId90" xr:uid="{E2ABA3D6-3048-0241-AA72-67EB927210C3}"/>
-    <hyperlink ref="O98" r:id="rId91" xr:uid="{250662FE-33C0-914E-AA98-8C36108755B1}"/>
-    <hyperlink ref="N20" r:id="rId92" xr:uid="{8DB28FEB-E18D-7B40-9BC2-58FD596004B1}"/>
-    <hyperlink ref="O92" r:id="rId93" xr:uid="{BCD23027-9180-D24D-BC35-2C3750B0122B}"/>
-    <hyperlink ref="O94" r:id="rId94" xr:uid="{5542FB2A-3DFF-CC40-BC68-75BCE7C725DA}"/>
-    <hyperlink ref="O97" r:id="rId95" xr:uid="{812A0065-40EC-9D4D-8C54-C52073427100}"/>
-    <hyperlink ref="O96" r:id="rId96" xr:uid="{BD8934F8-6677-A144-B23B-F79016AC3E65}"/>
-    <hyperlink ref="O107" r:id="rId97" xr:uid="{1B1EC616-8662-1E4C-850A-3DB62CB42D70}"/>
-    <hyperlink ref="O108" r:id="rId98" xr:uid="{B38FD18E-9439-D34D-9C57-C9B7831F08D5}"/>
-    <hyperlink ref="O109" r:id="rId99" xr:uid="{0E343F60-C1EA-5B48-A47B-33DFBB18F774}"/>
-    <hyperlink ref="O93" r:id="rId100" xr:uid="{06F3B3F1-F274-9947-AF98-B1DB979D285A}"/>
-    <hyperlink ref="O104" r:id="rId101" xr:uid="{800AA112-81CD-0343-8C1D-F181C703654C}"/>
-    <hyperlink ref="O105" r:id="rId102" xr:uid="{ACA74ADD-DCAB-7C44-83A6-D8A6DCD63A0B}"/>
-    <hyperlink ref="O106" r:id="rId103" xr:uid="{9EFB4367-F008-E141-9AF7-CC1AC64DE0F0}"/>
-    <hyperlink ref="O63" r:id="rId104" xr:uid="{8800BE43-3C76-974C-B76E-70086FD68AE3}"/>
-    <hyperlink ref="O30" r:id="rId105" xr:uid="{101DCDD5-D5EB-BD49-9F63-A786FE9F7532}"/>
-    <hyperlink ref="O75" r:id="rId106" xr:uid="{7F5DA2C3-E101-634F-A67A-F5D9A278312E}"/>
-    <hyperlink ref="O74" r:id="rId107" xr:uid="{9DE88079-889C-EA46-B942-A6912347B3D8}"/>
-    <hyperlink ref="O103" r:id="rId108" xr:uid="{70FC581C-402E-7A46-8891-BCC48BA414AE}"/>
-    <hyperlink ref="O100" r:id="rId109" xr:uid="{3809DBD9-36DF-784D-97E8-FEF916BF69D1}"/>
-    <hyperlink ref="O91" r:id="rId110" xr:uid="{3AD8155C-34F1-474D-8231-AF43191C2CDF}"/>
-    <hyperlink ref="O2" r:id="rId111" xr:uid="{3C4AD26F-BD76-6349-8D23-5D8C869C6410}"/>
-    <hyperlink ref="O102" r:id="rId112" xr:uid="{EC308CEC-38F1-C446-820C-84FBC25EF9EB}"/>
-    <hyperlink ref="O87" r:id="rId113" xr:uid="{83A48CE7-7E04-1448-B487-A39462F0626A}"/>
-    <hyperlink ref="O3" r:id="rId114" xr:uid="{B15A62E6-7152-5240-B6C4-FC47A1FF150E}"/>
+    <hyperlink ref="O11" r:id="rId1" xr:uid="{EBBF2AB6-87FC-E040-8926-9C2F183AF376}"/>
+    <hyperlink ref="O74" r:id="rId2" xr:uid="{D5F84E9F-EE09-9449-B391-C0700606B07E}"/>
+    <hyperlink ref="N11" r:id="rId3" xr:uid="{2AE0F851-C9A5-3549-9644-34486831A1C1}"/>
+    <hyperlink ref="O9" r:id="rId4" xr:uid="{B804790A-0FF2-AE4D-8EA9-12439AFD55FE}"/>
+    <hyperlink ref="O17" r:id="rId5" xr:uid="{3B88E5F2-A0BF-534D-9FAC-8A826F055F8B}"/>
+    <hyperlink ref="O13" r:id="rId6" xr:uid="{20DC7A21-4189-B24B-A4AA-3707DF6129A9}"/>
+    <hyperlink ref="O19" r:id="rId7" xr:uid="{9BBCD56B-FAA4-0442-9984-3144B90B74E2}"/>
+    <hyperlink ref="O10" r:id="rId8" xr:uid="{04F5EBF0-A4AB-9348-BBE0-9DA876DBBCB9}"/>
+    <hyperlink ref="O21" r:id="rId9" xr:uid="{FD5FD7D2-2217-1C4D-AB0C-0D578AB02313}"/>
+    <hyperlink ref="O23" r:id="rId10" xr:uid="{50DF3771-3014-FF45-B91B-554D92407AF7}"/>
+    <hyperlink ref="O26" r:id="rId11" xr:uid="{EAE7C061-D124-5540-AB54-A115A8971306}"/>
+    <hyperlink ref="O25" r:id="rId12" xr:uid="{7994FC08-B203-8F4D-8B61-DF35892909A1}"/>
+    <hyperlink ref="O8" r:id="rId13" xr:uid="{0B51B5D8-3906-D344-9CB0-AF632E406A90}"/>
+    <hyperlink ref="O22" r:id="rId14" xr:uid="{CB115356-E38B-0A4F-BD2E-E1DD14EB77AB}"/>
+    <hyperlink ref="O29" r:id="rId15" xr:uid="{C42E7FD4-0497-7A45-B619-076E8B885FE9}"/>
+    <hyperlink ref="O34" r:id="rId16" xr:uid="{1FEA88E9-DD5E-864B-9EB7-9B7FADE7288C}"/>
+    <hyperlink ref="O30" r:id="rId17" xr:uid="{434827F6-5116-624C-8FEA-5573D5F3D845}"/>
+    <hyperlink ref="O5" r:id="rId18" xr:uid="{826D62DE-B107-B745-A894-94CBFC44BEB7}"/>
+    <hyperlink ref="O6" r:id="rId19" xr:uid="{673F422A-5B08-C349-B716-023E7432D859}"/>
+    <hyperlink ref="O79" r:id="rId20" xr:uid="{A399BD4B-BF3A-2840-9168-829E19068186}"/>
+    <hyperlink ref="O53" r:id="rId21" xr:uid="{F3A48F46-259E-754E-8909-5CA77E6A4047}"/>
+    <hyperlink ref="O18" r:id="rId22" xr:uid="{EF4151BF-C8EB-2C4E-AA75-DE59846EB7D3}"/>
+    <hyperlink ref="O57" r:id="rId23" xr:uid="{65E83A7C-45FF-7C44-B324-72AB2FCFBF74}"/>
+    <hyperlink ref="O54" r:id="rId24" xr:uid="{D5EF334A-3E47-AE4D-8F9B-E27CAFCF31FA}"/>
+    <hyperlink ref="O52" r:id="rId25" xr:uid="{A9B8A2E3-049C-5140-9019-A85A999D5A0F}"/>
+    <hyperlink ref="O56" r:id="rId26" xr:uid="{B5A7D6AB-B82C-3545-B269-62CA72E6B10A}"/>
+    <hyperlink ref="O7" r:id="rId27" xr:uid="{5D16655E-9918-B246-A1E4-A1C8ACB3439C}"/>
+    <hyperlink ref="O58" r:id="rId28" xr:uid="{409BA013-EDE1-5549-BEFF-62B4701835B8}"/>
+    <hyperlink ref="O70" r:id="rId29" xr:uid="{C881A008-4FA8-6A44-B73D-99B773DB17A2}"/>
+    <hyperlink ref="O60" r:id="rId30" xr:uid="{9BC27B0D-1A62-9C4C-827B-B2C8B2C4B1A8}"/>
+    <hyperlink ref="O61" r:id="rId31" xr:uid="{8ABB7555-E4FD-804A-A9E9-7C173AB084DA}"/>
+    <hyperlink ref="O59" r:id="rId32" xr:uid="{6E1D1288-DC79-7E40-B3AE-E5251EC74370}"/>
+    <hyperlink ref="O27" r:id="rId33" xr:uid="{13DDC6B3-E09C-654D-B25B-76305B5D2EA8}"/>
+    <hyperlink ref="O45" r:id="rId34" xr:uid="{3FEFA9FF-969D-C84C-AB8B-9C831DC6615E}"/>
+    <hyperlink ref="O42" r:id="rId35" xr:uid="{814C4BA2-B230-9A46-8814-3DEE328D2C5C}"/>
+    <hyperlink ref="O102" r:id="rId36" xr:uid="{7E93212B-73FB-3E4D-BCD4-8B777E2DBFF3}"/>
+    <hyperlink ref="O65" r:id="rId37" xr:uid="{5C8DF39F-BDB1-3B4F-BE90-F8FFB71452D9}"/>
+    <hyperlink ref="O38" r:id="rId38" xr:uid="{1F1761E1-0A4E-BC40-9E1B-09CC68BDDD06}"/>
+    <hyperlink ref="O24" r:id="rId39" xr:uid="{356BBF8B-D112-ED40-95DE-6AB3A204F42C}"/>
+    <hyperlink ref="O12" r:id="rId40" xr:uid="{700104D6-90C0-8C42-AE32-0F2D16F3EA44}"/>
+    <hyperlink ref="O33" r:id="rId41" xr:uid="{74087B49-DF75-694D-878E-77E0C79AE2FB}"/>
+    <hyperlink ref="O36" r:id="rId42" xr:uid="{72093307-A3A5-A04A-AA11-98B96FE0F154}"/>
+    <hyperlink ref="O81" r:id="rId43" xr:uid="{6E741000-2EAF-AD42-BC04-E5F07EFB1CF4}"/>
+    <hyperlink ref="O41" r:id="rId44" xr:uid="{0780F015-440A-B241-923F-C77D587B8843}"/>
+    <hyperlink ref="O44" r:id="rId45" xr:uid="{64252ECE-1867-0047-BA98-84C3506775EE}"/>
+    <hyperlink ref="O77" r:id="rId46" xr:uid="{AE32A472-DB69-E04A-9D0A-865CBAECD5CB}"/>
+    <hyperlink ref="O14" r:id="rId47" xr:uid="{75700E12-229E-E64F-92DB-613EB2181AD7}"/>
+    <hyperlink ref="O46" r:id="rId48" xr:uid="{08037EDA-E0E5-1D47-BFE2-238620188875}"/>
+    <hyperlink ref="O39" r:id="rId49" xr:uid="{4D795149-9396-0744-A571-7F96F56FAB7C}"/>
+    <hyperlink ref="O47" r:id="rId50" xr:uid="{43D87AF8-3DED-9C49-8AD4-4A2378DAE7CD}"/>
+    <hyperlink ref="N6" r:id="rId51" xr:uid="{7896A6EA-5739-E54A-83E3-17386B7DCCC8}"/>
+    <hyperlink ref="O48" r:id="rId52" xr:uid="{762823A3-02E0-4A4F-B3CC-6F30D298A987}"/>
+    <hyperlink ref="O78" r:id="rId53" xr:uid="{7FB2ED77-A405-CE4B-A585-86FF6AE50D99}"/>
+    <hyperlink ref="O32" r:id="rId54" xr:uid="{B2D0A2CC-672B-864A-A1B5-AFBF790DF6F7}"/>
+    <hyperlink ref="O20" r:id="rId55" xr:uid="{CEF4DD82-F8E0-644B-BA30-5328CBAAD6D7}"/>
+    <hyperlink ref="O28" r:id="rId56" xr:uid="{70B1D8D1-2CCF-E645-A619-CB613E7A0E4B}"/>
+    <hyperlink ref="O51" r:id="rId57" xr:uid="{62E8C11E-4B21-9A41-A51F-420F92CBFAEF}"/>
+    <hyperlink ref="O35" r:id="rId58" xr:uid="{62900264-CBD8-4C4F-A968-5C208FAD4F6E}"/>
+    <hyperlink ref="O40" r:id="rId59" xr:uid="{B3A0D0E5-33C0-DF42-ADAA-76842D460DD2}"/>
+    <hyperlink ref="O49" r:id="rId60" xr:uid="{C922300D-32FA-3B41-AF3C-420E47135D55}"/>
+    <hyperlink ref="O84" r:id="rId61" xr:uid="{D4B318CC-442F-0B48-BF75-66D667ED40B3}"/>
+    <hyperlink ref="O62" r:id="rId62" xr:uid="{46550FCA-A797-4A4F-9446-3E016BCB210C}"/>
+    <hyperlink ref="O68" r:id="rId63" xr:uid="{14210FB2-D115-284E-967E-E0D45A486B1A}"/>
+    <hyperlink ref="O55" r:id="rId64" xr:uid="{E73C370D-B744-0547-95C8-AD942149703A}"/>
+    <hyperlink ref="O37" r:id="rId65" xr:uid="{B26AD6EE-A384-CB40-BB09-9ECE1CAC3C6C}"/>
+    <hyperlink ref="O43" r:id="rId66" xr:uid="{0A33F70B-2C22-CF4E-8A9E-184ED3350F68}"/>
+    <hyperlink ref="O50" r:id="rId67" xr:uid="{226FFAB8-D1AC-EE45-A8EB-AF015A072D7B}"/>
+    <hyperlink ref="O63" r:id="rId68" xr:uid="{3403ED5E-9557-9945-ACE2-794275ABCD30}"/>
+    <hyperlink ref="O16" r:id="rId69" xr:uid="{0B66E410-7037-E34A-A17F-C8CD8C856BC2}"/>
+    <hyperlink ref="N81" r:id="rId70" xr:uid="{D957EF76-E963-B649-B5D5-ECC122F9D220}"/>
+    <hyperlink ref="O15" r:id="rId71" xr:uid="{BD0B2185-2D10-1045-BD27-25CA24C06722}"/>
+    <hyperlink ref="O73" r:id="rId72" xr:uid="{96AB786D-0F4C-AC49-AFFF-6D3D1C0CD871}"/>
+    <hyperlink ref="O71" r:id="rId73" xr:uid="{78BC6DD0-1546-2C4E-8BFC-D4F254A31EE0}"/>
+    <hyperlink ref="O72" r:id="rId74" xr:uid="{59D6C639-372D-1247-9F96-B1AC94E381CC}"/>
+    <hyperlink ref="O82" r:id="rId75" xr:uid="{80F98F9E-3693-6F4C-813A-B0E0AABFC572}"/>
+    <hyperlink ref="O83" r:id="rId76" xr:uid="{9ABED5E4-3657-0144-A537-50F2A9404DA6}"/>
+    <hyperlink ref="O85" r:id="rId77" xr:uid="{6EF9C798-4B55-E347-9B8D-89824CDDFFDC}"/>
+    <hyperlink ref="O86" r:id="rId78" xr:uid="{7141712A-DB16-7641-910F-6F15531A2C68}"/>
+    <hyperlink ref="O89" r:id="rId79" xr:uid="{BDAFCDED-7674-4E44-A7AB-DF73D0F11BA2}"/>
+    <hyperlink ref="O90" r:id="rId80" xr:uid="{7F6135A9-BB6F-444F-BFC8-58EBBDAA145E}"/>
+    <hyperlink ref="O100" r:id="rId81" xr:uid="{31B0D5AB-114F-BB4B-B3D8-DD78ADB59D57}"/>
+    <hyperlink ref="O91" r:id="rId82" xr:uid="{6C7431EC-4DA4-4242-9104-35327E21C287}"/>
+    <hyperlink ref="O87" r:id="rId83" xr:uid="{17DF4DA7-9397-A941-8F25-CE4247E0038B}"/>
+    <hyperlink ref="O67" r:id="rId84" xr:uid="{65347B8F-F92C-714E-A269-AD4EB5AA8D88}"/>
+    <hyperlink ref="O80" r:id="rId85" xr:uid="{BF185D61-88F6-7F44-B298-7E8F25BD759B}"/>
+    <hyperlink ref="O96" r:id="rId86" xr:uid="{5E3F0024-1804-DB47-9EF7-2226F71341B1}"/>
+    <hyperlink ref="O66" r:id="rId87" xr:uid="{2D0A1ECA-F250-C04B-897F-8A289226850A}"/>
+    <hyperlink ref="O69" r:id="rId88" xr:uid="{C3421137-68E8-0147-B280-77724174E6D7}"/>
+    <hyperlink ref="N71" r:id="rId89" xr:uid="{00447881-4E41-EC46-8985-C37E283F6416}"/>
+    <hyperlink ref="N14" r:id="rId90" xr:uid="{E2ABA3D6-3048-0241-AA72-67EB927210C3}"/>
+    <hyperlink ref="O99" r:id="rId91" xr:uid="{250662FE-33C0-914E-AA98-8C36108755B1}"/>
+    <hyperlink ref="N21" r:id="rId92" xr:uid="{8DB28FEB-E18D-7B40-9BC2-58FD596004B1}"/>
+    <hyperlink ref="O93" r:id="rId93" xr:uid="{BCD23027-9180-D24D-BC35-2C3750B0122B}"/>
+    <hyperlink ref="O95" r:id="rId94" xr:uid="{5542FB2A-3DFF-CC40-BC68-75BCE7C725DA}"/>
+    <hyperlink ref="O98" r:id="rId95" xr:uid="{812A0065-40EC-9D4D-8C54-C52073427100}"/>
+    <hyperlink ref="O97" r:id="rId96" xr:uid="{BD8934F8-6677-A144-B23B-F79016AC3E65}"/>
+    <hyperlink ref="O108" r:id="rId97" xr:uid="{1B1EC616-8662-1E4C-850A-3DB62CB42D70}"/>
+    <hyperlink ref="O109" r:id="rId98" xr:uid="{B38FD18E-9439-D34D-9C57-C9B7831F08D5}"/>
+    <hyperlink ref="O110" r:id="rId99" xr:uid="{0E343F60-C1EA-5B48-A47B-33DFBB18F774}"/>
+    <hyperlink ref="O94" r:id="rId100" xr:uid="{06F3B3F1-F274-9947-AF98-B1DB979D285A}"/>
+    <hyperlink ref="O105" r:id="rId101" xr:uid="{800AA112-81CD-0343-8C1D-F181C703654C}"/>
+    <hyperlink ref="O106" r:id="rId102" xr:uid="{ACA74ADD-DCAB-7C44-83A6-D8A6DCD63A0B}"/>
+    <hyperlink ref="O107" r:id="rId103" xr:uid="{9EFB4367-F008-E141-9AF7-CC1AC64DE0F0}"/>
+    <hyperlink ref="O64" r:id="rId104" xr:uid="{8800BE43-3C76-974C-B76E-70086FD68AE3}"/>
+    <hyperlink ref="O31" r:id="rId105" xr:uid="{101DCDD5-D5EB-BD49-9F63-A786FE9F7532}"/>
+    <hyperlink ref="O76" r:id="rId106" xr:uid="{7F5DA2C3-E101-634F-A67A-F5D9A278312E}"/>
+    <hyperlink ref="O75" r:id="rId107" xr:uid="{9DE88079-889C-EA46-B942-A6912347B3D8}"/>
+    <hyperlink ref="O104" r:id="rId108" xr:uid="{70FC581C-402E-7A46-8891-BCC48BA414AE}"/>
+    <hyperlink ref="O101" r:id="rId109" xr:uid="{3809DBD9-36DF-784D-97E8-FEF916BF69D1}"/>
+    <hyperlink ref="O92" r:id="rId110" xr:uid="{3AD8155C-34F1-474D-8231-AF43191C2CDF}"/>
+    <hyperlink ref="O3" r:id="rId111" xr:uid="{3C4AD26F-BD76-6349-8D23-5D8C869C6410}"/>
+    <hyperlink ref="O103" r:id="rId112" xr:uid="{EC308CEC-38F1-C446-820C-84FBC25EF9EB}"/>
+    <hyperlink ref="O88" r:id="rId113" xr:uid="{83A48CE7-7E04-1448-B487-A39462F0626A}"/>
+    <hyperlink ref="O4" r:id="rId114" xr:uid="{B15A62E6-7152-5240-B6C4-FC47A1FF150E}"/>
+    <hyperlink ref="O2" r:id="rId115" xr:uid="{E8EED418-8DAD-DA4D-B569-60A15B64754F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/import/input/fosas_guanajuato_final.xlsx
+++ b/import/input/fosas_guanajuato_final.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgeruizreyes/Desktop/R/situacion-fosas-guanajuato/import/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6F6DDE-9884-3044-9C0D-8443D4B79816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A2CC37-965E-F940-92E6-FCB53AF72BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="25040" windowHeight="14240" xr2:uid="{ABC018F8-10CC-0048-91DA-B9DDF9F7D7C3}"/>
+    <workbookView xWindow="1480" yWindow="740" windowWidth="25040" windowHeight="14240" xr2:uid="{ABC018F8-10CC-0048-91DA-B9DDF9F7D7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$108</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="492">
   <si>
     <t>Año</t>
   </si>
@@ -101,21 +101,9 @@
     <t>https://poplab.mx/article/ComisiondeBusquedafederalinvestigafosaenUriangatoconfirmarestoshumanos</t>
   </si>
   <si>
-    <t>Rio lerma</t>
-  </si>
-  <si>
-    <t>Reforma</t>
-  </si>
-  <si>
     <t>Salamanca</t>
   </si>
   <si>
-    <t>Desmembrado, cuerpo de mujer en cajas en orilla del río</t>
-  </si>
-  <si>
-    <t>https://www.elsoldesalamanca.com.mx/incoming/video-encuentran-cadaver-de-mujer-sobre-rio-lerma-5154136.html</t>
-  </si>
-  <si>
     <t>Trejo de Silao (camino de terracería a Irapuato)</t>
   </si>
   <si>
@@ -399,12 +387,6 @@
   </si>
   <si>
     <t>Cerrito Colorado</t>
-  </si>
-  <si>
-    <t>Restos óseos entre rocas</t>
-  </si>
-  <si>
-    <t>https://www.elsoldelbajio.com.mx/policiaca/encuentran-restos-oseos-en-cerrito-colorado-4542956.html</t>
   </si>
   <si>
     <t>Loma de Laurel Esquina con calle Loma de Buganvilia</t>
@@ -2209,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D242533B-FE67-2F45-BCCA-7E6BFE92D7BB}">
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="E84" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2239,13 +2221,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>2</v>
@@ -2257,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>5</v>
@@ -2269,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N1" s="39" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2286,33 +2268,33 @@
         <v>44043</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D2" s="44">
         <v>11</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>482</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="59" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="68" t="s">
@@ -2322,7 +2304,7 @@
         <v>12</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2333,43 +2315,43 @@
         <v>44033</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D3" s="44">
         <v>11</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K3" s="59" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L3" s="59" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M3" s="60" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="53" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2380,43 +2362,43 @@
         <v>43999</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D4" s="44">
         <v>11</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L4" s="59" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M4" s="64" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="O4" s="66" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2427,7 +2409,7 @@
         <v>43966</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D5" s="44">
         <v>11</v>
@@ -2439,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
@@ -2472,7 +2454,7 @@
         <v>43956</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D6" s="44">
         <v>11</v>
@@ -2484,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>17</v>
@@ -2492,8 +2474,8 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="5">
-        <v>2</v>
+      <c r="J6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>12</v>
@@ -2516,39 +2498,39 @@
         <v>2020</v>
       </c>
       <c r="B7" s="35">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D7" s="44">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="J7" s="9">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N7" s="1"/>
@@ -2561,42 +2543,42 @@
         <v>2020</v>
       </c>
       <c r="B8" s="35">
-        <v>43946</v>
+        <v>43895</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D8" s="44">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="9">
-        <v>3</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="J8" s="3">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="1"/>
       <c r="O8" s="6" t="s">
         <v>29</v>
       </c>
@@ -2606,44 +2588,44 @@
         <v>2020</v>
       </c>
       <c r="B9" s="35">
-        <v>43895</v>
+        <v>43884</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D9" s="44">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
       </c>
       <c r="J9" s="3">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="M9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="1"/>
       <c r="O9" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2651,22 +2633,22 @@
         <v>2020</v>
       </c>
       <c r="B10" s="35">
-        <v>43884</v>
+        <v>43880</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D10" s="44">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>36</v>
@@ -2675,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>12</v>
@@ -2686,9 +2668,11 @@
       <c r="M10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="6" t="s">
+      <c r="N10" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2696,10 +2680,10 @@
         <v>2020</v>
       </c>
       <c r="B11" s="35">
-        <v>43880</v>
+        <v>43870</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D11" s="44">
         <v>11</v>
@@ -2707,35 +2691,35 @@
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>429</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="M11" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="N11" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="O11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2743,46 +2727,46 @@
         <v>2020</v>
       </c>
       <c r="B12" s="35">
-        <v>43870</v>
+        <v>43868</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D12" s="44">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
+      <c r="E12" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>45</v>
+        <v>454</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2790,46 +2774,46 @@
         <v>2020</v>
       </c>
       <c r="B13" s="35">
-        <v>43868</v>
+        <v>43866</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D13" s="44">
         <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>459</v>
+        <v>430</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="3">
-        <v>4</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="10" t="s">
+      <c r="J13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2837,46 +2821,46 @@
         <v>2020</v>
       </c>
       <c r="B14" s="35">
-        <v>43866</v>
+        <v>43857</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D14" s="44">
         <v>11</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>54</v>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>12</v>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="N14" s="7" t="s">
         <v>59</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2884,25 +2868,25 @@
         <v>2020</v>
       </c>
       <c r="B15" s="35">
-        <v>43857</v>
+        <v>43854</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D15" s="44">
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
+      <c r="E15" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2913,17 +2897,17 @@
       <c r="K15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>62</v>
+      <c r="L15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="4" t="s">
         <v>64</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2931,25 +2915,25 @@
         <v>2020</v>
       </c>
       <c r="B16" s="35">
-        <v>43854</v>
+        <v>43849</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D16" s="44">
         <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>61</v>
+        <v>454</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2963,9 +2947,7 @@
       <c r="L16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="M16" s="1"/>
       <c r="N16" s="7" t="s">
         <v>68</v>
       </c>
@@ -2978,10 +2960,10 @@
         <v>2020</v>
       </c>
       <c r="B17" s="35">
-        <v>43849</v>
+        <v>43848</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D17" s="44">
         <v>11</v>
@@ -2993,10 +2975,10 @@
         <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>459</v>
+        <v>434</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -3010,12 +2992,12 @@
       <c r="L17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17" s="6" t="s">
+      <c r="M17" s="7" t="s">
         <v>73</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -3023,43 +3005,45 @@
         <v>2020</v>
       </c>
       <c r="B18" s="35">
-        <v>43848</v>
+        <v>43846</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D18" s="44">
         <v>11</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G18" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H18" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="N18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3068,10 +3052,10 @@
         <v>2020</v>
       </c>
       <c r="B19" s="35">
-        <v>43846</v>
+        <v>43845</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D19" s="44">
         <v>11</v>
@@ -3079,34 +3063,32 @@
       <c r="E19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>71</v>
+      <c r="F19" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K19" s="3">
-        <v>3</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="N19" s="1"/>
+      <c r="O19" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3115,44 +3097,46 @@
         <v>2020</v>
       </c>
       <c r="B20" s="35">
-        <v>43845</v>
+        <v>43836</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D20" s="44">
         <v>11</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
       </c>
       <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N20" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="O20" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -3160,42 +3144,40 @@
         <v>2020</v>
       </c>
       <c r="B21" s="35">
-        <v>43836</v>
+        <v>43835</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D21" s="44">
         <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
       </c>
       <c r="J21" s="3">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="N21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="7" t="s">
         <v>91</v>
       </c>
       <c r="O21" s="4" t="s">
@@ -3204,13 +3186,13 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="19">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B22" s="35">
-        <v>43835</v>
+        <v>43825</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D22" s="44">
         <v>11</v>
@@ -3222,29 +3204,31 @@
         <v>94</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
       </c>
       <c r="J22" s="3">
-        <v>2</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="N22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -3252,25 +3236,25 @@
         <v>2019</v>
       </c>
       <c r="B23" s="35">
-        <v>43825</v>
+        <v>43822</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D23" s="44">
         <v>11</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>97</v>
+      <c r="E23" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
@@ -3285,11 +3269,9 @@
         <v>12</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="N23" s="1"/>
       <c r="O23" s="4" t="s">
         <v>102</v>
       </c>
@@ -3299,42 +3281,44 @@
         <v>2019</v>
       </c>
       <c r="B24" s="35">
-        <v>43822</v>
+        <v>43809</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D24" s="44">
         <v>11</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="7" t="s">
+      <c r="N24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="N24" s="1"/>
       <c r="O24" s="4" t="s">
         <v>106</v>
       </c>
@@ -3344,46 +3328,46 @@
         <v>2019</v>
       </c>
       <c r="B25" s="35">
-        <v>43809</v>
+        <v>43805</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D25" s="44">
         <v>11</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
+      <c r="E25" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
       </c>
       <c r="J25" s="3">
-        <v>4</v>
-      </c>
-      <c r="K25" s="3">
-        <v>2</v>
-      </c>
-      <c r="L25" s="3">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -3394,28 +3378,28 @@
         <v>43805</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D26" s="44">
         <v>11</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>89</v>
+        <v>447</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
       <c r="J26" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>12</v>
@@ -3423,12 +3407,10 @@
       <c r="L26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N26" s="7" t="s">
+      <c r="M26" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="N26" s="1"/>
       <c r="O26" s="4" t="s">
         <v>115</v>
       </c>
@@ -3438,31 +3420,31 @@
         <v>2019</v>
       </c>
       <c r="B27" s="35">
-        <v>43805</v>
+        <v>43798</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D27" s="44">
         <v>11</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="7" t="s">
         <v>117</v>
       </c>
+      <c r="F27" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="G27" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>23</v>
+        <v>442</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
       </c>
       <c r="J27" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>12</v>
@@ -3470,12 +3452,14 @@
       <c r="L27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="4" t="s">
+      <c r="M27" s="7" t="s">
         <v>119</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -3483,25 +3467,25 @@
         <v>2019</v>
       </c>
       <c r="B28" s="35">
-        <v>43803</v>
+        <v>43775</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D28" s="44">
         <v>11</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
+      <c r="E28" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
@@ -3516,11 +3500,11 @@
         <v>12</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="4" t="s">
-        <v>122</v>
+      <c r="O28" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -3528,31 +3512,31 @@
         <v>2019</v>
       </c>
       <c r="B29" s="35">
-        <v>43798</v>
+        <v>43775</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D29" s="44">
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="I29" s="3">
         <v>1</v>
       </c>
       <c r="J29" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>12</v>
@@ -3560,14 +3544,14 @@
       <c r="L29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>127</v>
+      <c r="M29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -3575,25 +3559,25 @@
         <v>2019</v>
       </c>
       <c r="B30" s="35">
-        <v>43775</v>
+        <v>43755</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D30" s="44">
         <v>11</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
@@ -3601,18 +3585,18 @@
       <c r="J30" s="3">
         <v>1</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>12</v>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="6" t="s">
-        <v>132</v>
+      <c r="O30" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3620,46 +3604,46 @@
         <v>2019</v>
       </c>
       <c r="B31" s="35">
-        <v>43775</v>
+        <v>43699</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D31" s="44">
         <v>11</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="3">
-        <v>5</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>135</v>
+      <c r="M31" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -3667,44 +3651,44 @@
         <v>2019</v>
       </c>
       <c r="B32" s="35">
-        <v>43755</v>
+        <v>43691</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D32" s="44">
         <v>11</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
       </c>
       <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -3712,25 +3696,25 @@
         <v>2019</v>
       </c>
       <c r="B33" s="35">
-        <v>43699</v>
+        <v>43689</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D33" s="44">
         <v>11</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
@@ -3738,20 +3722,18 @@
       <c r="J33" s="3">
         <v>1</v>
       </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>12</v>
+      <c r="K33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N33" s="1"/>
       <c r="O33" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3759,44 +3741,46 @@
         <v>2019</v>
       </c>
       <c r="B34" s="35">
-        <v>43691</v>
+        <v>43675</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D34" s="44">
         <v>11</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="I34" s="3">
         <v>1</v>
       </c>
       <c r="J34" s="3">
-        <v>8</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="O34" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3804,25 +3788,25 @@
         <v>2019</v>
       </c>
       <c r="B35" s="35">
-        <v>43689</v>
+        <v>43669</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D35" s="44">
         <v>11</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>12</v>
+        <v>154</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="I35" s="3">
         <v>1</v>
@@ -3837,11 +3821,11 @@
         <v>1</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="N35" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="N35" s="7"/>
       <c r="O35" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3849,46 +3833,44 @@
         <v>2019</v>
       </c>
       <c r="B36" s="35">
-        <v>43675</v>
+        <v>43651</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D36" s="44">
         <v>11</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>156</v>
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>89</v>
+        <v>436</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I36" s="3">
         <v>1</v>
       </c>
       <c r="J36" s="3">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>158</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N36" s="1"/>
       <c r="O36" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3896,44 +3878,46 @@
         <v>2019</v>
       </c>
       <c r="B37" s="35">
-        <v>43669</v>
+        <v>43640</v>
       </c>
       <c r="C37" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="44">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37" s="3">
+        <v>3</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="44">
-        <v>11</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N37" s="7"/>
+      <c r="N37" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="O37" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3941,44 +3925,44 @@
         <v>2019</v>
       </c>
       <c r="B38" s="35">
-        <v>43651</v>
+        <v>43634</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D38" s="44">
         <v>11</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>163</v>
+      <c r="E38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>164</v>
+        <v>434</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="I38" s="3">
         <v>1</v>
       </c>
       <c r="J38" s="3">
-        <v>3</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>165</v>
+      <c r="M38" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3986,31 +3970,31 @@
         <v>2019</v>
       </c>
       <c r="B39" s="35">
-        <v>43640</v>
+        <v>43628</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D39" s="44">
         <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
       </c>
       <c r="J39" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>12</v>
@@ -4019,13 +4003,11 @@
         <v>12</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N39" s="1"/>
       <c r="O39" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -4033,31 +4015,31 @@
         <v>2019</v>
       </c>
       <c r="B40" s="35">
-        <v>43634</v>
+        <v>43618</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D40" s="44">
         <v>11</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>174</v>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="I40" s="3">
         <v>1</v>
       </c>
       <c r="J40" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -4065,12 +4047,12 @@
       <c r="L40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="7" t="s">
-        <v>175</v>
+      <c r="M40" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="4" t="s">
-        <v>176</v>
+      <c r="O40" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -4078,25 +4060,25 @@
         <v>2019</v>
       </c>
       <c r="B41" s="35">
-        <v>43628</v>
+        <v>43613</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D41" s="44">
         <v>11</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
+      <c r="E41" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>178</v>
+        <v>459</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="I41" s="3">
         <v>1</v>
@@ -4107,15 +4089,17 @@
       <c r="K41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>12</v>
+      <c r="L41" s="3">
+        <v>1</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="N41" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="O41" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -4123,44 +4107,46 @@
         <v>2019</v>
       </c>
       <c r="B42" s="35">
-        <v>43618</v>
+        <v>43603</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D42" s="44">
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="I42" s="3">
         <v>1</v>
       </c>
       <c r="J42" s="3">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="15" t="s">
-        <v>183</v>
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -4168,25 +4154,25 @@
         <v>2019</v>
       </c>
       <c r="B43" s="35">
-        <v>43613</v>
+        <v>43589</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D43" s="44">
         <v>11</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>218</v>
+        <v>440</v>
       </c>
       <c r="I43" s="3">
         <v>1</v>
@@ -4197,17 +4183,15 @@
       <c r="K43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L43" s="3">
-        <v>1</v>
+      <c r="L43" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>187</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N43" s="1"/>
       <c r="O43" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -4215,25 +4199,25 @@
         <v>2019</v>
       </c>
       <c r="B44" s="35">
-        <v>43603</v>
+        <v>43583</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D44" s="44">
         <v>11</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>189</v>
+      <c r="E44" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I44" s="3">
         <v>1</v>
@@ -4241,20 +4225,18 @@
       <c r="J44" s="3">
         <v>1</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="N44" s="7" t="s">
-        <v>192</v>
-      </c>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="N44" s="1"/>
       <c r="O44" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -4262,25 +4244,25 @@
         <v>2019</v>
       </c>
       <c r="B45" s="35">
-        <v>43589</v>
+        <v>43581</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D45" s="44">
         <v>11</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="I45" s="3">
         <v>1</v>
@@ -4291,15 +4273,17 @@
       <c r="K45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="N45" s="1"/>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="O45" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4307,25 +4291,25 @@
         <v>2019</v>
       </c>
       <c r="B46" s="35">
-        <v>43583</v>
+        <v>43580</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D46" s="44">
         <v>11</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>198</v>
+      <c r="E46" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="I46" s="3">
         <v>1</v>
@@ -4340,11 +4324,13 @@
         <v>12</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="N46" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="O46" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -4352,46 +4338,44 @@
         <v>2019</v>
       </c>
       <c r="B47" s="35">
-        <v>43581</v>
+        <v>43572</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D47" s="44">
         <v>11</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>202</v>
+      <c r="E47" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="I47" s="3">
         <v>1</v>
       </c>
       <c r="J47" s="3">
-        <v>1</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>205</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="N47" s="7"/>
       <c r="O47" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -4399,25 +4383,25 @@
         <v>2019</v>
       </c>
       <c r="B48" s="35">
-        <v>43580</v>
+        <v>43553</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D48" s="44">
         <v>11</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
+      <c r="E48" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="I48" s="3">
         <v>1</v>
@@ -4431,14 +4415,14 @@
       <c r="L48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M48" s="7" t="s">
-        <v>208</v>
+      <c r="M48" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -4446,44 +4430,46 @@
         <v>2019</v>
       </c>
       <c r="B49" s="35">
-        <v>43572</v>
+        <v>43541</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D49" s="44">
         <v>11</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>211</v>
+      <c r="E49" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="I49" s="3">
         <v>1</v>
       </c>
       <c r="J49" s="3">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M49" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="N49" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="O49" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -4491,46 +4477,44 @@
         <v>2019</v>
       </c>
       <c r="B50" s="35">
-        <v>43553</v>
+        <v>43540</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D50" s="44">
         <v>11</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I50" s="3">
         <v>1</v>
       </c>
       <c r="J50" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K50" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N50" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="M50" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="N50" s="1"/>
       <c r="O50" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -4538,25 +4522,25 @@
         <v>2019</v>
       </c>
       <c r="B51" s="35">
-        <v>43541</v>
+        <v>43540</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D51" s="44">
         <v>11</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>120</v>
+      <c r="E51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>76</v>
+        <v>434</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="I51" s="3">
         <v>1</v>
@@ -4570,14 +4554,12 @@
       <c r="L51" s="3">
         <v>1</v>
       </c>
-      <c r="M51" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="M51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N51" s="1"/>
       <c r="O51" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -4585,44 +4567,46 @@
         <v>2019</v>
       </c>
       <c r="B52" s="35">
-        <v>43540</v>
+        <v>43536</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D52" s="44">
         <v>11</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="I52" s="3">
         <v>1</v>
       </c>
       <c r="J52" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K52" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="N52" s="1"/>
+        <v>230</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="O52" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -4630,25 +4614,25 @@
         <v>2019</v>
       </c>
       <c r="B53" s="35">
-        <v>43540</v>
+        <v>43528</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D53" s="44">
         <v>11</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>231</v>
+      <c r="E53" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>76</v>
+        <v>445</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="I53" s="3">
         <v>1</v>
@@ -4656,18 +4640,20 @@
       <c r="J53" s="3">
         <v>1</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="3">
-        <v>1</v>
+      <c r="K53" s="3">
+        <v>1</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N53" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="O53" s="4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -4675,25 +4661,25 @@
         <v>2019</v>
       </c>
       <c r="B54" s="35">
-        <v>43536</v>
+        <v>43525</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D54" s="44">
         <v>11</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -4701,20 +4687,18 @@
       <c r="J54" s="3">
         <v>1</v>
       </c>
-      <c r="K54" s="3">
-        <v>1</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>12</v>
+      <c r="K54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>237</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N54" s="1"/>
       <c r="O54" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -4722,25 +4706,25 @@
         <v>2019</v>
       </c>
       <c r="B55" s="35">
-        <v>43528</v>
+        <v>43511</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D55" s="44">
         <v>11</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="I55" s="3">
         <v>1</v>
@@ -4748,20 +4732,18 @@
       <c r="J55" s="3">
         <v>1</v>
       </c>
-      <c r="K55" s="3">
-        <v>1</v>
+      <c r="K55" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="O55" s="4" t="s">
+      <c r="M55" s="7" t="s">
         <v>244</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="17" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -4769,25 +4751,25 @@
         <v>2019</v>
       </c>
       <c r="B56" s="35">
-        <v>43525</v>
+        <v>43507</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D56" s="44">
         <v>11</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="I56" s="3">
         <v>1</v>
@@ -4795,18 +4777,20 @@
       <c r="J56" s="3">
         <v>1</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L56" s="3">
-        <v>1</v>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="N56" s="1"/>
+        <v>248</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="O56" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -4814,25 +4798,25 @@
         <v>2019</v>
       </c>
       <c r="B57" s="35">
-        <v>43511</v>
+        <v>43505</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D57" s="44">
         <v>11</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>248</v>
+      <c r="E57" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="I57" s="3">
         <v>1</v>
@@ -4847,11 +4831,13 @@
         <v>12</v>
       </c>
       <c r="M57" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="O57" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="N57" s="1"/>
-      <c r="O57" s="17" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -4859,25 +4845,25 @@
         <v>2019</v>
       </c>
       <c r="B58" s="35">
-        <v>43507</v>
+        <v>43502</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D58" s="44">
         <v>11</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>12</v>
+        <v>246</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="I58" s="3">
         <v>1</v>
@@ -4885,8 +4871,8 @@
       <c r="J58" s="3">
         <v>1</v>
       </c>
-      <c r="K58" s="3">
-        <v>1</v>
+      <c r="K58" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>12</v>
@@ -4897,7 +4883,7 @@
       <c r="N58" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="O58" s="4" t="s">
+      <c r="O58" s="18" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4906,46 +4892,44 @@
         <v>2019</v>
       </c>
       <c r="B59" s="35">
-        <v>43505</v>
+        <v>43500</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D59" s="44">
         <v>11</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>252</v>
+      <c r="E59" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="F59" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="7" t="s">
+      <c r="N59" s="7"/>
+      <c r="O59" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4953,136 +4937,134 @@
         <v>2019</v>
       </c>
       <c r="B60" s="35">
-        <v>43502</v>
+        <v>43485</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D60" s="44">
         <v>11</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>252</v>
+      <c r="E60" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="I60" s="3">
         <v>1</v>
       </c>
       <c r="J60" s="3">
-        <v>1</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="N60" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="O60" s="18" t="s">
+      <c r="N60" s="7"/>
+      <c r="O60" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="19">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B61" s="35">
-        <v>43500</v>
+        <v>43453</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D61" s="44">
         <v>11</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>257</v>
+      <c r="E61" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>253</v>
+        <v>438</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I61" s="3">
         <v>1</v>
       </c>
       <c r="J61" s="3">
-        <v>2</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="N61" s="7"/>
+        <v>265</v>
+      </c>
+      <c r="N61" s="1"/>
       <c r="O61" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="19">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B62" s="35">
-        <v>43485</v>
+        <v>43408</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D62" s="44">
         <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>266</v>
+        <v>438</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I62" s="3">
         <v>1</v>
       </c>
       <c r="J62" s="3">
-        <v>2</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M62" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="N62" s="7"/>
-      <c r="O62" s="4" t="s">
-        <v>268</v>
+      <c r="M62" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -5090,31 +5072,31 @@
         <v>2018</v>
       </c>
       <c r="B63" s="35">
-        <v>43453</v>
+        <v>43396</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D63" s="44">
         <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I63" s="3">
         <v>1</v>
       </c>
       <c r="J63" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>12</v>
@@ -5123,11 +5105,11 @@
         <v>12</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -5135,25 +5117,25 @@
         <v>2018</v>
       </c>
       <c r="B64" s="35">
-        <v>43408</v>
+        <v>43393</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D64" s="44">
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>89</v>
+        <v>438</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="I64" s="3">
         <v>1</v>
@@ -5161,18 +5143,18 @@
       <c r="J64" s="3">
         <v>1</v>
       </c>
-      <c r="K64" s="3" t="s">
-        <v>12</v>
+      <c r="K64" s="3">
+        <v>1</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="N64" s="1"/>
-      <c r="O64" s="14" t="s">
-        <v>276</v>
+      <c r="M64" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="N64" s="7"/>
+      <c r="O64" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -5180,44 +5162,44 @@
         <v>2018</v>
       </c>
       <c r="B65" s="35">
-        <v>43396</v>
+        <v>43390</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D65" s="44">
         <v>11</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>277</v>
+      <c r="E65" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>89</v>
+        <v>451</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="I65" s="3">
         <v>1</v>
       </c>
       <c r="J65" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K65" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="N65" s="1"/>
-      <c r="O65" s="4" t="s">
-        <v>280</v>
+      <c r="M65" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="N65" s="7"/>
+      <c r="O65" s="20" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -5225,25 +5207,25 @@
         <v>2018</v>
       </c>
       <c r="B66" s="35">
-        <v>43393</v>
+        <v>43335</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D66" s="44">
         <v>11</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>281</v>
+      <c r="E66" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="I66" s="3">
         <v>1</v>
@@ -5258,11 +5240,13 @@
         <v>12</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="N66" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="O66" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -5270,25 +5254,25 @@
         <v>2018</v>
       </c>
       <c r="B67" s="35">
-        <v>43390</v>
+        <v>43312</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D67" s="44">
         <v>11</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>12</v>
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>286</v>
+        <v>95</v>
       </c>
       <c r="I67" s="3">
         <v>1</v>
@@ -5303,11 +5287,11 @@
         <v>12</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N67" s="7"/>
-      <c r="O67" s="20" t="s">
-        <v>288</v>
+      <c r="O67" s="12" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -5315,25 +5299,25 @@
         <v>2018</v>
       </c>
       <c r="B68" s="35">
-        <v>43335</v>
+        <v>43245</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D68" s="44">
         <v>11</v>
       </c>
-      <c r="E68" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>290</v>
+      <c r="E68" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>241</v>
+        <v>439</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="I68" s="3">
         <v>1</v>
@@ -5347,14 +5331,12 @@
       <c r="L68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M68" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="N68" s="7" t="s">
-        <v>292</v>
-      </c>
+      <c r="M68" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N68" s="1"/>
       <c r="O68" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -5362,44 +5344,44 @@
         <v>2018</v>
       </c>
       <c r="B69" s="35">
-        <v>43312</v>
+        <v>43229</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D69" s="44">
         <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>99</v>
+        <v>459</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="I69" s="3">
         <v>1</v>
       </c>
-      <c r="J69" s="3">
-        <v>1</v>
-      </c>
-      <c r="K69" s="3">
-        <v>1</v>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M69" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="N69" s="7"/>
-      <c r="O69" s="12" t="s">
-        <v>296</v>
+      <c r="M69" s="1"/>
+      <c r="N69" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -5407,39 +5389,39 @@
         <v>2018</v>
       </c>
       <c r="B70" s="35">
-        <v>43245</v>
+        <v>43225</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D70" s="44">
         <v>11</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="I70" s="3">
         <v>1</v>
       </c>
-      <c r="J70" s="3">
-        <v>1</v>
-      </c>
-      <c r="K70" s="3">
-        <v>1</v>
+      <c r="J70" s="2">
+        <v>9</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M70" s="21" t="s">
         <v>299</v>
       </c>
       <c r="N70" s="1"/>
@@ -5452,44 +5434,44 @@
         <v>2018</v>
       </c>
       <c r="B71" s="35">
-        <v>43229</v>
+        <v>43224</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D71" s="44">
         <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I71" s="3">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
+        <v>27</v>
+      </c>
+      <c r="K71" s="2">
+        <v>5</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I71" s="3">
-        <v>1</v>
-      </c>
-      <c r="J71" s="2">
-        <v>1</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M71" s="1"/>
-      <c r="N71" s="17" t="s">
-        <v>303</v>
-      </c>
+      <c r="N71" s="1"/>
       <c r="O71" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -5497,44 +5479,44 @@
         <v>2018</v>
       </c>
       <c r="B72" s="35">
-        <v>43225</v>
+        <v>43215</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D72" s="44">
         <v>11</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="I72" s="3">
         <v>1</v>
       </c>
-      <c r="J72" s="2">
-        <v>9</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>12</v>
+      <c r="J72" s="3">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
+        <v>3</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M72" s="21" t="s">
+      <c r="M72" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N72" s="1"/>
+      <c r="O72" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="N72" s="1"/>
-      <c r="O72" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -5542,44 +5524,43 @@
         <v>2018</v>
       </c>
       <c r="B73" s="35">
-        <v>43224</v>
+        <v>43193</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D73" s="44">
         <v>11</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="I73" s="3">
         <v>1</v>
       </c>
-      <c r="J73" s="2">
-        <v>27</v>
-      </c>
-      <c r="K73" s="2">
-        <v>5</v>
-      </c>
-      <c r="L73" s="2">
-        <v>1</v>
+      <c r="J73" s="3">
+        <v>1</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="N73" s="1"/>
-      <c r="O73" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
+      </c>
+      <c r="O73" s="14" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -5587,44 +5568,44 @@
         <v>2018</v>
       </c>
       <c r="B74" s="35">
-        <v>43215</v>
+        <v>43193</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D74" s="44">
         <v>11</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N74" s="1"/>
+      <c r="O74" s="14" t="s">
         <v>309</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="3">
-        <v>1</v>
-      </c>
-      <c r="J74" s="3">
-        <v>3</v>
-      </c>
-      <c r="K74" s="3">
-        <v>3</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="17" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -5632,42 +5613,45 @@
         <v>2018</v>
       </c>
       <c r="B75" s="35">
-        <v>43193</v>
+        <v>43192</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D75" s="44">
         <v>11</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="7" t="s">
         <v>312</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" s="3">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3">
+        <v>2</v>
+      </c>
+      <c r="K75" s="3">
+        <v>1</v>
+      </c>
+      <c r="L75" s="3">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I75" s="3">
-        <v>1</v>
-      </c>
-      <c r="J75" s="3">
-        <v>1</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="O75" s="14" t="s">
+      <c r="O75" s="4" t="s">
         <v>315</v>
       </c>
     </row>
@@ -5676,44 +5660,44 @@
         <v>2018</v>
       </c>
       <c r="B76" s="35">
-        <v>43193</v>
+        <v>43132</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D76" s="44">
         <v>11</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>313</v>
+      <c r="F76" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>56</v>
+        <v>429</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="I76" s="3">
         <v>1</v>
       </c>
-      <c r="J76" s="3">
-        <v>1</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="14" t="s">
-        <v>315</v>
+      <c r="J76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="N76" s="7"/>
+      <c r="O76" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -5721,25 +5705,25 @@
         <v>2018</v>
       </c>
       <c r="B77" s="35">
-        <v>43192</v>
+        <v>43129</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D77" s="44">
         <v>11</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>318</v>
+      <c r="E77" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>56</v>
+        <v>457</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I77" s="3">
         <v>1</v>
@@ -5747,20 +5731,18 @@
       <c r="J77" s="3">
         <v>2</v>
       </c>
-      <c r="K77" s="3">
-        <v>1</v>
-      </c>
-      <c r="L77" s="3">
-        <v>1</v>
+      <c r="K77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N77" s="1"/>
       <c r="O77" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -5768,76 +5750,76 @@
         <v>2018</v>
       </c>
       <c r="B78" s="35">
-        <v>43132</v>
+        <v>43126</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D78" s="44">
         <v>11</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F78" s="7" t="s">
         <v>323</v>
       </c>
+      <c r="F78" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G78" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="I78" s="3">
         <v>1</v>
       </c>
-      <c r="J78" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K78" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L78" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M78" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N78" s="7"/>
+      <c r="J78" s="3">
+        <v>2</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N78" s="4"/>
       <c r="O78" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="19">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B79" s="35">
-        <v>43129</v>
+        <v>43090</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D79" s="44">
         <v>11</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>309</v>
+      <c r="E79" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>17</v>
+        <v>432</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="I79" s="3">
         <v>1</v>
       </c>
       <c r="J79" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>12</v>
@@ -5846,56 +5828,58 @@
         <v>12</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N79" s="1"/>
+        <v>330</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>331</v>
+      </c>
       <c r="O79" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="19">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B80" s="35">
-        <v>43126</v>
+        <v>43069</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D80" s="44">
         <v>11</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>12</v>
+        <v>333</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="I80" s="3">
         <v>1</v>
       </c>
       <c r="J80" s="3">
-        <v>2</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K80" s="3">
+        <v>1</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M80" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="N80" s="4"/>
+      <c r="M80" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="N80" s="7"/>
       <c r="O80" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -5903,31 +5887,31 @@
         <v>2017</v>
       </c>
       <c r="B81" s="35">
-        <v>43090</v>
+        <v>42982</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D81" s="44">
         <v>11</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>334</v>
+      <c r="E81" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>335</v>
+        <v>436</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I81" s="3">
         <v>1</v>
       </c>
       <c r="J81" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>12</v>
@@ -5936,13 +5920,11 @@
         <v>12</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>337</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N81" s="1"/>
       <c r="O81" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5950,25 +5932,25 @@
         <v>2017</v>
       </c>
       <c r="B82" s="35">
-        <v>43069</v>
+        <v>42980</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D82" s="44">
         <v>11</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I82" s="3">
         <v>1</v>
@@ -5976,18 +5958,20 @@
       <c r="J82" s="3">
         <v>1</v>
       </c>
-      <c r="K82" s="3">
-        <v>1</v>
+      <c r="K82" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="N82" s="7"/>
+        <v>343</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>344</v>
+      </c>
       <c r="O82" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -5995,25 +5979,25 @@
         <v>2017</v>
       </c>
       <c r="B83" s="35">
-        <v>42982</v>
+        <v>42957</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D83" s="44">
         <v>11</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>343</v>
+      <c r="E83" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="I83" s="3">
         <v>1</v>
@@ -6028,11 +6012,13 @@
         <v>12</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="N83" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="O83" s="4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -6040,31 +6026,31 @@
         <v>2017</v>
       </c>
       <c r="B84" s="35">
-        <v>42980</v>
+        <v>42951</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D84" s="44">
         <v>11</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>348</v>
+      <c r="E84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>213</v>
+        <v>444</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I84" s="3">
         <v>1</v>
       </c>
       <c r="J84" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>12</v>
@@ -6072,14 +6058,12 @@
       <c r="L84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M84" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="N84" s="7" t="s">
-        <v>350</v>
-      </c>
+      <c r="M84" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N84" s="1"/>
       <c r="O84" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -6087,25 +6071,25 @@
         <v>2017</v>
       </c>
       <c r="B85" s="35">
-        <v>42957</v>
+        <v>42927</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D85" s="44">
         <v>11</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>352</v>
+      <c r="E85" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="I85" s="3">
         <v>1</v>
@@ -6116,17 +6100,17 @@
       <c r="K85" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L85" s="3" t="s">
-        <v>12</v>
+      <c r="L85" s="3">
+        <v>1</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -6134,10 +6118,10 @@
         <v>2017</v>
       </c>
       <c r="B86" s="35">
-        <v>42951</v>
+        <v>42743</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D86" s="44">
         <v>11</v>
@@ -6146,58 +6130,60 @@
         <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I86" s="3">
         <v>1</v>
       </c>
       <c r="J86" s="3">
+        <v>5</v>
+      </c>
+      <c r="K86" s="3">
         <v>3</v>
       </c>
-      <c r="K86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>12</v>
+      <c r="L86" s="3">
+        <v>2</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="N86" s="1"/>
-      <c r="O86" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O86" s="63" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="19">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B87" s="35">
-        <v>42927</v>
+        <v>42710</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D87" s="44">
         <v>11</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I87" s="3">
         <v>1</v>
@@ -6205,157 +6191,157 @@
       <c r="J87" s="3">
         <v>1</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L87" s="3">
-        <v>1</v>
+      <c r="K87" s="3">
+        <v>1</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N87" s="1" t="s">
         <v>363</v>
       </c>
+      <c r="N87" s="1"/>
       <c r="O87" s="4" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="19">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B88" s="35">
-        <v>42743</v>
+        <v>42709</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D88" s="44">
         <v>11</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>12</v>
+        <v>365</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
       </c>
       <c r="J88" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K88" s="3">
-        <v>3</v>
-      </c>
-      <c r="L88" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="N88" s="1"/>
+      <c r="O88" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="O88" s="63" t="s">
-        <v>488</v>
-      </c>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="19">
+      <c r="A89" s="34">
         <v>2016</v>
       </c>
-      <c r="B89" s="35">
-        <v>42710</v>
+      <c r="B89" s="36">
+        <v>42614</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D89" s="44">
         <v>11</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="E89" s="22" t="s">
         <v>368</v>
       </c>
+      <c r="F89" s="23" t="s">
+        <v>369</v>
+      </c>
       <c r="G89" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>76</v>
+        <v>431</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="I89" s="3">
         <v>1</v>
       </c>
-      <c r="J89" s="3">
-        <v>1</v>
-      </c>
-      <c r="K89" s="3">
-        <v>1</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="N89" s="1"/>
+      <c r="J89" s="25">
+        <v>2</v>
+      </c>
+      <c r="K89" s="25">
+        <v>1</v>
+      </c>
+      <c r="L89" s="25">
+        <v>1</v>
+      </c>
+      <c r="M89" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="N89" s="23" t="s">
+        <v>371</v>
+      </c>
       <c r="O89" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="19">
+      <c r="A90" s="34">
         <v>2016</v>
       </c>
-      <c r="B90" s="35">
-        <v>42709</v>
+      <c r="B90" s="51">
+        <v>42579</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D90" s="44">
         <v>11</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>12</v>
+      <c r="E90" s="52" t="s">
+        <v>470</v>
+      </c>
+      <c r="F90" s="57" t="s">
+        <v>471</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>61</v>
+        <v>438</v>
+      </c>
+      <c r="H90" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="I90" s="3">
         <v>1</v>
       </c>
-      <c r="J90" s="3">
-        <v>1</v>
-      </c>
-      <c r="K90" s="3">
-        <v>1</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N90" s="1"/>
-      <c r="O90" s="4" t="s">
-        <v>373</v>
+      <c r="J90" s="25">
+        <v>1</v>
+      </c>
+      <c r="K90" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M90" s="56" t="s">
+        <v>472</v>
+      </c>
+      <c r="N90" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O90" s="53" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -6363,72 +6349,70 @@
         <v>2016</v>
       </c>
       <c r="B91" s="36">
-        <v>42614</v>
+        <v>42445</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D91" s="44">
         <v>11</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F91" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="F91" s="23" t="s">
+      <c r="G91" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" s="3">
+        <v>1</v>
+      </c>
+      <c r="J91" s="25">
+        <v>1</v>
+      </c>
+      <c r="K91" s="25">
+        <v>1</v>
+      </c>
+      <c r="L91" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M91" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H91" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="I91" s="3">
-        <v>1</v>
-      </c>
-      <c r="J91" s="25">
-        <v>2</v>
-      </c>
-      <c r="K91" s="25">
-        <v>1</v>
-      </c>
-      <c r="L91" s="25">
-        <v>1</v>
-      </c>
-      <c r="M91" s="23" t="s">
+      <c r="N91" s="23"/>
+      <c r="O91" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="N91" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="O91" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="34">
         <v>2016</v>
       </c>
-      <c r="B92" s="51">
-        <v>42579</v>
+      <c r="B92" s="36">
+        <v>42429</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D92" s="44">
         <v>11</v>
       </c>
-      <c r="E92" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="F92" s="57" t="s">
-        <v>477</v>
+      <c r="E92" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>378</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="H92" s="24" t="s">
-        <v>89</v>
+      <c r="H92" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="I92" s="3">
         <v>1</v>
@@ -6442,14 +6426,12 @@
       <c r="L92" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M92" s="56" t="s">
-        <v>478</v>
-      </c>
-      <c r="N92" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O92" s="53" t="s">
-        <v>479</v>
+      <c r="M92" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="N92" s="23"/>
+      <c r="O92" s="14" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -6457,44 +6439,46 @@
         <v>2016</v>
       </c>
       <c r="B93" s="36">
-        <v>42445</v>
+        <v>42414</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D93" s="44">
         <v>11</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I93" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" s="25">
-        <v>1</v>
-      </c>
-      <c r="K93" s="25">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K93" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="L93" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M93" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="N93" s="23"/>
+      <c r="M93" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="N93" s="23" t="s">
+        <v>384</v>
+      </c>
       <c r="O93" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -6502,25 +6486,25 @@
         <v>2016</v>
       </c>
       <c r="B94" s="36">
-        <v>42429</v>
+        <v>42382</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D94" s="44">
         <v>11</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>384</v>
+        <v>386</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H94" s="26" t="s">
-        <v>36</v>
+        <v>458</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>222</v>
       </c>
       <c r="I94" s="3">
         <v>1</v>
@@ -6535,240 +6519,240 @@
         <v>12</v>
       </c>
       <c r="M94" s="23" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N94" s="23"/>
-      <c r="O94" s="14" t="s">
-        <v>386</v>
+      <c r="O94" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="34">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B95" s="36">
-        <v>42414</v>
+        <v>42320</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D95" s="44">
         <v>11</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I95" s="3">
         <v>1</v>
       </c>
       <c r="J95" s="25">
-        <v>2</v>
-      </c>
-      <c r="K95" s="25" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K95" s="25">
+        <v>1</v>
       </c>
       <c r="L95" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M95" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="N95" s="23" t="s">
-        <v>390</v>
+      <c r="M95" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="N95" s="28" t="s">
+        <v>392</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="34">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B96" s="36">
-        <v>42382</v>
+        <v>42178</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D96" s="44">
         <v>11</v>
       </c>
-      <c r="E96" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>12</v>
+      <c r="E96" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>395</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="I96" s="3">
         <v>1</v>
       </c>
-      <c r="J96" s="25">
-        <v>1</v>
-      </c>
-      <c r="K96" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L96" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M96" s="23" t="s">
-        <v>393</v>
+      <c r="J96" s="29">
+        <v>2</v>
+      </c>
+      <c r="K96" s="29">
+        <v>1</v>
+      </c>
+      <c r="L96" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M96" s="28" t="s">
+        <v>396</v>
       </c>
       <c r="N96" s="23"/>
       <c r="O96" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="34">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B97" s="36">
-        <v>42320</v>
+        <v>41970</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D97" s="44">
         <v>11</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I97" s="3">
         <v>1</v>
       </c>
       <c r="J97" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K97" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L97" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M97" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="N97" s="28" t="s">
-        <v>398</v>
-      </c>
+      <c r="M97" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="N97" s="23"/>
       <c r="O97" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="34">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B98" s="36">
-        <v>42178</v>
+        <v>41852</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D98" s="44">
         <v>11</v>
       </c>
-      <c r="E98" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="F98" s="28" t="s">
-        <v>401</v>
+      <c r="E98" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>403</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I98" s="3">
         <v>1</v>
       </c>
-      <c r="J98" s="29">
-        <v>2</v>
-      </c>
-      <c r="K98" s="29">
-        <v>1</v>
-      </c>
-      <c r="L98" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M98" s="28" t="s">
-        <v>402</v>
+      <c r="J98" s="25">
+        <v>4</v>
+      </c>
+      <c r="K98" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L98" s="25">
+        <v>4</v>
+      </c>
+      <c r="M98" s="23" t="s">
+        <v>404</v>
       </c>
       <c r="N98" s="23"/>
       <c r="O98" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="34">
         <v>2014</v>
       </c>
-      <c r="B99" s="36">
-        <v>41970</v>
+      <c r="B99" s="51">
+        <v>41779</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D99" s="44">
         <v>11</v>
       </c>
-      <c r="E99" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>405</v>
+      <c r="E99" s="55" t="s">
+        <v>466</v>
+      </c>
+      <c r="F99" s="54" t="s">
+        <v>467</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I99" s="3">
         <v>1</v>
       </c>
       <c r="J99" s="25">
-        <v>4</v>
-      </c>
-      <c r="K99" s="25">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K99" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="L99" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M99" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="N99" s="23"/>
-      <c r="O99" s="4" t="s">
-        <v>407</v>
+      <c r="M99" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="N99" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O99" s="53" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -6776,209 +6760,208 @@
         <v>2014</v>
       </c>
       <c r="B100" s="36">
-        <v>41852</v>
+        <v>41674</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D100" s="44">
         <v>11</v>
       </c>
       <c r="E100" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="H100" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="F100" s="23" t="s">
+      <c r="I100" s="3">
+        <v>1</v>
+      </c>
+      <c r="J100" s="25">
+        <v>2</v>
+      </c>
+      <c r="K100" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L100" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M100" s="23" t="s">
         <v>409</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H100" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1</v>
-      </c>
-      <c r="J100" s="25">
-        <v>4</v>
-      </c>
-      <c r="K100" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L100" s="25">
-        <v>4</v>
-      </c>
-      <c r="M100" s="23" t="s">
-        <v>410</v>
       </c>
       <c r="N100" s="23"/>
       <c r="O100" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="62">
+        <v>2013</v>
+      </c>
+      <c r="B101" s="49">
+        <v>41528</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" s="44">
+        <v>11</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="50" t="s">
+        <v>462</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1</v>
+      </c>
+      <c r="J101" s="25">
+        <v>4</v>
+      </c>
+      <c r="K101" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M101" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O101" s="63" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="62">
+        <v>2012</v>
+      </c>
+      <c r="B102" s="51">
+        <v>40966</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D102" s="44">
+        <v>11</v>
+      </c>
+      <c r="E102" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="F102" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="H102" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1</v>
+      </c>
+      <c r="J102" s="25">
+        <v>1</v>
+      </c>
+      <c r="K102" s="25">
+        <v>0</v>
+      </c>
+      <c r="L102" s="25">
+        <v>1</v>
+      </c>
+      <c r="M102" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="O102" s="53" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="34">
+        <v>2012</v>
+      </c>
+      <c r="B103" s="37">
+        <v>2012</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D103" s="44">
+        <v>11</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="F103" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H103" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="I103" s="3">
+        <v>1</v>
+      </c>
+      <c r="J103" s="30">
+        <v>3</v>
+      </c>
+      <c r="K103" s="31">
+        <v>1</v>
+      </c>
+      <c r="L103" s="31">
+        <v>1</v>
+      </c>
+      <c r="M103" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="O103" s="14" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="34">
-        <v>2014</v>
-      </c>
-      <c r="B101" s="51">
-        <v>41779</v>
-      </c>
-      <c r="C101" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D101" s="44">
-        <v>11</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>472</v>
-      </c>
-      <c r="F101" s="54" t="s">
-        <v>473</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1</v>
-      </c>
-      <c r="J101" s="25">
-        <v>1</v>
-      </c>
-      <c r="K101" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L101" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M101" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="N101" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O101" s="53" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="34">
-        <v>2014</v>
-      </c>
-      <c r="B102" s="36">
-        <v>41674</v>
-      </c>
-      <c r="C102" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D102" s="44">
-        <v>11</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="F102" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="G102" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="H102" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1</v>
-      </c>
-      <c r="J102" s="25">
-        <v>2</v>
-      </c>
-      <c r="K102" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L102" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M102" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="N102" s="23"/>
-      <c r="O102" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="62">
-        <v>2013</v>
-      </c>
-      <c r="B103" s="49">
-        <v>41528</v>
-      </c>
-      <c r="C103" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D103" s="44">
-        <v>11</v>
-      </c>
-      <c r="E103" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="H103" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I103" s="3">
-        <v>1</v>
-      </c>
-      <c r="J103" s="25">
-        <v>4</v>
-      </c>
-      <c r="K103" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L103" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M103" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N103" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O103" s="63" t="s">
-        <v>486</v>
-      </c>
-    </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="62">
-        <v>2012</v>
-      </c>
-      <c r="B104" s="51">
-        <v>40966</v>
+      <c r="A104" s="34">
+        <v>2011</v>
+      </c>
+      <c r="B104" s="37">
+        <v>2011</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D104" s="44">
         <v>11</v>
       </c>
-      <c r="E104" s="52" t="s">
-        <v>469</v>
-      </c>
-      <c r="F104" s="52" t="s">
-        <v>470</v>
-      </c>
-      <c r="G104" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="H104" s="24" t="s">
-        <v>164</v>
+      <c r="E104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H104" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="I104" s="3">
         <v>1</v>
@@ -6986,90 +6969,85 @@
       <c r="J104" s="25">
         <v>1</v>
       </c>
-      <c r="K104" s="25">
-        <v>0</v>
+      <c r="K104" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="L104" s="25">
         <v>1</v>
       </c>
-      <c r="M104" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N104" s="52" t="s">
-        <v>471</v>
-      </c>
-      <c r="O104" s="53" t="s">
-        <v>487</v>
+      <c r="M104" s="23"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="14" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="34">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B105" s="37">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D105" s="44">
         <v>11</v>
       </c>
-      <c r="E105" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="F105" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>465</v>
+      <c r="E105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="46" t="s">
+        <v>450</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>218</v>
+        <v>414</v>
       </c>
       <c r="I105" s="3">
         <v>1</v>
       </c>
       <c r="J105" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K105" s="31">
-        <v>1</v>
-      </c>
-      <c r="L105" s="31">
-        <v>1</v>
-      </c>
-      <c r="M105" s="33" t="s">
-        <v>419</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L105" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M105" s="32"/>
+      <c r="N105" s="32"/>
       <c r="O105" s="14" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="34">
-        <v>2011</v>
-      </c>
-      <c r="B106" s="37">
-        <v>2011</v>
+        <v>2010</v>
+      </c>
+      <c r="B106" s="36">
+        <v>40318</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D106" s="44">
         <v>11</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>12</v>
+      <c r="E106" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>416</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H106" s="26" t="s">
-        <v>17</v>
+        <v>438</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="I106" s="3">
         <v>1</v>
@@ -7077,314 +7055,226 @@
       <c r="J106" s="25">
         <v>1</v>
       </c>
-      <c r="K106" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L106" s="25">
-        <v>1</v>
-      </c>
-      <c r="M106" s="23"/>
-      <c r="N106" s="32"/>
-      <c r="O106" s="14" t="s">
+      <c r="K106" s="25">
+        <v>1</v>
+      </c>
+      <c r="L106" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M106" s="23" t="s">
         <v>417</v>
+      </c>
+      <c r="N106" s="23"/>
+      <c r="O106" s="4" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="34">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B107" s="37">
-        <v>2011</v>
+        <v>39995</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D107" s="44">
         <v>11</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>12</v>
+      <c r="E107" s="23" t="s">
+        <v>419</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G107" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="H107" s="26" t="s">
+      <c r="G107" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I107" s="3">
+        <v>1</v>
+      </c>
+      <c r="J107" s="25">
+        <v>14</v>
+      </c>
+      <c r="K107" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L107" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M107" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="I107" s="3">
-        <v>1</v>
-      </c>
-      <c r="J107" s="30">
-        <v>2</v>
-      </c>
-      <c r="K107" s="31">
-        <v>2</v>
-      </c>
-      <c r="L107" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M107" s="32"/>
-      <c r="N107" s="32"/>
-      <c r="O107" s="14" t="s">
-        <v>417</v>
+      <c r="N107" s="23"/>
+      <c r="O107" s="20" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="34">
-        <v>2010</v>
-      </c>
-      <c r="B108" s="36">
-        <v>40318</v>
+        <v>2009</v>
+      </c>
+      <c r="B108" s="37">
+        <v>39969</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D108" s="44">
         <v>11</v>
       </c>
-      <c r="E108" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="F108" s="23" t="s">
+      <c r="E108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I108" s="3">
+        <v>1</v>
+      </c>
+      <c r="J108" s="25">
+        <v>2</v>
+      </c>
+      <c r="K108" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L108" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M108" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H108" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I108" s="3">
-        <v>1</v>
-      </c>
-      <c r="J108" s="25">
-        <v>1</v>
-      </c>
-      <c r="K108" s="25">
-        <v>1</v>
-      </c>
-      <c r="L108" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M108" s="23" t="s">
+      <c r="N108" s="23"/>
+      <c r="O108" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="N108" s="23"/>
-      <c r="O108" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="34">
-        <v>2009</v>
-      </c>
-      <c r="B109" s="37">
-        <v>39995</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D109" s="44">
-        <v>11</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H109" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="I109" s="3">
-        <v>1</v>
-      </c>
-      <c r="J109" s="25">
-        <v>14</v>
-      </c>
-      <c r="K109" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L109" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M109" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="N109" s="23"/>
-      <c r="O109" s="20" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="34">
-        <v>2009</v>
-      </c>
-      <c r="B110" s="37">
-        <v>39969</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D110" s="44">
-        <v>11</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I110" s="3">
-        <v>1</v>
-      </c>
-      <c r="J110" s="25">
-        <v>2</v>
-      </c>
-      <c r="K110" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L110" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M110" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="N110" s="23"/>
-      <c r="O110" s="20" t="s">
-        <v>429</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O110" xr:uid="{51CCA004-4EBA-DB40-B10C-5F8D6554DBC2}"/>
+  <autoFilter ref="A1:O108" xr:uid="{51CCA004-4EBA-DB40-B10C-5F8D6554DBC2}"/>
   <hyperlinks>
-    <hyperlink ref="O11" r:id="rId1" xr:uid="{EBBF2AB6-87FC-E040-8926-9C2F183AF376}"/>
-    <hyperlink ref="O74" r:id="rId2" xr:uid="{D5F84E9F-EE09-9449-B391-C0700606B07E}"/>
-    <hyperlink ref="N11" r:id="rId3" xr:uid="{2AE0F851-C9A5-3549-9644-34486831A1C1}"/>
-    <hyperlink ref="O9" r:id="rId4" xr:uid="{B804790A-0FF2-AE4D-8EA9-12439AFD55FE}"/>
-    <hyperlink ref="O17" r:id="rId5" xr:uid="{3B88E5F2-A0BF-534D-9FAC-8A826F055F8B}"/>
-    <hyperlink ref="O13" r:id="rId6" xr:uid="{20DC7A21-4189-B24B-A4AA-3707DF6129A9}"/>
-    <hyperlink ref="O19" r:id="rId7" xr:uid="{9BBCD56B-FAA4-0442-9984-3144B90B74E2}"/>
-    <hyperlink ref="O10" r:id="rId8" xr:uid="{04F5EBF0-A4AB-9348-BBE0-9DA876DBBCB9}"/>
-    <hyperlink ref="O21" r:id="rId9" xr:uid="{FD5FD7D2-2217-1C4D-AB0C-0D578AB02313}"/>
-    <hyperlink ref="O23" r:id="rId10" xr:uid="{50DF3771-3014-FF45-B91B-554D92407AF7}"/>
-    <hyperlink ref="O26" r:id="rId11" xr:uid="{EAE7C061-D124-5540-AB54-A115A8971306}"/>
-    <hyperlink ref="O25" r:id="rId12" xr:uid="{7994FC08-B203-8F4D-8B61-DF35892909A1}"/>
-    <hyperlink ref="O8" r:id="rId13" xr:uid="{0B51B5D8-3906-D344-9CB0-AF632E406A90}"/>
-    <hyperlink ref="O22" r:id="rId14" xr:uid="{CB115356-E38B-0A4F-BD2E-E1DD14EB77AB}"/>
-    <hyperlink ref="O29" r:id="rId15" xr:uid="{C42E7FD4-0497-7A45-B619-076E8B885FE9}"/>
-    <hyperlink ref="O34" r:id="rId16" xr:uid="{1FEA88E9-DD5E-864B-9EB7-9B7FADE7288C}"/>
-    <hyperlink ref="O30" r:id="rId17" xr:uid="{434827F6-5116-624C-8FEA-5573D5F3D845}"/>
+    <hyperlink ref="O10" r:id="rId1" xr:uid="{EBBF2AB6-87FC-E040-8926-9C2F183AF376}"/>
+    <hyperlink ref="O72" r:id="rId2" xr:uid="{D5F84E9F-EE09-9449-B391-C0700606B07E}"/>
+    <hyperlink ref="N10" r:id="rId3" xr:uid="{2AE0F851-C9A5-3549-9644-34486831A1C1}"/>
+    <hyperlink ref="O8" r:id="rId4" xr:uid="{B804790A-0FF2-AE4D-8EA9-12439AFD55FE}"/>
+    <hyperlink ref="O16" r:id="rId5" xr:uid="{3B88E5F2-A0BF-534D-9FAC-8A826F055F8B}"/>
+    <hyperlink ref="O12" r:id="rId6" xr:uid="{20DC7A21-4189-B24B-A4AA-3707DF6129A9}"/>
+    <hyperlink ref="O18" r:id="rId7" xr:uid="{9BBCD56B-FAA4-0442-9984-3144B90B74E2}"/>
+    <hyperlink ref="O9" r:id="rId8" xr:uid="{04F5EBF0-A4AB-9348-BBE0-9DA876DBBCB9}"/>
+    <hyperlink ref="O20" r:id="rId9" xr:uid="{FD5FD7D2-2217-1C4D-AB0C-0D578AB02313}"/>
+    <hyperlink ref="O22" r:id="rId10" xr:uid="{50DF3771-3014-FF45-B91B-554D92407AF7}"/>
+    <hyperlink ref="O25" r:id="rId11" xr:uid="{EAE7C061-D124-5540-AB54-A115A8971306}"/>
+    <hyperlink ref="O24" r:id="rId12" xr:uid="{7994FC08-B203-8F4D-8B61-DF35892909A1}"/>
+    <hyperlink ref="O7" r:id="rId13" xr:uid="{0B51B5D8-3906-D344-9CB0-AF632E406A90}"/>
+    <hyperlink ref="O21" r:id="rId14" xr:uid="{CB115356-E38B-0A4F-BD2E-E1DD14EB77AB}"/>
+    <hyperlink ref="O27" r:id="rId15" xr:uid="{C42E7FD4-0497-7A45-B619-076E8B885FE9}"/>
+    <hyperlink ref="O32" r:id="rId16" xr:uid="{1FEA88E9-DD5E-864B-9EB7-9B7FADE7288C}"/>
+    <hyperlink ref="O28" r:id="rId17" xr:uid="{434827F6-5116-624C-8FEA-5573D5F3D845}"/>
     <hyperlink ref="O5" r:id="rId18" xr:uid="{826D62DE-B107-B745-A894-94CBFC44BEB7}"/>
     <hyperlink ref="O6" r:id="rId19" xr:uid="{673F422A-5B08-C349-B716-023E7432D859}"/>
-    <hyperlink ref="O79" r:id="rId20" xr:uid="{A399BD4B-BF3A-2840-9168-829E19068186}"/>
-    <hyperlink ref="O53" r:id="rId21" xr:uid="{F3A48F46-259E-754E-8909-5CA77E6A4047}"/>
-    <hyperlink ref="O18" r:id="rId22" xr:uid="{EF4151BF-C8EB-2C4E-AA75-DE59846EB7D3}"/>
-    <hyperlink ref="O57" r:id="rId23" xr:uid="{65E83A7C-45FF-7C44-B324-72AB2FCFBF74}"/>
-    <hyperlink ref="O54" r:id="rId24" xr:uid="{D5EF334A-3E47-AE4D-8F9B-E27CAFCF31FA}"/>
-    <hyperlink ref="O52" r:id="rId25" xr:uid="{A9B8A2E3-049C-5140-9019-A85A999D5A0F}"/>
-    <hyperlink ref="O56" r:id="rId26" xr:uid="{B5A7D6AB-B82C-3545-B269-62CA72E6B10A}"/>
-    <hyperlink ref="O7" r:id="rId27" xr:uid="{5D16655E-9918-B246-A1E4-A1C8ACB3439C}"/>
-    <hyperlink ref="O58" r:id="rId28" xr:uid="{409BA013-EDE1-5549-BEFF-62B4701835B8}"/>
-    <hyperlink ref="O70" r:id="rId29" xr:uid="{C881A008-4FA8-6A44-B73D-99B773DB17A2}"/>
-    <hyperlink ref="O60" r:id="rId30" xr:uid="{9BC27B0D-1A62-9C4C-827B-B2C8B2C4B1A8}"/>
-    <hyperlink ref="O61" r:id="rId31" xr:uid="{8ABB7555-E4FD-804A-A9E9-7C173AB084DA}"/>
-    <hyperlink ref="O59" r:id="rId32" xr:uid="{6E1D1288-DC79-7E40-B3AE-E5251EC74370}"/>
-    <hyperlink ref="O27" r:id="rId33" xr:uid="{13DDC6B3-E09C-654D-B25B-76305B5D2EA8}"/>
-    <hyperlink ref="O45" r:id="rId34" xr:uid="{3FEFA9FF-969D-C84C-AB8B-9C831DC6615E}"/>
-    <hyperlink ref="O42" r:id="rId35" xr:uid="{814C4BA2-B230-9A46-8814-3DEE328D2C5C}"/>
-    <hyperlink ref="O102" r:id="rId36" xr:uid="{7E93212B-73FB-3E4D-BCD4-8B777E2DBFF3}"/>
-    <hyperlink ref="O65" r:id="rId37" xr:uid="{5C8DF39F-BDB1-3B4F-BE90-F8FFB71452D9}"/>
-    <hyperlink ref="O38" r:id="rId38" xr:uid="{1F1761E1-0A4E-BC40-9E1B-09CC68BDDD06}"/>
-    <hyperlink ref="O24" r:id="rId39" xr:uid="{356BBF8B-D112-ED40-95DE-6AB3A204F42C}"/>
-    <hyperlink ref="O12" r:id="rId40" xr:uid="{700104D6-90C0-8C42-AE32-0F2D16F3EA44}"/>
-    <hyperlink ref="O33" r:id="rId41" xr:uid="{74087B49-DF75-694D-878E-77E0C79AE2FB}"/>
-    <hyperlink ref="O36" r:id="rId42" xr:uid="{72093307-A3A5-A04A-AA11-98B96FE0F154}"/>
-    <hyperlink ref="O81" r:id="rId43" xr:uid="{6E741000-2EAF-AD42-BC04-E5F07EFB1CF4}"/>
-    <hyperlink ref="O41" r:id="rId44" xr:uid="{0780F015-440A-B241-923F-C77D587B8843}"/>
-    <hyperlink ref="O44" r:id="rId45" xr:uid="{64252ECE-1867-0047-BA98-84C3506775EE}"/>
-    <hyperlink ref="O77" r:id="rId46" xr:uid="{AE32A472-DB69-E04A-9D0A-865CBAECD5CB}"/>
-    <hyperlink ref="O14" r:id="rId47" xr:uid="{75700E12-229E-E64F-92DB-613EB2181AD7}"/>
-    <hyperlink ref="O46" r:id="rId48" xr:uid="{08037EDA-E0E5-1D47-BFE2-238620188875}"/>
-    <hyperlink ref="O39" r:id="rId49" xr:uid="{4D795149-9396-0744-A571-7F96F56FAB7C}"/>
-    <hyperlink ref="O47" r:id="rId50" xr:uid="{43D87AF8-3DED-9C49-8AD4-4A2378DAE7CD}"/>
-    <hyperlink ref="N6" r:id="rId51" xr:uid="{7896A6EA-5739-E54A-83E3-17386B7DCCC8}"/>
-    <hyperlink ref="O48" r:id="rId52" xr:uid="{762823A3-02E0-4A4F-B3CC-6F30D298A987}"/>
-    <hyperlink ref="O78" r:id="rId53" xr:uid="{7FB2ED77-A405-CE4B-A585-86FF6AE50D99}"/>
-    <hyperlink ref="O32" r:id="rId54" xr:uid="{B2D0A2CC-672B-864A-A1B5-AFBF790DF6F7}"/>
-    <hyperlink ref="O20" r:id="rId55" xr:uid="{CEF4DD82-F8E0-644B-BA30-5328CBAAD6D7}"/>
-    <hyperlink ref="O28" r:id="rId56" xr:uid="{70B1D8D1-2CCF-E645-A619-CB613E7A0E4B}"/>
-    <hyperlink ref="O51" r:id="rId57" xr:uid="{62E8C11E-4B21-9A41-A51F-420F92CBFAEF}"/>
-    <hyperlink ref="O35" r:id="rId58" xr:uid="{62900264-CBD8-4C4F-A968-5C208FAD4F6E}"/>
-    <hyperlink ref="O40" r:id="rId59" xr:uid="{B3A0D0E5-33C0-DF42-ADAA-76842D460DD2}"/>
-    <hyperlink ref="O49" r:id="rId60" xr:uid="{C922300D-32FA-3B41-AF3C-420E47135D55}"/>
-    <hyperlink ref="O84" r:id="rId61" xr:uid="{D4B318CC-442F-0B48-BF75-66D667ED40B3}"/>
-    <hyperlink ref="O62" r:id="rId62" xr:uid="{46550FCA-A797-4A4F-9446-3E016BCB210C}"/>
-    <hyperlink ref="O68" r:id="rId63" xr:uid="{14210FB2-D115-284E-967E-E0D45A486B1A}"/>
-    <hyperlink ref="O55" r:id="rId64" xr:uid="{E73C370D-B744-0547-95C8-AD942149703A}"/>
-    <hyperlink ref="O37" r:id="rId65" xr:uid="{B26AD6EE-A384-CB40-BB09-9ECE1CAC3C6C}"/>
-    <hyperlink ref="O43" r:id="rId66" xr:uid="{0A33F70B-2C22-CF4E-8A9E-184ED3350F68}"/>
-    <hyperlink ref="O50" r:id="rId67" xr:uid="{226FFAB8-D1AC-EE45-A8EB-AF015A072D7B}"/>
-    <hyperlink ref="O63" r:id="rId68" xr:uid="{3403ED5E-9557-9945-ACE2-794275ABCD30}"/>
-    <hyperlink ref="O16" r:id="rId69" xr:uid="{0B66E410-7037-E34A-A17F-C8CD8C856BC2}"/>
-    <hyperlink ref="N81" r:id="rId70" xr:uid="{D957EF76-E963-B649-B5D5-ECC122F9D220}"/>
-    <hyperlink ref="O15" r:id="rId71" xr:uid="{BD0B2185-2D10-1045-BD27-25CA24C06722}"/>
-    <hyperlink ref="O73" r:id="rId72" xr:uid="{96AB786D-0F4C-AC49-AFFF-6D3D1C0CD871}"/>
-    <hyperlink ref="O71" r:id="rId73" xr:uid="{78BC6DD0-1546-2C4E-8BFC-D4F254A31EE0}"/>
-    <hyperlink ref="O72" r:id="rId74" xr:uid="{59D6C639-372D-1247-9F96-B1AC94E381CC}"/>
-    <hyperlink ref="O82" r:id="rId75" xr:uid="{80F98F9E-3693-6F4C-813A-B0E0AABFC572}"/>
-    <hyperlink ref="O83" r:id="rId76" xr:uid="{9ABED5E4-3657-0144-A537-50F2A9404DA6}"/>
-    <hyperlink ref="O85" r:id="rId77" xr:uid="{6EF9C798-4B55-E347-9B8D-89824CDDFFDC}"/>
-    <hyperlink ref="O86" r:id="rId78" xr:uid="{7141712A-DB16-7641-910F-6F15531A2C68}"/>
-    <hyperlink ref="O89" r:id="rId79" xr:uid="{BDAFCDED-7674-4E44-A7AB-DF73D0F11BA2}"/>
-    <hyperlink ref="O90" r:id="rId80" xr:uid="{7F6135A9-BB6F-444F-BFC8-58EBBDAA145E}"/>
-    <hyperlink ref="O100" r:id="rId81" xr:uid="{31B0D5AB-114F-BB4B-B3D8-DD78ADB59D57}"/>
-    <hyperlink ref="O91" r:id="rId82" xr:uid="{6C7431EC-4DA4-4242-9104-35327E21C287}"/>
-    <hyperlink ref="O87" r:id="rId83" xr:uid="{17DF4DA7-9397-A941-8F25-CE4247E0038B}"/>
-    <hyperlink ref="O67" r:id="rId84" xr:uid="{65347B8F-F92C-714E-A269-AD4EB5AA8D88}"/>
-    <hyperlink ref="O80" r:id="rId85" xr:uid="{BF185D61-88F6-7F44-B298-7E8F25BD759B}"/>
-    <hyperlink ref="O96" r:id="rId86" xr:uid="{5E3F0024-1804-DB47-9EF7-2226F71341B1}"/>
-    <hyperlink ref="O66" r:id="rId87" xr:uid="{2D0A1ECA-F250-C04B-897F-8A289226850A}"/>
-    <hyperlink ref="O69" r:id="rId88" xr:uid="{C3421137-68E8-0147-B280-77724174E6D7}"/>
-    <hyperlink ref="N71" r:id="rId89" xr:uid="{00447881-4E41-EC46-8985-C37E283F6416}"/>
-    <hyperlink ref="N14" r:id="rId90" xr:uid="{E2ABA3D6-3048-0241-AA72-67EB927210C3}"/>
-    <hyperlink ref="O99" r:id="rId91" xr:uid="{250662FE-33C0-914E-AA98-8C36108755B1}"/>
-    <hyperlink ref="N21" r:id="rId92" xr:uid="{8DB28FEB-E18D-7B40-9BC2-58FD596004B1}"/>
-    <hyperlink ref="O93" r:id="rId93" xr:uid="{BCD23027-9180-D24D-BC35-2C3750B0122B}"/>
-    <hyperlink ref="O95" r:id="rId94" xr:uid="{5542FB2A-3DFF-CC40-BC68-75BCE7C725DA}"/>
-    <hyperlink ref="O98" r:id="rId95" xr:uid="{812A0065-40EC-9D4D-8C54-C52073427100}"/>
-    <hyperlink ref="O97" r:id="rId96" xr:uid="{BD8934F8-6677-A144-B23B-F79016AC3E65}"/>
-    <hyperlink ref="O108" r:id="rId97" xr:uid="{1B1EC616-8662-1E4C-850A-3DB62CB42D70}"/>
-    <hyperlink ref="O109" r:id="rId98" xr:uid="{B38FD18E-9439-D34D-9C57-C9B7831F08D5}"/>
-    <hyperlink ref="O110" r:id="rId99" xr:uid="{0E343F60-C1EA-5B48-A47B-33DFBB18F774}"/>
-    <hyperlink ref="O94" r:id="rId100" xr:uid="{06F3B3F1-F274-9947-AF98-B1DB979D285A}"/>
-    <hyperlink ref="O105" r:id="rId101" xr:uid="{800AA112-81CD-0343-8C1D-F181C703654C}"/>
-    <hyperlink ref="O106" r:id="rId102" xr:uid="{ACA74ADD-DCAB-7C44-83A6-D8A6DCD63A0B}"/>
-    <hyperlink ref="O107" r:id="rId103" xr:uid="{9EFB4367-F008-E141-9AF7-CC1AC64DE0F0}"/>
-    <hyperlink ref="O64" r:id="rId104" xr:uid="{8800BE43-3C76-974C-B76E-70086FD68AE3}"/>
-    <hyperlink ref="O31" r:id="rId105" xr:uid="{101DCDD5-D5EB-BD49-9F63-A786FE9F7532}"/>
-    <hyperlink ref="O76" r:id="rId106" xr:uid="{7F5DA2C3-E101-634F-A67A-F5D9A278312E}"/>
-    <hyperlink ref="O75" r:id="rId107" xr:uid="{9DE88079-889C-EA46-B942-A6912347B3D8}"/>
-    <hyperlink ref="O104" r:id="rId108" xr:uid="{70FC581C-402E-7A46-8891-BCC48BA414AE}"/>
-    <hyperlink ref="O101" r:id="rId109" xr:uid="{3809DBD9-36DF-784D-97E8-FEF916BF69D1}"/>
-    <hyperlink ref="O92" r:id="rId110" xr:uid="{3AD8155C-34F1-474D-8231-AF43191C2CDF}"/>
-    <hyperlink ref="O3" r:id="rId111" xr:uid="{3C4AD26F-BD76-6349-8D23-5D8C869C6410}"/>
-    <hyperlink ref="O103" r:id="rId112" xr:uid="{EC308CEC-38F1-C446-820C-84FBC25EF9EB}"/>
-    <hyperlink ref="O88" r:id="rId113" xr:uid="{83A48CE7-7E04-1448-B487-A39462F0626A}"/>
-    <hyperlink ref="O4" r:id="rId114" xr:uid="{B15A62E6-7152-5240-B6C4-FC47A1FF150E}"/>
-    <hyperlink ref="O2" r:id="rId115" xr:uid="{E8EED418-8DAD-DA4D-B569-60A15B64754F}"/>
+    <hyperlink ref="O77" r:id="rId20" xr:uid="{A399BD4B-BF3A-2840-9168-829E19068186}"/>
+    <hyperlink ref="O51" r:id="rId21" xr:uid="{F3A48F46-259E-754E-8909-5CA77E6A4047}"/>
+    <hyperlink ref="O17" r:id="rId22" xr:uid="{EF4151BF-C8EB-2C4E-AA75-DE59846EB7D3}"/>
+    <hyperlink ref="O55" r:id="rId23" xr:uid="{65E83A7C-45FF-7C44-B324-72AB2FCFBF74}"/>
+    <hyperlink ref="O52" r:id="rId24" xr:uid="{D5EF334A-3E47-AE4D-8F9B-E27CAFCF31FA}"/>
+    <hyperlink ref="O50" r:id="rId25" xr:uid="{A9B8A2E3-049C-5140-9019-A85A999D5A0F}"/>
+    <hyperlink ref="O54" r:id="rId26" xr:uid="{B5A7D6AB-B82C-3545-B269-62CA72E6B10A}"/>
+    <hyperlink ref="O56" r:id="rId27" xr:uid="{409BA013-EDE1-5549-BEFF-62B4701835B8}"/>
+    <hyperlink ref="O68" r:id="rId28" xr:uid="{C881A008-4FA8-6A44-B73D-99B773DB17A2}"/>
+    <hyperlink ref="O58" r:id="rId29" xr:uid="{9BC27B0D-1A62-9C4C-827B-B2C8B2C4B1A8}"/>
+    <hyperlink ref="O59" r:id="rId30" xr:uid="{8ABB7555-E4FD-804A-A9E9-7C173AB084DA}"/>
+    <hyperlink ref="O57" r:id="rId31" xr:uid="{6E1D1288-DC79-7E40-B3AE-E5251EC74370}"/>
+    <hyperlink ref="O26" r:id="rId32" xr:uid="{13DDC6B3-E09C-654D-B25B-76305B5D2EA8}"/>
+    <hyperlink ref="O43" r:id="rId33" xr:uid="{3FEFA9FF-969D-C84C-AB8B-9C831DC6615E}"/>
+    <hyperlink ref="O40" r:id="rId34" xr:uid="{814C4BA2-B230-9A46-8814-3DEE328D2C5C}"/>
+    <hyperlink ref="O100" r:id="rId35" xr:uid="{7E93212B-73FB-3E4D-BCD4-8B777E2DBFF3}"/>
+    <hyperlink ref="O63" r:id="rId36" xr:uid="{5C8DF39F-BDB1-3B4F-BE90-F8FFB71452D9}"/>
+    <hyperlink ref="O36" r:id="rId37" xr:uid="{1F1761E1-0A4E-BC40-9E1B-09CC68BDDD06}"/>
+    <hyperlink ref="O23" r:id="rId38" xr:uid="{356BBF8B-D112-ED40-95DE-6AB3A204F42C}"/>
+    <hyperlink ref="O11" r:id="rId39" xr:uid="{700104D6-90C0-8C42-AE32-0F2D16F3EA44}"/>
+    <hyperlink ref="O31" r:id="rId40" xr:uid="{74087B49-DF75-694D-878E-77E0C79AE2FB}"/>
+    <hyperlink ref="O34" r:id="rId41" xr:uid="{72093307-A3A5-A04A-AA11-98B96FE0F154}"/>
+    <hyperlink ref="O79" r:id="rId42" xr:uid="{6E741000-2EAF-AD42-BC04-E5F07EFB1CF4}"/>
+    <hyperlink ref="O39" r:id="rId43" xr:uid="{0780F015-440A-B241-923F-C77D587B8843}"/>
+    <hyperlink ref="O42" r:id="rId44" xr:uid="{64252ECE-1867-0047-BA98-84C3506775EE}"/>
+    <hyperlink ref="O75" r:id="rId45" xr:uid="{AE32A472-DB69-E04A-9D0A-865CBAECD5CB}"/>
+    <hyperlink ref="O13" r:id="rId46" xr:uid="{75700E12-229E-E64F-92DB-613EB2181AD7}"/>
+    <hyperlink ref="O44" r:id="rId47" xr:uid="{08037EDA-E0E5-1D47-BFE2-238620188875}"/>
+    <hyperlink ref="O37" r:id="rId48" xr:uid="{4D795149-9396-0744-A571-7F96F56FAB7C}"/>
+    <hyperlink ref="O45" r:id="rId49" xr:uid="{43D87AF8-3DED-9C49-8AD4-4A2378DAE7CD}"/>
+    <hyperlink ref="N6" r:id="rId50" xr:uid="{7896A6EA-5739-E54A-83E3-17386B7DCCC8}"/>
+    <hyperlink ref="O46" r:id="rId51" xr:uid="{762823A3-02E0-4A4F-B3CC-6F30D298A987}"/>
+    <hyperlink ref="O76" r:id="rId52" xr:uid="{7FB2ED77-A405-CE4B-A585-86FF6AE50D99}"/>
+    <hyperlink ref="O30" r:id="rId53" xr:uid="{B2D0A2CC-672B-864A-A1B5-AFBF790DF6F7}"/>
+    <hyperlink ref="O19" r:id="rId54" xr:uid="{CEF4DD82-F8E0-644B-BA30-5328CBAAD6D7}"/>
+    <hyperlink ref="O49" r:id="rId55" xr:uid="{62E8C11E-4B21-9A41-A51F-420F92CBFAEF}"/>
+    <hyperlink ref="O33" r:id="rId56" xr:uid="{62900264-CBD8-4C4F-A968-5C208FAD4F6E}"/>
+    <hyperlink ref="O38" r:id="rId57" xr:uid="{B3A0D0E5-33C0-DF42-ADAA-76842D460DD2}"/>
+    <hyperlink ref="O47" r:id="rId58" xr:uid="{C922300D-32FA-3B41-AF3C-420E47135D55}"/>
+    <hyperlink ref="O82" r:id="rId59" xr:uid="{D4B318CC-442F-0B48-BF75-66D667ED40B3}"/>
+    <hyperlink ref="O60" r:id="rId60" xr:uid="{46550FCA-A797-4A4F-9446-3E016BCB210C}"/>
+    <hyperlink ref="O66" r:id="rId61" xr:uid="{14210FB2-D115-284E-967E-E0D45A486B1A}"/>
+    <hyperlink ref="O53" r:id="rId62" xr:uid="{E73C370D-B744-0547-95C8-AD942149703A}"/>
+    <hyperlink ref="O35" r:id="rId63" xr:uid="{B26AD6EE-A384-CB40-BB09-9ECE1CAC3C6C}"/>
+    <hyperlink ref="O41" r:id="rId64" xr:uid="{0A33F70B-2C22-CF4E-8A9E-184ED3350F68}"/>
+    <hyperlink ref="O48" r:id="rId65" xr:uid="{226FFAB8-D1AC-EE45-A8EB-AF015A072D7B}"/>
+    <hyperlink ref="O61" r:id="rId66" xr:uid="{3403ED5E-9557-9945-ACE2-794275ABCD30}"/>
+    <hyperlink ref="O15" r:id="rId67" xr:uid="{0B66E410-7037-E34A-A17F-C8CD8C856BC2}"/>
+    <hyperlink ref="N79" r:id="rId68" xr:uid="{D957EF76-E963-B649-B5D5-ECC122F9D220}"/>
+    <hyperlink ref="O14" r:id="rId69" xr:uid="{BD0B2185-2D10-1045-BD27-25CA24C06722}"/>
+    <hyperlink ref="O71" r:id="rId70" xr:uid="{96AB786D-0F4C-AC49-AFFF-6D3D1C0CD871}"/>
+    <hyperlink ref="O69" r:id="rId71" xr:uid="{78BC6DD0-1546-2C4E-8BFC-D4F254A31EE0}"/>
+    <hyperlink ref="O70" r:id="rId72" xr:uid="{59D6C639-372D-1247-9F96-B1AC94E381CC}"/>
+    <hyperlink ref="O80" r:id="rId73" xr:uid="{80F98F9E-3693-6F4C-813A-B0E0AABFC572}"/>
+    <hyperlink ref="O81" r:id="rId74" xr:uid="{9ABED5E4-3657-0144-A537-50F2A9404DA6}"/>
+    <hyperlink ref="O83" r:id="rId75" xr:uid="{6EF9C798-4B55-E347-9B8D-89824CDDFFDC}"/>
+    <hyperlink ref="O84" r:id="rId76" xr:uid="{7141712A-DB16-7641-910F-6F15531A2C68}"/>
+    <hyperlink ref="O87" r:id="rId77" xr:uid="{BDAFCDED-7674-4E44-A7AB-DF73D0F11BA2}"/>
+    <hyperlink ref="O88" r:id="rId78" xr:uid="{7F6135A9-BB6F-444F-BFC8-58EBBDAA145E}"/>
+    <hyperlink ref="O98" r:id="rId79" xr:uid="{31B0D5AB-114F-BB4B-B3D8-DD78ADB59D57}"/>
+    <hyperlink ref="O89" r:id="rId80" xr:uid="{6C7431EC-4DA4-4242-9104-35327E21C287}"/>
+    <hyperlink ref="O85" r:id="rId81" xr:uid="{17DF4DA7-9397-A941-8F25-CE4247E0038B}"/>
+    <hyperlink ref="O65" r:id="rId82" xr:uid="{65347B8F-F92C-714E-A269-AD4EB5AA8D88}"/>
+    <hyperlink ref="O78" r:id="rId83" xr:uid="{BF185D61-88F6-7F44-B298-7E8F25BD759B}"/>
+    <hyperlink ref="O94" r:id="rId84" xr:uid="{5E3F0024-1804-DB47-9EF7-2226F71341B1}"/>
+    <hyperlink ref="O64" r:id="rId85" xr:uid="{2D0A1ECA-F250-C04B-897F-8A289226850A}"/>
+    <hyperlink ref="O67" r:id="rId86" xr:uid="{C3421137-68E8-0147-B280-77724174E6D7}"/>
+    <hyperlink ref="N69" r:id="rId87" xr:uid="{00447881-4E41-EC46-8985-C37E283F6416}"/>
+    <hyperlink ref="N13" r:id="rId88" xr:uid="{E2ABA3D6-3048-0241-AA72-67EB927210C3}"/>
+    <hyperlink ref="O97" r:id="rId89" xr:uid="{250662FE-33C0-914E-AA98-8C36108755B1}"/>
+    <hyperlink ref="N20" r:id="rId90" xr:uid="{8DB28FEB-E18D-7B40-9BC2-58FD596004B1}"/>
+    <hyperlink ref="O91" r:id="rId91" xr:uid="{BCD23027-9180-D24D-BC35-2C3750B0122B}"/>
+    <hyperlink ref="O93" r:id="rId92" xr:uid="{5542FB2A-3DFF-CC40-BC68-75BCE7C725DA}"/>
+    <hyperlink ref="O96" r:id="rId93" xr:uid="{812A0065-40EC-9D4D-8C54-C52073427100}"/>
+    <hyperlink ref="O95" r:id="rId94" xr:uid="{BD8934F8-6677-A144-B23B-F79016AC3E65}"/>
+    <hyperlink ref="O106" r:id="rId95" xr:uid="{1B1EC616-8662-1E4C-850A-3DB62CB42D70}"/>
+    <hyperlink ref="O107" r:id="rId96" xr:uid="{B38FD18E-9439-D34D-9C57-C9B7831F08D5}"/>
+    <hyperlink ref="O108" r:id="rId97" xr:uid="{0E343F60-C1EA-5B48-A47B-33DFBB18F774}"/>
+    <hyperlink ref="O92" r:id="rId98" xr:uid="{06F3B3F1-F274-9947-AF98-B1DB979D285A}"/>
+    <hyperlink ref="O103" r:id="rId99" xr:uid="{800AA112-81CD-0343-8C1D-F181C703654C}"/>
+    <hyperlink ref="O104" r:id="rId100" xr:uid="{ACA74ADD-DCAB-7C44-83A6-D8A6DCD63A0B}"/>
+    <hyperlink ref="O105" r:id="rId101" xr:uid="{9EFB4367-F008-E141-9AF7-CC1AC64DE0F0}"/>
+    <hyperlink ref="O62" r:id="rId102" xr:uid="{8800BE43-3C76-974C-B76E-70086FD68AE3}"/>
+    <hyperlink ref="O29" r:id="rId103" xr:uid="{101DCDD5-D5EB-BD49-9F63-A786FE9F7532}"/>
+    <hyperlink ref="O74" r:id="rId104" xr:uid="{7F5DA2C3-E101-634F-A67A-F5D9A278312E}"/>
+    <hyperlink ref="O73" r:id="rId105" xr:uid="{9DE88079-889C-EA46-B942-A6912347B3D8}"/>
+    <hyperlink ref="O102" r:id="rId106" xr:uid="{70FC581C-402E-7A46-8891-BCC48BA414AE}"/>
+    <hyperlink ref="O99" r:id="rId107" xr:uid="{3809DBD9-36DF-784D-97E8-FEF916BF69D1}"/>
+    <hyperlink ref="O90" r:id="rId108" xr:uid="{3AD8155C-34F1-474D-8231-AF43191C2CDF}"/>
+    <hyperlink ref="O3" r:id="rId109" xr:uid="{3C4AD26F-BD76-6349-8D23-5D8C869C6410}"/>
+    <hyperlink ref="O101" r:id="rId110" xr:uid="{EC308CEC-38F1-C446-820C-84FBC25EF9EB}"/>
+    <hyperlink ref="O86" r:id="rId111" xr:uid="{83A48CE7-7E04-1448-B487-A39462F0626A}"/>
+    <hyperlink ref="O4" r:id="rId112" xr:uid="{B15A62E6-7152-5240-B6C4-FC47A1FF150E}"/>
+    <hyperlink ref="O2" r:id="rId113" xr:uid="{E8EED418-8DAD-DA4D-B569-60A15B64754F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
